--- a/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
+++ b/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="817" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="817" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Act1Niv0" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Salon" sheetId="10" r:id="rId10"/>
     <sheet name="ChambreAbi" sheetId="11" r:id="rId11"/>
     <sheet name="ChambreHip" sheetId="12" r:id="rId12"/>
-    <sheet name="ChambreCel" sheetId="13" r:id="rId13"/>
-    <sheet name="Jardin" sheetId="14" r:id="rId14"/>
+    <sheet name="Jardin" sheetId="14" r:id="rId13"/>
+    <sheet name="ChambreCel" sheetId="13" r:id="rId14"/>
     <sheet name="Grenier" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14786" uniqueCount="5754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14998" uniqueCount="5821">
   <si>
     <t>LINE</t>
   </si>
@@ -17241,9 +17241,6 @@
     <t>It's Abigail's rocking elephant. It's her favorite animal.</t>
   </si>
   <si>
-    <t>ChambreAbi</t>
-  </si>
-  <si>
     <t>Lamp</t>
   </si>
   <si>
@@ -17289,12 +17286,6 @@
     <t>DeskPicture</t>
   </si>
   <si>
-    <t>DeskChair</t>
-  </si>
-  <si>
-    <t>DeskLamp</t>
-  </si>
-  <si>
     <t>PARCHEESI</t>
   </si>
   <si>
@@ -17302,13 +17293,223 @@
   </si>
   <si>
     <t>Drawers</t>
+  </si>
+  <si>
+    <t>Abigail a des tonnes de souvenirs ici. Elle affiche tout, on voit des photos de tout le monde a tous les âges.</t>
+  </si>
+  <si>
+    <t>Abigail has so many memories in this place. She keeps everything. She has pictures of everyone throughout her life.</t>
+  </si>
+  <si>
+    <t>Je ne vais pas fouiller dans les affaires personnelles d'Abigail.</t>
+  </si>
+  <si>
+    <t>Je me demande ce qu'Abigail range là-dedans.</t>
+  </si>
+  <si>
+    <t>Les plantes m'apaisent. Elles sont en bonne santé, aucune n'a besoin d'être arrosée.</t>
+  </si>
+  <si>
+    <t>Je n'ai jamais eu de coiffeuse. Quand je pense qu'elle a aussi une salle de bain personnelle…</t>
+  </si>
+  <si>
+    <t>Les fenêtres donnent sur le jardin. La vue est magnifique.</t>
+  </si>
+  <si>
+    <t>Je n'ai pas envie de m'asseoir maintenant.</t>
+  </si>
+  <si>
+    <t>Les tapis sont tout doux sous mes pieds.</t>
+  </si>
+  <si>
+    <t>Encore une photo de famille.</t>
+  </si>
+  <si>
+    <t>C'est ici qu'Abigail doit s'installer pour écrire.</t>
+  </si>
+  <si>
+    <t>Je n'ai pas besoin de plus de lumière.</t>
+  </si>
+  <si>
+    <t>C'est la première fois que je vois un banc de lit dans la vraie vie.</t>
+  </si>
+  <si>
+    <t>Oh, des lapins ! Dommage que ça ne soient que des statuettes.</t>
+  </si>
+  <si>
+    <t>I don't want to go through Abigail's personal stuff.</t>
+  </si>
+  <si>
+    <t>I don't need more light.</t>
+  </si>
+  <si>
+    <t>A canopy bed! What a dream!</t>
+  </si>
+  <si>
+    <t>Un lit à baldaquin ! Un rêve éveillé…</t>
+  </si>
+  <si>
+    <t>Abigail reads so much. I can't even start to count the number of classic novels she has in her room, let alone in the library.</t>
+  </si>
+  <si>
+    <t>Abigail lit énormément. Elle a un nombre incalculable de classiques… Et encore, ce ne sont que ceux qu'elle garde dans sa chambre. Elle doit en avoir encore beaucoup dans la bibliothèque.</t>
+  </si>
+  <si>
+    <t>I wonder what Abigail keeps in here.</t>
+  </si>
+  <si>
+    <t>Oh, rabbits! Too bad they're fake.</t>
+  </si>
+  <si>
+    <t>The plants comfort me. They're all healthy. None of them need watering.</t>
+  </si>
+  <si>
+    <t>I've never had a dressing table. And Abigail also has her own private bathroom...</t>
+  </si>
+  <si>
+    <t>The view on the garden is beautiful.</t>
+  </si>
+  <si>
+    <t>I don't want to sit right now.</t>
+  </si>
+  <si>
+    <t>The carpets are so soft under my feet.</t>
+  </si>
+  <si>
+    <t>Another family portrait.</t>
+  </si>
+  <si>
+    <t>It's the first time I see a bedside bench in real life.</t>
+  </si>
+  <si>
+    <t>That's where Abigail must sit to write.</t>
+  </si>
+  <si>
+    <t>CHAMBREHIPPO</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>SPEAKERS</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>SHOES</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>GUITAR</t>
+  </si>
+  <si>
+    <t>SHIRT</t>
+  </si>
+  <si>
+    <t>HIDDEN_TRAP</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>CLARINET</t>
+  </si>
+  <si>
+    <t>HEAD_OF_BED</t>
+  </si>
+  <si>
+    <t>PAPERS_ON_FLOOR</t>
+  </si>
+  <si>
+    <t>BOTTLES</t>
+  </si>
+  <si>
+    <t>BEDSIDE_BOOKS</t>
+  </si>
+  <si>
+    <t>HEADPHONES</t>
+  </si>
+  <si>
+    <t>Abigailsroom</t>
+  </si>
+  <si>
+    <t>Pictures Inventaire</t>
+  </si>
+  <si>
+    <t>Abigail a des tonnes de souvenirs au Manoir. Elle prend tout en photo.</t>
+  </si>
+  <si>
+    <t>Abigail has so many memories of the Manor. She took pictures of everything.</t>
+  </si>
+  <si>
+    <t>Hippolyte peint vraiment énormément ! Sa chambre est tellement personnelle, je ne m'y attendais pas du tout.</t>
+  </si>
+  <si>
+    <t>Un ordinateur dernier cri… La session est bloquée par un mot de passe, je ne peux pas y accéder.</t>
+  </si>
+  <si>
+    <t>Hippolyte a tout ce qu'il faut pour pouvoir écouter de la musique dans de bonnes conditions.</t>
+  </si>
+  <si>
+    <t>Même si je voulais m'asseoir, je ne pourrais pas, cette chaise sert visiblement à y poser les choses qui ne sont pas par terre.</t>
+  </si>
+  <si>
+    <t>Un appareil photo ? Hippolyte fait beaucoup plus d'activités artistiques que je ne le croyais.</t>
+  </si>
+  <si>
+    <t>Il faut que je fasse attention de ne pas trébucher, il y a des affaires un peu partout.</t>
+  </si>
+  <si>
+    <t>Le lit est défait, comme une invitation à revenir s'y prélasser.</t>
+  </si>
+  <si>
+    <t>Je ne savais pas qu'Hippolyte jouait de la guitare.</t>
+  </si>
+  <si>
+    <t>Une clarinette ! Je trouve que ça colle bien à sa personnalité.</t>
+  </si>
+  <si>
+    <t>On dirait des brouillons de composition. Il écrit donc de la musique ?</t>
+  </si>
+  <si>
+    <t>Tiens… Qu'est-ce que c'est ? Un recoin secret ? Qu'est-ce qu'Hippolyte peut bien vouloir cacher ?</t>
+  </si>
+  <si>
+    <t>C'est du matériel de tatouage. Les aiguilles, l'encre, et même un carnet avec des designs… Est-ce que c'est Hippolyte qui les a fait ? J'ai l'impression de reconnaître son style, et en même temps c'est tellement différent de ce qui est accroché sur les murs...</t>
+  </si>
+  <si>
+    <t>L'ampoule a grillé.</t>
+  </si>
+  <si>
+    <t>C'est de l'eau. Je crois.</t>
+  </si>
+  <si>
+    <t>Encore de quoi écouter de la musique. Hippolyte a l'air de souvent s'isoler dans sa bulle de sons.</t>
+  </si>
+  <si>
+    <t>Ces boîtes sont trop hautes pour que je les attrape sans monter debout sur le lit. Je n'en ai pas envie.</t>
+  </si>
+  <si>
+    <t>Dernières lectures : Châteaux de la colère, La Maison dans Laquelle et Emma Goldman : Epopée d'une Anarchiste.</t>
+  </si>
+  <si>
+    <t>Je ne vois rien de spécial…</t>
+  </si>
+  <si>
+    <t>Ce sont surtout des carnets à croquis et quelques livres théoriques sur l'Histoire de l'Art.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -17344,6 +17545,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -17409,7 +17617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -17448,6 +17656,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20368,305 +20580,568 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="52.85546875" customWidth="1"/>
-    <col min="8" max="28" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5604</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4689</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" t="s">
+      <c r="I1" s="17" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" t="str">
+        <f>CONCATENATE(D2,"_",MID(C2,1,3),"_",MID(F2,1,3),"_",MID(E2,1,3),"_",B2)</f>
+        <v>A01_Abi_NAR_Dra_00010</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5750</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5753</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5765</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A18" si="0">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
+        <v>A01_Abi_NAR_Lam_00020</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E3" t="s">
         <v>5733</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>5762</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>5766</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Bed_00030</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D4" t="s">
         <v>5605</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>5734</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>5768</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>5767</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Boo_00040</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5735</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5770</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>5769</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Che_00050</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5736</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>5754</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>5771</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Rab_00060</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5737</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>5764</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>5772</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Cup_00070</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5738</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G8" t="s">
         <v>5753</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H8" s="17" t="s">
+        <v>5765</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Pla_00080</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5739</v>
+      </c>
+      <c r="F9" t="s">
         <v>4694</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="B3" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G9" s="17" t="s">
+        <v>5755</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>5773</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Mir_00090</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D10" t="s">
         <v>5605</v>
       </c>
-      <c r="D3" t="s">
-        <v>5734</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
+        <v>5740</v>
+      </c>
+      <c r="F10" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="B4" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G10" s="17" t="s">
+        <v>5756</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>5774</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Win_00100</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D11" t="s">
         <v>5605</v>
       </c>
-      <c r="D4" t="s">
-        <v>5735</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E11" t="s">
+        <v>5741</v>
+      </c>
+      <c r="F11" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="B5" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G11" s="17" t="s">
+        <v>5757</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>5775</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Cha_00110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D12" t="s">
         <v>5605</v>
       </c>
-      <c r="D5" t="s">
-        <v>5736</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E12" t="s">
+        <v>5743</v>
+      </c>
+      <c r="F12" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="B6" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G12" s="17" t="s">
+        <v>5758</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>5776</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Pic_00120</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D13" t="s">
         <v>5605</v>
       </c>
-      <c r="D6" t="s">
-        <v>5737</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E13" s="29" t="s">
+        <v>5744</v>
+      </c>
+      <c r="F13" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="B7" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G13" s="30" t="s">
+        <v>5751</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>5752</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Car_00130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D14" t="s">
         <v>5605</v>
       </c>
-      <c r="D7" t="s">
-        <v>5738</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E14" t="s">
+        <v>5742</v>
+      </c>
+      <c r="F14" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="B8" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G14" s="17" t="s">
+        <v>5759</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>5777</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Des_00140</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D15" t="s">
         <v>5605</v>
       </c>
-      <c r="D8" t="s">
-        <v>5739</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E15" t="s">
+        <v>5747</v>
+      </c>
+      <c r="F15" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="B9" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G15" s="17" t="s">
+        <v>5760</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>5778</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Bed_00150</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D16" t="s">
         <v>5605</v>
       </c>
-      <c r="D9" t="s">
-        <v>5740</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E16" t="s">
+        <v>5746</v>
+      </c>
+      <c r="F16" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="B10" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="G16" s="17" t="s">
+        <v>5763</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>5779</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Pap_00160</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>5605</v>
       </c>
-      <c r="D10" t="s">
-        <v>5741</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E17" t="s">
+        <v>5745</v>
+      </c>
+      <c r="F17" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="B11" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G17" s="17" t="s">
+        <v>5761</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>5780</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_Abi_NAR_Pic_00170</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D18" t="s">
         <v>5605</v>
       </c>
-      <c r="D11" t="s">
-        <v>5742</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E18" s="31" t="s">
+        <v>5799</v>
+      </c>
+      <c r="F18" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="B12" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5744</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="B13" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>5745</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="B14" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5743</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="B15" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5748</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="B16" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5749</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
-      <c r="B17" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5750</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
-      <c r="B18" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5746</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4694</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
-      <c r="B19" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5747</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4694</v>
+      <c r="G18" s="17" t="s">
+        <v>5800</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>5801</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5610</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20675,32 +21150,484 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4833</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5802</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>5803</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="B4" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>5804</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>5805</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>5806</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5132</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>5820</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>5807</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>5808</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>5809</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>5819</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>5812</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>5813</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="B15" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="B16" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>5810</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1">
+      <c r="B17" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>5814</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>5811</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1">
+      <c r="B20" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>5815</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1">
+      <c r="B21" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>5818</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1">
+      <c r="B22" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>5816</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1">
+      <c r="B23" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>5120</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>5817</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>5611</v>
       </c>
     </row>
   </sheetData>
@@ -20714,30 +21641,98 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="C2" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="C3" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="C4" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="C5" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="C6" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="C7" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="C8" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="C9" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="C10" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="C11" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="C12" s="17" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="C13" s="17" t="s">
+        <v>5605</v>
       </c>
     </row>
   </sheetData>
@@ -20827,7 +21822,7 @@
   </sheetPr>
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
+    <sheetView topLeftCell="A292" workbookViewId="0">
       <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
@@ -62809,7 +63804,7 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -64599,7 +65594,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -65376,8 +66371,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -65628,7 +66623,7 @@
         <v>5696</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>5752</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -66126,7 +67121,7 @@
         <v>5605</v>
       </c>
       <c r="E25" t="s">
-        <v>5751</v>
+        <v>5748</v>
       </c>
       <c r="F25" t="s">
         <v>4694</v>

--- a/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
+++ b/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14998" uniqueCount="5821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15053" uniqueCount="5847">
   <si>
     <t>LINE</t>
   </si>
@@ -17503,6 +17503,84 @@
   </si>
   <si>
     <t>Ce sont surtout des carnets à croquis et quelques livres théoriques sur l'Histoire de l'Art.</t>
+  </si>
+  <si>
+    <t>Il y a des CD de métal cachés sous du rock et de la pop.</t>
+  </si>
+  <si>
+    <t>J'aime bien la décoration de la chambre d'Hippolyte, elle est chaleureuse et reposante.</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>Hippolyte cache du matériel de tatouage dans un recoin secret dans sa chambre.</t>
+  </si>
+  <si>
+    <t>Hippolyte really paints a lot! His room is so well decorated! I didn't expect that.</t>
+  </si>
+  <si>
+    <t>A high-tech computer… I don't know the password so I can't use it.</t>
+  </si>
+  <si>
+    <t>Hippolyte has everything he needs to listen to music in the best possible way.</t>
+  </si>
+  <si>
+    <t>Even if I wanted to sit down, I couldn't. This chair's purpose is obviously to serve as a table for the things that aren't on the floor.</t>
+  </si>
+  <si>
+    <t>Is that a camera? Hippolyte has so many artistic interests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are mostly sketchbooks and manuals about the History of Arts. </t>
+  </si>
+  <si>
+    <t>I need to be careful not to trip. There are stuff everywhere on the floor.</t>
+  </si>
+  <si>
+    <t>The bed isn't made. I feel like it's welcoming me to go back to sleep.</t>
+  </si>
+  <si>
+    <t>I didn't know Hippolyte played the guitar.</t>
+  </si>
+  <si>
+    <t>I don't see anything of interest here…</t>
+  </si>
+  <si>
+    <t>What's that? Is it a secret hideout? What could Hippolyte possibly want to hide?</t>
+  </si>
+  <si>
+    <t>Hippolyte hides everything he needs to tattoo someone in a hideout in his room.</t>
+  </si>
+  <si>
+    <t>It's tattooing gear. There are needles, inks, and even a sketchbook full of designs. Did Hippolyte draw them? I feel like I can recognize his style, but at the same time, it is so different from what's hanging on the walls…</t>
+  </si>
+  <si>
+    <t>There are CDs of metal bands hidden under rock and pop music.</t>
+  </si>
+  <si>
+    <t>A clarinet! That fits with his personality.</t>
+  </si>
+  <si>
+    <t>The lightbulb burned out.</t>
+  </si>
+  <si>
+    <t>I like how Hippolyte's room feels to me. It is confy and warm.</t>
+  </si>
+  <si>
+    <t>This looks like rough drafts of sheet music… Is Hippolyte also a composer?</t>
+  </si>
+  <si>
+    <t>That's water. I think.</t>
+  </si>
+  <si>
+    <t>Last books read: Lands of Glass, The Gray House and Emma Goldman: Living my Life.</t>
+  </si>
+  <si>
+    <t>More equipment to listen to music. Apparently, Hippolyte often isolates himself in a sound bubble.</t>
+  </si>
+  <si>
+    <t>These boxes are too high up for me to reach them without standing on the bed. I don't feel like it.</t>
   </si>
 </sst>
 </file>
@@ -17547,7 +17625,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -17656,10 +17733,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20583,7 +20660,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20979,7 +21056,7 @@
       <c r="F13" t="s">
         <v>4694</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>5751</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -21123,7 +21200,7 @@
       <c r="D18" t="s">
         <v>5605</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>5799</v>
       </c>
       <c r="F18" t="s">
@@ -21150,484 +21227,743 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="28" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>5604</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>4689</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" t="str">
+        <f>CONCATENATE(D2,"_",MID(C2,1,3),"_",MID(F2,1,3),"_",MID(E2,1,3),"_",B2)</f>
+        <v>A01_CHA_NAR_ART_00010</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5605</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>4833</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>5802</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="B3" s="17" t="s">
+      <c r="H2" s="17" t="s">
+        <v>5825</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A24" si="0">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
+        <v>A01_CHA_NAR_COM_00020</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5605</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>5782</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>5803</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="H3" s="17" t="s">
+        <v>5826</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_SPE_00030</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5605</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>5783</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>5804</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="H4" s="17" t="s">
+        <v>5827</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_CHA_00040</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5605</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>5784</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>5805</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="H5" s="17" t="s">
+        <v>5828</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_CAM_00050</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5605</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>5785</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>5806</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="H6" s="17" t="s">
+        <v>5829</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_BOO_00060</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5605</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>5132</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>5820</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="H7" s="17" t="s">
+        <v>5830</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_SHO_00070</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>5605</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>5786</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>5807</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="H8" s="17" t="s">
+        <v>5831</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_BED_00080</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>5605</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>5787</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>5808</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="H9" s="17" t="s">
+        <v>5832</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_GUI_00090</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>5605</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>5788</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>5809</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="B11" s="17" t="s">
+      <c r="H10" s="17" t="s">
+        <v>5833</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_SHI_00100</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>5605</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>5789</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>5819</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="B12" s="17" t="s">
+      <c r="H11" s="17" t="s">
+        <v>5834</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HID_00110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>5605</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>5790</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>5812</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="B13" s="17" t="s">
+      <c r="H12" s="17" t="s">
+        <v>5835</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HID_00120</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>5605</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>5790</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="B14" s="17" t="s">
+      <c r="H13" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HID_00131</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>5605</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>5790</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="17" t="s">
+        <v>5824</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>5836</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HID_00130</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>5605</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>5790</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>5813</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="B15" s="17" t="s">
+      <c r="H15" s="17" t="s">
+        <v>5837</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_CDS_00140</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>5605</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>5791</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="B16" s="17" t="s">
+      <c r="G16" s="17" t="s">
+        <v>5821</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>5838</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_CLA_00150</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>5605</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>5792</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>5810</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1">
-      <c r="B17" s="17" t="s">
+      <c r="H17" s="17" t="s">
+        <v>5839</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_LAM_00160</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>5605</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>4711</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>5814</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="17" t="s">
+      <c r="H18" s="17" t="s">
+        <v>5840</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HEA_00170</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>5605</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>5793</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="17" t="s">
+      <c r="G19" s="17" t="s">
+        <v>5822</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>5841</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_PAP_00180</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>5605</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>5794</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>5811</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="17" t="s">
+      <c r="H20" s="17" t="s">
+        <v>5842</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_BOT_00190</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>5605</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>5795</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>5815</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="17" t="s">
+      <c r="H21" s="17" t="s">
+        <v>5843</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_BED_00200</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>5605</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>5796</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>5818</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="17" t="s">
+      <c r="H22" s="17" t="s">
+        <v>5844</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_HEA_00210</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>5605</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>5797</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>5816</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1">
-      <c r="B23" s="17" t="s">
+      <c r="H23" s="17" t="s">
+        <v>5845</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_CHA_NAR_BOX_00220</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>5781</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>5605</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>5120</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>5817</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>5611</v>
+      <c r="H24" s="17" t="s">
+        <v>5846</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>5610</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
+++ b/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="817" activeTab="11"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" tabRatio="817"/>
   </bookViews>
   <sheets>
     <sheet name="Act1Niv0" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
     <sheet name="Cuisine" sheetId="7" r:id="rId7"/>
     <sheet name="Grille" sheetId="8" r:id="rId8"/>
     <sheet name="Salledejeu" sheetId="9" r:id="rId9"/>
-    <sheet name="Salon" sheetId="10" r:id="rId10"/>
-    <sheet name="ChambreAbi" sheetId="11" r:id="rId11"/>
-    <sheet name="ChambreHip" sheetId="12" r:id="rId12"/>
-    <sheet name="Jardin" sheetId="14" r:id="rId13"/>
+    <sheet name="ChambreAbi" sheetId="11" r:id="rId10"/>
+    <sheet name="ChambreHip" sheetId="12" r:id="rId11"/>
+    <sheet name="Jardin" sheetId="14" r:id="rId12"/>
+    <sheet name="Salon" sheetId="10" r:id="rId13"/>
     <sheet name="ChambreCel" sheetId="13" r:id="rId14"/>
     <sheet name="Grenier" sheetId="15" r:id="rId15"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15053" uniqueCount="5847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15107" uniqueCount="5867">
   <si>
     <t>LINE</t>
   </si>
@@ -15696,18 +15696,6 @@
     <t>A01N00_Abi_LIV_00681</t>
   </si>
   <si>
-    <t>EN CLIQUANT SUR D'AUTRES OBJETS DU DECOR QUE LA LETTRE</t>
-  </si>
-  <si>
-    <t>Affichage de narration différent ? A INTEGRER</t>
-  </si>
-  <si>
-    <t>CLIC OBJET + Affichage de narration différent ? A INTEGRER</t>
-  </si>
-  <si>
-    <t>A INTEGRER</t>
-  </si>
-  <si>
     <t>A01N01_NAR_LIV_00101</t>
   </si>
   <si>
@@ -17581,6 +17569,78 @@
   </si>
   <si>
     <t>These boxes are too high up for me to reach them without standing on the bed. I don't feel like it.</t>
+  </si>
+  <si>
+    <t>Les bégonias sont magnifiques pour cette période de l’année !</t>
+  </si>
+  <si>
+    <t>Je vais m’asseoir là quelques minutes. Il fait beau aujourd’hui, ou en tout cas pour l’instant, on ne sait jamais avec la Bretagne. Autant en profiter un peu.</t>
+  </si>
+  <si>
+    <t>Les plantes ont l’air d’être assez arrosées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoffroy m’a dit qu’Abigail insiste pour arroser les fleurs elle-même. </t>
+  </si>
+  <si>
+    <t>J’aime toujours beaucoup ça, mais je vais devoir me remettre à mes recherches.</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Wow… Quand je venais ici avant, je n’avais pas vraiment conscience de la chance que j’avais. Aujourd’hui, ça me paraît tellement étrange d’avoir joué dans le jardin d’un manoir.</t>
+  </si>
+  <si>
+    <t>Wow… When I used to come here, I had no idea how special it was to play in the garden of a manor. I only understand now how lucky I was.</t>
+  </si>
+  <si>
+    <t>The begonias are beautiful for this time of year!</t>
+  </si>
+  <si>
+    <t>I'll sit here for a few minutes. The weather is nice today, or at least for now - you never now in Brittany… I might as well enjoy it while it lasts.</t>
+  </si>
+  <si>
+    <t>The plants have enough water for now.</t>
+  </si>
+  <si>
+    <t>Geoffroy told me Abigail always wants to water the plants by herself. She never lets anyone else do it.</t>
+  </si>
+  <si>
+    <t>Il y a une balançoire dans la cour de l’école où je travaille, mais je n’ose jamais l’essayer devant les enfants… Allez, c’est l’occasion !</t>
+  </si>
+  <si>
+    <t>There is a swing in the school I work in, but I never dared to use it in front of the kids… Now is the time!</t>
+  </si>
+  <si>
+    <t>I still love it, but I really need to get back now.</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Watering_can</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>Done - EN CLIQUANT SUR D'AUTRES OBJETS DU DECOR QUE LA LETTRE</t>
+  </si>
+  <si>
+    <t>CLIC OBJET + Affichage de narration différent ?Done</t>
+  </si>
+  <si>
+    <t>Affichage de narration différent ? Done</t>
   </si>
 </sst>
 </file>
@@ -17631,7 +17691,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17674,6 +17734,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -17694,7 +17760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -17728,7 +17794,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -17737,6 +17802,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18043,8 +18114,8 @@
   </sheetPr>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18052,9 +18123,9 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
@@ -18084,7 +18155,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>5257</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
@@ -20177,20 +20248,20 @@
       <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="H82" s="22" t="s">
-        <v>5218</v>
+      <c r="H82" s="21" t="s">
+        <v>5864</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -20209,14 +20280,14 @@
       <c r="E83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="H83" s="22" t="s">
-        <v>5220</v>
+      <c r="H83" s="21" t="s">
+        <v>5865</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -20235,14 +20306,14 @@
       <c r="E84" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="H84" s="22" t="s">
-        <v>5219</v>
+      <c r="H84" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -20261,14 +20332,14 @@
       <c r="E85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="H85" s="22" t="s">
-        <v>5219</v>
+      <c r="H85" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -20287,14 +20358,14 @@
       <c r="E86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="H86" s="22" t="s">
-        <v>5219</v>
+      <c r="H86" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -20313,14 +20384,14 @@
       <c r="E87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="H87" s="22" t="s">
-        <v>5219</v>
+      <c r="H87" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -20339,14 +20410,14 @@
       <c r="E88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="H88" s="22" t="s">
-        <v>5219</v>
+      <c r="H88" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -20365,14 +20436,14 @@
       <c r="E89" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="H89" s="22" t="s">
-        <v>5219</v>
+      <c r="H89" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -20391,14 +20462,14 @@
       <c r="E90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="H90" s="22" t="s">
-        <v>5219</v>
+      <c r="H90" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -20417,14 +20488,14 @@
       <c r="E91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="H91" s="22" t="s">
-        <v>5219</v>
+      <c r="H91" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -20443,14 +20514,14 @@
       <c r="E92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="H92" s="22" t="s">
-        <v>5219</v>
+      <c r="H92" s="21" t="s">
+        <v>5866</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -20475,8 +20546,8 @@
       <c r="G93" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H93" s="22" t="s">
-        <v>5221</v>
+      <c r="H93" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -20501,8 +20572,8 @@
       <c r="G94" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="H94" s="22" t="s">
-        <v>5221</v>
+      <c r="H94" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -20527,8 +20598,8 @@
       <c r="G95" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H95" s="22" t="s">
-        <v>5221</v>
+      <c r="H95" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -20553,8 +20624,8 @@
       <c r="G96" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="H96" s="22" t="s">
-        <v>5221</v>
+      <c r="H96" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -20579,8 +20650,8 @@
       <c r="G97" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="H97" s="22" t="s">
-        <v>5221</v>
+      <c r="H97" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -20605,8 +20676,8 @@
       <c r="G98" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="H98" s="22" t="s">
-        <v>5221</v>
+      <c r="H98" s="21" t="s">
+        <v>5177</v>
       </c>
     </row>
   </sheetData>
@@ -20616,43 +20687,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20688,7 +20722,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
         <v>4689</v>
@@ -20703,7 +20737,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -20715,25 +20749,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D2" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" t="s">
-        <v>5750</v>
+        <v>5746</v>
       </c>
       <c r="F2" t="s">
         <v>4694</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>5753</v>
+        <v>5749</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>5765</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5761</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -20745,25 +20779,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D3" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" t="s">
-        <v>5733</v>
+        <v>5729</v>
       </c>
       <c r="F3" t="s">
         <v>4694</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>5758</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>5762</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>5766</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>5610</v>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -20775,25 +20809,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D4" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" t="s">
-        <v>5734</v>
+        <v>5730</v>
       </c>
       <c r="F4" t="s">
         <v>4694</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>5768</v>
+        <v>5764</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>5767</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5763</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -20805,25 +20839,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" t="s">
-        <v>5735</v>
+        <v>5731</v>
       </c>
       <c r="F5" t="s">
         <v>4694</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>5770</v>
+        <v>5766</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>5769</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+        <v>5765</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
@@ -20835,25 +20869,25 @@
         <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D6" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E6" t="s">
-        <v>5736</v>
+        <v>5732</v>
       </c>
       <c r="F6" t="s">
         <v>4694</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>5754</v>
+        <v>5750</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>5771</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5767</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
@@ -20865,25 +20899,25 @@
         <v>52</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D7" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" t="s">
-        <v>5737</v>
+        <v>5733</v>
       </c>
       <c r="F7" t="s">
         <v>4694</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>5764</v>
+        <v>5760</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>5772</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5768</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
@@ -20895,25 +20929,25 @@
         <v>61</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D8" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" t="s">
-        <v>5738</v>
+        <v>5734</v>
       </c>
       <c r="F8" t="s">
         <v>4694</v>
       </c>
       <c r="G8" t="s">
-        <v>5753</v>
+        <v>5749</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>5765</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>5610</v>
+        <v>5761</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
@@ -20925,25 +20959,25 @@
         <v>72</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D9" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" t="s">
-        <v>5739</v>
+        <v>5735</v>
       </c>
       <c r="F9" t="s">
         <v>4694</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>5755</v>
+        <v>5751</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>5773</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>5610</v>
+        <v>5769</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
@@ -20955,25 +20989,25 @@
         <v>76</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D10" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" t="s">
-        <v>5740</v>
+        <v>5736</v>
       </c>
       <c r="F10" t="s">
         <v>4694</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>5756</v>
+        <v>5752</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>5774</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5770</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
@@ -20985,25 +21019,25 @@
         <v>80</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D11" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" t="s">
-        <v>5741</v>
+        <v>5737</v>
       </c>
       <c r="F11" t="s">
         <v>4694</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>5757</v>
+        <v>5753</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>5775</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5771</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
@@ -21015,25 +21049,25 @@
         <v>87</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D12" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E12" t="s">
-        <v>5743</v>
+        <v>5739</v>
       </c>
       <c r="F12" t="s">
         <v>4694</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>5758</v>
+        <v>5754</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>5776</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5772</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
@@ -21045,25 +21079,25 @@
         <v>99</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D13" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>5744</v>
+        <v>5601</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>5740</v>
       </c>
       <c r="F13" t="s">
         <v>4694</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>5751</v>
+      <c r="G13" s="30" t="s">
+        <v>5747</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>5752</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>5610</v>
+        <v>5748</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
@@ -21075,25 +21109,25 @@
         <v>109</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D14" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E14" t="s">
-        <v>5742</v>
+        <v>5738</v>
       </c>
       <c r="F14" t="s">
         <v>4694</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>5759</v>
+        <v>5755</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>5777</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>5610</v>
+        <v>5773</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
@@ -21105,25 +21139,25 @@
         <v>123</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D15" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E15" t="s">
-        <v>5747</v>
+        <v>5743</v>
       </c>
       <c r="F15" t="s">
         <v>4694</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>5760</v>
+        <v>5756</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>5778</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>5610</v>
+        <v>5774</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
@@ -21135,25 +21169,25 @@
         <v>134</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D16" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E16" t="s">
-        <v>5746</v>
+        <v>5742</v>
       </c>
       <c r="F16" t="s">
         <v>4694</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>5763</v>
+        <v>5759</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>5779</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>5610</v>
+        <v>5775</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
@@ -21165,25 +21199,25 @@
         <v>141</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E17" t="s">
-        <v>5745</v>
+        <v>5741</v>
       </c>
       <c r="F17" t="s">
         <v>4694</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>5761</v>
+        <v>5757</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>5780</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>5610</v>
+        <v>5776</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -21195,25 +21229,25 @@
         <v>151</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>5798</v>
+        <v>5794</v>
       </c>
       <c r="D18" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>5799</v>
+        <v>5601</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>5795</v>
       </c>
       <c r="F18" t="s">
         <v>4694</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>5800</v>
+        <v>5796</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>5801</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>5610</v>
+        <v>5797</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>
@@ -21222,15 +21256,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -21258,7 +21292,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>4689</v>
@@ -21273,7 +21307,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -21285,10 +21319,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D2" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>4833</v>
@@ -21297,13 +21331,13 @@
         <v>4694</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>5802</v>
+        <v>5798</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>5825</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5821</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -21315,25 +21349,25 @@
         <v>21</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D3" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>5782</v>
+        <v>5778</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>5803</v>
+        <v>5799</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>5826</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>5610</v>
+        <v>5822</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -21345,25 +21379,25 @@
         <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D4" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>5783</v>
+        <v>5779</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>5804</v>
+        <v>5800</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>5827</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5823</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -21375,25 +21409,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>5784</v>
+        <v>5780</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>5805</v>
+        <v>5801</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>5828</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+        <v>5824</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
@@ -21405,25 +21439,25 @@
         <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>5781</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5785</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>5806</v>
+        <v>5802</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>5829</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5825</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
@@ -21435,10 +21469,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D7" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>5132</v>
@@ -21447,13 +21481,13 @@
         <v>4694</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>5820</v>
+        <v>5816</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>5830</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5826</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
@@ -21465,25 +21499,25 @@
         <v>61</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D8" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>5786</v>
+        <v>5782</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>5807</v>
+        <v>5803</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>5831</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>5610</v>
+        <v>5827</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
@@ -21495,25 +21529,25 @@
         <v>72</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D9" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>5787</v>
+        <v>5783</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>5808</v>
+        <v>5804</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>5832</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>5610</v>
+        <v>5828</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
@@ -21525,25 +21559,25 @@
         <v>76</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D10" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>5788</v>
+        <v>5784</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>5809</v>
+        <v>5805</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>5833</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5829</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
@@ -21555,25 +21589,25 @@
         <v>80</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D11" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>5789</v>
+        <v>5785</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>5819</v>
+        <v>5815</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>5834</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5830</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
@@ -21585,25 +21619,25 @@
         <v>87</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D12" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>5790</v>
+        <v>5601</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>5786</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>5812</v>
+        <v>5808</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>5835</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5831</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
@@ -21615,13 +21649,13 @@
         <v>99</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>5790</v>
+        <v>5601</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>5786</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>4694</v>
@@ -21632,8 +21666,8 @@
       <c r="H13" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>5610</v>
+      <c r="I13" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
@@ -21642,28 +21676,28 @@
         <v>A01_CHA_NAR_HID_00131</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>5823</v>
+        <v>5819</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>5790</v>
+        <v>5601</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>5786</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>5824</v>
+        <v>5820</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>5836</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>5610</v>
+        <v>5832</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
@@ -21675,25 +21709,25 @@
         <v>109</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>5605</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>5790</v>
+        <v>5601</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>5786</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>5813</v>
+        <v>5809</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>5837</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>5610</v>
+        <v>5833</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
@@ -21705,25 +21739,25 @@
         <v>123</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D16" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>5791</v>
+        <v>5787</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>5821</v>
+        <v>5817</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>5838</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>5610</v>
+        <v>5834</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
@@ -21735,25 +21769,25 @@
         <v>134</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D17" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>5792</v>
+        <v>5788</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>5810</v>
+        <v>5806</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>5839</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>5610</v>
+        <v>5835</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -21765,10 +21799,10 @@
         <v>141</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D18" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>4711</v>
@@ -21777,13 +21811,13 @@
         <v>4694</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>5814</v>
+        <v>5810</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>5840</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>5610</v>
+        <v>5836</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
@@ -21795,25 +21829,25 @@
         <v>151</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D19" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>5793</v>
+        <v>5789</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>5822</v>
+        <v>5818</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>5841</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>5610</v>
+        <v>5837</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
@@ -21825,25 +21859,25 @@
         <v>166</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D20" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>5794</v>
+        <v>5790</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>5811</v>
+        <v>5807</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>5842</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>5610</v>
+        <v>5838</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
@@ -21855,25 +21889,25 @@
         <v>175</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D21" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>5795</v>
+        <v>5791</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>5815</v>
+        <v>5811</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>5843</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>5610</v>
+        <v>5839</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
@@ -21885,25 +21919,25 @@
         <v>182</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D22" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>5796</v>
+        <v>5792</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>5818</v>
+        <v>5814</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>5844</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>5610</v>
+        <v>5840</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
@@ -21915,25 +21949,25 @@
         <v>196</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D23" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>5797</v>
+        <v>5793</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>4694</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>5816</v>
+        <v>5812</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>5845</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>5610</v>
+        <v>5841</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -21945,10 +21979,10 @@
         <v>208</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>5781</v>
+        <v>5777</v>
       </c>
       <c r="D24" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>5120</v>
@@ -21957,18 +21991,343 @@
         <v>4694</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>5817</v>
+        <v>5813</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>5846</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>5610</v>
+        <v>5842</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5600</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4689</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" t="str">
+        <f>CONCATENATE(D2,"_",MID(C2,1,3),"_",MID(F2,1,3),"_",MID(E2,1,3),"_",B2)</f>
+        <v>A01_GAR_NAR_Man_00010</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>5859</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>5850</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5851</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A9" si="0">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
+        <v>A01_GAR_NAR_Flo_00020</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>5860</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>5843</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>5852</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_GAR_NAR_Ben_00030</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>5861</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>5844</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>5853</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_GAR_NAR_Wat_00040</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>5845</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>5854</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_GAR_NAR_Wat_00050</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>5862</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>5846</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>5855</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>A01_GAR_NAR_Swi_00060</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>5863</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>5856</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>5857</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>A02_GAR_NAR_Swi_00070</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>5863</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>A03_GAR_NAR_Swi_00080</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>5863</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>4694</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>5847</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>5858</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21977,98 +22336,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="28" width="10.7109375" customWidth="1"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>5604</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>4689</v>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="C3" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="C4" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="C5" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="C6" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="C7" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="C8" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="C9" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="C10" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="C11" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="C12" s="17" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="C13" s="17" t="s">
-        <v>5605</v>
       </c>
     </row>
   </sheetData>
@@ -22198,7 +22489,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>5256</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -22452,10 +22743,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>5224</v>
+        <v>5220</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>5225</v>
+        <v>5221</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>5177</v>
@@ -22463,7 +22754,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="17" t="s">
-        <v>5222</v>
+        <v>5218</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>80</v>
@@ -22478,10 +22769,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>5226</v>
+        <v>5222</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>5228</v>
+        <v>5224</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>5177</v>
@@ -22489,7 +22780,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
-        <v>5223</v>
+        <v>5219</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>80</v>
@@ -22504,10 +22795,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>5227</v>
+        <v>5223</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>5229</v>
+        <v>5225</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>5177</v>
@@ -22764,10 +23055,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>5231</v>
+        <v>5227</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>5232</v>
+        <v>5228</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>5177</v>
@@ -22775,7 +23066,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="17" t="s">
-        <v>5234</v>
+        <v>5230</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>182</v>
@@ -22790,10 +23081,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>5230</v>
+        <v>5226</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>5233</v>
+        <v>5229</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>5177</v>
@@ -22868,10 +23159,10 @@
         <v>16</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>5237</v>
+        <v>5233</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>5240</v>
+        <v>5236</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>5177</v>
@@ -22879,7 +23170,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>5235</v>
+        <v>5231</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>223</v>
@@ -22894,10 +23185,10 @@
         <v>16</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>5238</v>
+        <v>5234</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>5241</v>
+        <v>5237</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>5177</v>
@@ -22905,7 +23196,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="17" t="s">
-        <v>5236</v>
+        <v>5232</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>223</v>
@@ -22920,10 +23211,10 @@
         <v>16</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>5239</v>
+        <v>5235</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>5242</v>
+        <v>5238</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>5177</v>
@@ -22972,10 +23263,10 @@
         <v>16</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>5245</v>
+        <v>5241</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>5246</v>
+        <v>5242</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>5177</v>
@@ -22983,7 +23274,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="17" t="s">
-        <v>5243</v>
+        <v>5239</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>238</v>
@@ -22998,10 +23289,10 @@
         <v>16</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>5244</v>
+        <v>5240</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>5247</v>
+        <v>5243</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>5177</v>
@@ -23232,10 +23523,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>5248</v>
+        <v>5244</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>5249</v>
+        <v>5245</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>5177</v>
@@ -23420,7 +23711,7 @@
         <v>423</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>5250</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -23446,7 +23737,7 @@
         <v>430</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>5250</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -23472,7 +23763,7 @@
         <v>436</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>5250</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -23498,7 +23789,7 @@
         <v>444</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>5250</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -23544,10 +23835,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>5252</v>
+        <v>5248</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>5254</v>
+        <v>5250</v>
       </c>
       <c r="H53" s="21" t="s">
         <v>5177</v>
@@ -23555,7 +23846,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="17" t="s">
-        <v>5251</v>
+        <v>5247</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>428</v>
@@ -23570,10 +23861,10 @@
         <v>16</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>5253</v>
+        <v>5249</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>5255</v>
+        <v>5251</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>5177</v>
@@ -24090,10 +24381,10 @@
         <v>16</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>5260</v>
+        <v>5256</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>5261</v>
+        <v>5257</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>5177</v>
@@ -24101,7 +24392,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>5258</v>
+        <v>5254</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>619</v>
@@ -24116,10 +24407,10 @@
         <v>16</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>5262</v>
+        <v>5258</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>5263</v>
+        <v>5259</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>5177</v>
@@ -24127,7 +24418,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>5259</v>
+        <v>5255</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>619</v>
@@ -24142,10 +24433,10 @@
         <v>16</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>5264</v>
+        <v>5260</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>5265</v>
+        <v>5261</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>5177</v>
@@ -24246,10 +24537,10 @@
         <v>16</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>5266</v>
+        <v>5262</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>5267</v>
+        <v>5263</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>5177</v>
@@ -24257,10 +24548,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>5277</v>
+        <v>5273</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>5274</v>
+        <v>5270</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -24272,10 +24563,10 @@
         <v>16</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>5268</v>
+        <v>5264</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>5269</v>
+        <v>5265</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>5177</v>
@@ -24283,10 +24574,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>5278</v>
+        <v>5274</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>5275</v>
+        <v>5271</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -24298,10 +24589,10 @@
         <v>16</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>5270</v>
+        <v>5266</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>5271</v>
+        <v>5267</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>5177</v>
@@ -24309,10 +24600,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>5279</v>
+        <v>5275</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>5276</v>
+        <v>5272</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -24324,10 +24615,10 @@
         <v>16</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>5272</v>
+        <v>5268</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>5273</v>
+        <v>5269</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>5177</v>
@@ -24454,10 +24745,10 @@
         <v>16</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>5280</v>
+        <v>5276</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>5281</v>
+        <v>5277</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>5177</v>
@@ -24465,7 +24756,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>5282</v>
+        <v>5278</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>694</v>
@@ -24480,10 +24771,10 @@
         <v>16</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>5284</v>
+        <v>5280</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>5286</v>
+        <v>5282</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>5177</v>
@@ -24491,7 +24782,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>5283</v>
+        <v>5279</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>694</v>
@@ -24506,10 +24797,10 @@
         <v>16</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>5285</v>
+        <v>5281</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>5287</v>
+        <v>5283</v>
       </c>
       <c r="H90" s="21" t="s">
         <v>5177</v>
@@ -24558,10 +24849,10 @@
         <v>16</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>5289</v>
+        <v>5285</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>5290</v>
+        <v>5286</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>5177</v>
@@ -24569,7 +24860,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>5288</v>
+        <v>5284</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>709</v>
@@ -24584,10 +24875,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>5291</v>
+        <v>5287</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>5292</v>
+        <v>5288</v>
       </c>
       <c r="H93" s="21" t="s">
         <v>5177</v>
@@ -24740,10 +25031,10 @@
         <v>16</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>5293</v>
+        <v>5289</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>5294</v>
+        <v>5290</v>
       </c>
       <c r="H99" s="21" t="s">
         <v>5177</v>
@@ -24751,7 +25042,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>5295</v>
+        <v>5291</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>767</v>
@@ -24766,10 +25057,10 @@
         <v>16</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>5298</v>
+        <v>5294</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>5299</v>
+        <v>5295</v>
       </c>
       <c r="H100" s="21" t="s">
         <v>5177</v>
@@ -24777,7 +25068,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>5296</v>
+        <v>5292</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>767</v>
@@ -24792,10 +25083,10 @@
         <v>16</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>5297</v>
+        <v>5293</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>5300</v>
+        <v>5296</v>
       </c>
       <c r="H101" s="21" t="s">
         <v>5177</v>
@@ -25000,10 +25291,10 @@
         <v>16</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>5302</v>
+        <v>5298</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>5304</v>
+        <v>5300</v>
       </c>
       <c r="H109" s="21" t="s">
         <v>5177</v>
@@ -25011,7 +25302,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>5301</v>
+        <v>5297</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>846</v>
@@ -25026,10 +25317,10 @@
         <v>16</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>5303</v>
+        <v>5299</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>5305</v>
+        <v>5301</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>5177</v>
@@ -25078,10 +25369,10 @@
         <v>16</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>5307</v>
+        <v>5303</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>5309</v>
+        <v>5305</v>
       </c>
       <c r="H112" s="21" t="s">
         <v>5177</v>
@@ -25089,7 +25380,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>5306</v>
+        <v>5302</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>861</v>
@@ -25104,10 +25395,10 @@
         <v>16</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>5308</v>
+        <v>5304</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>5310</v>
+        <v>5306</v>
       </c>
       <c r="H113" s="21" t="s">
         <v>5177</v>
@@ -25234,10 +25525,10 @@
         <v>16</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>5315</v>
+        <v>5311</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>5316</v>
+        <v>5312</v>
       </c>
       <c r="H118" s="21" t="s">
         <v>5177</v>
@@ -25245,7 +25536,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>5311</v>
+        <v>5307</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>888</v>
@@ -25260,10 +25551,10 @@
         <v>16</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>5317</v>
+        <v>5313</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>5318</v>
+        <v>5314</v>
       </c>
       <c r="H119" s="21" t="s">
         <v>5177</v>
@@ -25271,7 +25562,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>5312</v>
+        <v>5308</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>888</v>
@@ -25286,10 +25577,10 @@
         <v>16</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>5319</v>
+        <v>5315</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>5320</v>
+        <v>5316</v>
       </c>
       <c r="H120" s="21" t="s">
         <v>5177</v>
@@ -25297,7 +25588,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>5313</v>
+        <v>5309</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>888</v>
@@ -25312,10 +25603,10 @@
         <v>16</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>5321</v>
+        <v>5317</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>5322</v>
+        <v>5318</v>
       </c>
       <c r="H121" s="21" t="s">
         <v>5177</v>
@@ -25323,7 +25614,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>5314</v>
+        <v>5310</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>888</v>
@@ -25338,10 +25629,10 @@
         <v>16</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>5323</v>
+        <v>5319</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>5324</v>
+        <v>5320</v>
       </c>
       <c r="H122" s="21" t="s">
         <v>5177</v>
@@ -25494,10 +25785,10 @@
         <v>16</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>5326</v>
+        <v>5322</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>5328</v>
+        <v>5324</v>
       </c>
       <c r="H128" s="21" t="s">
         <v>5177</v>
@@ -25505,7 +25796,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>5325</v>
+        <v>5321</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>925</v>
@@ -25520,10 +25811,10 @@
         <v>16</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>5327</v>
+        <v>5323</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>5329</v>
+        <v>5325</v>
       </c>
       <c r="H129" s="21" t="s">
         <v>5177</v>
@@ -25572,10 +25863,10 @@
         <v>16</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>5331</v>
+        <v>5327</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>5332</v>
+        <v>5328</v>
       </c>
       <c r="H131" s="21" t="s">
         <v>5177</v>
@@ -25583,7 +25874,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>5330</v>
+        <v>5326</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>937</v>
@@ -25598,10 +25889,10 @@
         <v>16</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>5334</v>
+        <v>5330</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>5336</v>
+        <v>5332</v>
       </c>
       <c r="H132" s="21" t="s">
         <v>5177</v>
@@ -25609,7 +25900,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>5333</v>
+        <v>5329</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>937</v>
@@ -25624,7 +25915,7 @@
         <v>16</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>5335</v>
+        <v>5331</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>57</v>
@@ -25728,10 +26019,10 @@
         <v>16</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>5340</v>
+        <v>5336</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>5341</v>
+        <v>5337</v>
       </c>
       <c r="H137" s="21" t="s">
         <v>5177</v>
@@ -25739,7 +26030,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>5337</v>
+        <v>5333</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>964</v>
@@ -25754,10 +26045,10 @@
         <v>16</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>5342</v>
+        <v>5338</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>5343</v>
+        <v>5339</v>
       </c>
       <c r="H138" s="21" t="s">
         <v>5177</v>
@@ -25765,7 +26056,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>5338</v>
+        <v>5334</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>964</v>
@@ -25780,10 +26071,10 @@
         <v>16</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>5344</v>
+        <v>5340</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>5345</v>
+        <v>5341</v>
       </c>
       <c r="H139" s="21" t="s">
         <v>5177</v>
@@ -25791,7 +26082,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>5339</v>
+        <v>5335</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>964</v>
@@ -25806,10 +26097,10 @@
         <v>16</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>5346</v>
+        <v>5342</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>5347</v>
+        <v>5343</v>
       </c>
       <c r="H140" s="21" t="s">
         <v>5177</v>
@@ -25936,10 +26227,10 @@
         <v>16</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>5349</v>
+        <v>5345</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>5351</v>
+        <v>5347</v>
       </c>
       <c r="H145" s="21" t="s">
         <v>5177</v>
@@ -25947,7 +26238,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>5348</v>
+        <v>5344</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>998</v>
@@ -25962,10 +26253,10 @@
         <v>16</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>5350</v>
+        <v>5346</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>5352</v>
+        <v>5348</v>
       </c>
       <c r="H146" s="21" t="s">
         <v>5177</v>
@@ -26092,10 +26383,10 @@
         <v>16</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>5354</v>
+        <v>5350</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>5356</v>
+        <v>5352</v>
       </c>
       <c r="H151" s="21" t="s">
         <v>5177</v>
@@ -26103,7 +26394,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>5353</v>
+        <v>5349</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>1033</v>
@@ -26118,10 +26409,10 @@
         <v>16</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>5355</v>
+        <v>5351</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>5357</v>
+        <v>5353</v>
       </c>
       <c r="H152" s="21" t="s">
         <v>5177</v>
@@ -26144,10 +26435,10 @@
         <v>16</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>5358</v>
+        <v>5354</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>5359</v>
+        <v>5355</v>
       </c>
       <c r="H153" s="21" t="s">
         <v>5177</v>
@@ -26196,10 +26487,10 @@
         <v>16</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>5370</v>
+        <v>5366</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>5369</v>
+        <v>5365</v>
       </c>
       <c r="H155" s="21" t="s">
         <v>5177</v>
@@ -26207,7 +26498,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>5360</v>
+        <v>5356</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>1047</v>
@@ -26222,10 +26513,10 @@
         <v>16</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>5367</v>
+        <v>5363</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>5368</v>
+        <v>5364</v>
       </c>
       <c r="H156" s="21" t="s">
         <v>5177</v>
@@ -26233,7 +26524,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>5361</v>
+        <v>5357</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>1047</v>
@@ -26248,10 +26539,10 @@
         <v>16</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>5365</v>
+        <v>5361</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>5366</v>
+        <v>5362</v>
       </c>
       <c r="H157" s="21" t="s">
         <v>5177</v>
@@ -26259,7 +26550,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>5362</v>
+        <v>5358</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>1047</v>
@@ -26274,10 +26565,10 @@
         <v>16</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>5363</v>
+        <v>5359</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>5364</v>
+        <v>5360</v>
       </c>
       <c r="H158" s="21" t="s">
         <v>5177</v>
@@ -26326,10 +26617,10 @@
         <v>16</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>5373</v>
+        <v>5369</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>5376</v>
+        <v>5372</v>
       </c>
       <c r="H160" s="21" t="s">
         <v>5177</v>
@@ -26337,7 +26628,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>5371</v>
+        <v>5367</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>1059</v>
@@ -26352,10 +26643,10 @@
         <v>16</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>5374</v>
+        <v>5370</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>5377</v>
+        <v>5373</v>
       </c>
       <c r="H161" s="21" t="s">
         <v>5177</v>
@@ -26363,7 +26654,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>5372</v>
+        <v>5368</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>1059</v>
@@ -26378,10 +26669,10 @@
         <v>16</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>5375</v>
+        <v>5371</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>5378</v>
+        <v>5374</v>
       </c>
       <c r="H162" s="21" t="s">
         <v>5177</v>
@@ -26404,10 +26695,10 @@
         <v>16</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>5475</v>
+        <v>5471</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>5476</v>
+        <v>5472</v>
       </c>
       <c r="H163" s="21" t="s">
         <v>5177</v>
@@ -26430,10 +26721,10 @@
         <v>16</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>5477</v>
+        <v>5473</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>5478</v>
+        <v>5474</v>
       </c>
       <c r="H164" s="21" t="s">
         <v>5177</v>
@@ -26586,10 +26877,10 @@
         <v>16</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>5380</v>
+        <v>5376</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>5382</v>
+        <v>5378</v>
       </c>
       <c r="H170" s="21" t="s">
         <v>5177</v>
@@ -26597,7 +26888,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>5379</v>
+        <v>5375</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>1102</v>
@@ -26612,10 +26903,10 @@
         <v>16</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>5381</v>
+        <v>5377</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>5383</v>
+        <v>5379</v>
       </c>
       <c r="H171" s="21" t="s">
         <v>5177</v>
@@ -26664,10 +26955,10 @@
         <v>16</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>5384</v>
+        <v>5380</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>5385</v>
+        <v>5381</v>
       </c>
       <c r="H173" s="21" t="s">
         <v>5177</v>
@@ -26675,7 +26966,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>5390</v>
+        <v>5386</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>1111</v>
@@ -26690,10 +26981,10 @@
         <v>16</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>5386</v>
+        <v>5382</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>5387</v>
+        <v>5383</v>
       </c>
       <c r="H174" s="21" t="s">
         <v>5177</v>
@@ -26701,7 +26992,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>5391</v>
+        <v>5387</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1111</v>
@@ -26716,10 +27007,10 @@
         <v>16</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>5388</v>
+        <v>5384</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>5389</v>
+        <v>5385</v>
       </c>
       <c r="H175" s="21" t="s">
         <v>5177</v>
@@ -26875,7 +27166,7 @@
         <v>1146</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>5402</v>
+        <v>5398</v>
       </c>
       <c r="H181" s="21" t="s">
         <v>5177</v>
@@ -26901,7 +27192,7 @@
         <v>1149</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>5401</v>
+        <v>5397</v>
       </c>
       <c r="H182" s="21" t="s">
         <v>5177</v>
@@ -26924,10 +27215,10 @@
         <v>16</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>5394</v>
+        <v>5390</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>5395</v>
+        <v>5391</v>
       </c>
       <c r="H183" s="21" t="s">
         <v>5177</v>
@@ -26935,7 +27226,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>5392</v>
+        <v>5388</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>1151</v>
@@ -26950,10 +27241,10 @@
         <v>16</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>5396</v>
+        <v>5392</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>5403</v>
+        <v>5399</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>5177</v>
@@ -26961,7 +27252,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>5393</v>
+        <v>5389</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>1151</v>
@@ -26976,10 +27267,10 @@
         <v>16</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>5398</v>
+        <v>5394</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>5404</v>
+        <v>5400</v>
       </c>
       <c r="H185" s="21" t="s">
         <v>5177</v>
@@ -26987,7 +27278,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>5397</v>
+        <v>5393</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>1151</v>
@@ -27002,10 +27293,10 @@
         <v>16</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>5399</v>
+        <v>5395</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>5400</v>
+        <v>5396</v>
       </c>
       <c r="H186" s="21" t="s">
         <v>5177</v>
@@ -27028,10 +27319,10 @@
         <v>16</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>5406</v>
+        <v>5402</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>5408</v>
+        <v>5404</v>
       </c>
       <c r="H187" s="21" t="s">
         <v>5177</v>
@@ -27039,7 +27330,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>5405</v>
+        <v>5401</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>1156</v>
@@ -27054,10 +27345,10 @@
         <v>16</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>5407</v>
+        <v>5403</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>5409</v>
+        <v>5405</v>
       </c>
       <c r="H188" s="21" t="s">
         <v>5177</v>
@@ -27184,7 +27475,7 @@
         <v>16</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>5410</v>
+        <v>5406</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>1185</v>
@@ -27366,10 +27657,10 @@
         <v>16</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>5412</v>
+        <v>5408</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>5414</v>
+        <v>5410</v>
       </c>
       <c r="H200" s="21" t="s">
         <v>5177</v>
@@ -27377,7 +27668,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>5411</v>
+        <v>5407</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>1231</v>
@@ -27392,10 +27683,10 @@
         <v>16</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>5413</v>
+        <v>5409</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>5415</v>
+        <v>5411</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>5177</v>
@@ -27444,10 +27735,10 @@
         <v>16</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>5418</v>
+        <v>5414</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>5419</v>
+        <v>5415</v>
       </c>
       <c r="H203" s="21" t="s">
         <v>5177</v>
@@ -27455,7 +27746,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>5416</v>
+        <v>5412</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>1247</v>
@@ -27470,10 +27761,10 @@
         <v>16</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>5420</v>
+        <v>5416</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>5421</v>
+        <v>5417</v>
       </c>
       <c r="H204" s="21" t="s">
         <v>5177</v>
@@ -27481,7 +27772,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>5417</v>
+        <v>5413</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>1247</v>
@@ -27496,10 +27787,10 @@
         <v>16</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>5422</v>
+        <v>5418</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>5423</v>
+        <v>5419</v>
       </c>
       <c r="H205" s="21" t="s">
         <v>5177</v>
@@ -27548,10 +27839,10 @@
         <v>16</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>5426</v>
+        <v>5422</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>5427</v>
+        <v>5423</v>
       </c>
       <c r="H207" s="21" t="s">
         <v>5177</v>
@@ -27559,7 +27850,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>5430</v>
+        <v>5426</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1264</v>
@@ -27574,10 +27865,10 @@
         <v>16</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>5429</v>
+        <v>5425</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>5428</v>
+        <v>5424</v>
       </c>
       <c r="H208" s="21" t="s">
         <v>5177</v>
@@ -27704,10 +27995,10 @@
         <v>16</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>5432</v>
+        <v>5428</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>5433</v>
+        <v>5429</v>
       </c>
       <c r="H213" s="21" t="s">
         <v>5177</v>
@@ -27715,7 +28006,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>5431</v>
+        <v>5427</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>1302</v>
@@ -27730,10 +28021,10 @@
         <v>16</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>5434</v>
+        <v>5430</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>5435</v>
+        <v>5431</v>
       </c>
       <c r="H214" s="21" t="s">
         <v>5177</v>
@@ -27782,10 +28073,10 @@
         <v>16</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>5437</v>
+        <v>5433</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>5439</v>
+        <v>5435</v>
       </c>
       <c r="H216" s="21" t="s">
         <v>5177</v>
@@ -27793,7 +28084,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>5436</v>
+        <v>5432</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>1320</v>
@@ -27808,10 +28099,10 @@
         <v>16</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>5438</v>
+        <v>5434</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>5440</v>
+        <v>5436</v>
       </c>
       <c r="H217" s="21" t="s">
         <v>5177</v>
@@ -27860,10 +28151,10 @@
         <v>16</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>5443</v>
+        <v>5439</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>5444</v>
+        <v>5440</v>
       </c>
       <c r="H219" s="21" t="s">
         <v>5177</v>
@@ -27871,7 +28162,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>5441</v>
+        <v>5437</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>1344</v>
@@ -27886,10 +28177,10 @@
         <v>16</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>5445</v>
+        <v>5441</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>5446</v>
+        <v>5442</v>
       </c>
       <c r="H220" s="21" t="s">
         <v>5177</v>
@@ -27897,7 +28188,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>5442</v>
+        <v>5438</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>1344</v>
@@ -27912,10 +28203,10 @@
         <v>16</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>5447</v>
+        <v>5443</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>5448</v>
+        <v>5444</v>
       </c>
       <c r="H221" s="21" t="s">
         <v>5177</v>
@@ -27964,10 +28255,10 @@
         <v>16</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>5451</v>
+        <v>5447</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>5454</v>
+        <v>5450</v>
       </c>
       <c r="H223" s="21" t="s">
         <v>5177</v>
@@ -27975,7 +28266,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>5449</v>
+        <v>5445</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>1362</v>
@@ -27990,10 +28281,10 @@
         <v>16</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>5452</v>
+        <v>5448</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>5455</v>
+        <v>5451</v>
       </c>
       <c r="H224" s="21" t="s">
         <v>5177</v>
@@ -28001,7 +28292,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>5450</v>
+        <v>5446</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>1362</v>
@@ -28016,10 +28307,10 @@
         <v>16</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>5453</v>
+        <v>5449</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>5456</v>
+        <v>5452</v>
       </c>
       <c r="H225" s="21" t="s">
         <v>5177</v>
@@ -28042,10 +28333,10 @@
         <v>16</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>5459</v>
+        <v>5455</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>5462</v>
+        <v>5458</v>
       </c>
       <c r="H226" s="21" t="s">
         <v>5177</v>
@@ -28053,7 +28344,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>5457</v>
+        <v>5453</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>1371</v>
@@ -28068,10 +28359,10 @@
         <v>16</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>5460</v>
+        <v>5456</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>5463</v>
+        <v>5459</v>
       </c>
       <c r="H227" s="21" t="s">
         <v>5177</v>
@@ -28079,7 +28370,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>5458</v>
+        <v>5454</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1371</v>
@@ -28094,10 +28385,10 @@
         <v>16</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>5461</v>
+        <v>5457</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>5464</v>
+        <v>5460</v>
       </c>
       <c r="H228" s="21" t="s">
         <v>5177</v>
@@ -28120,10 +28411,10 @@
         <v>16</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>5465</v>
+        <v>5461</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>5466</v>
+        <v>5462</v>
       </c>
       <c r="H229" s="21" t="s">
         <v>5177</v>
@@ -28250,10 +28541,10 @@
         <v>16</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>5469</v>
+        <v>5465</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>5470</v>
+        <v>5466</v>
       </c>
       <c r="H234" s="21" t="s">
         <v>5177</v>
@@ -28261,7 +28552,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>5467</v>
+        <v>5463</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>1429</v>
@@ -28276,10 +28567,10 @@
         <v>16</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>5471</v>
+        <v>5467</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>5472</v>
+        <v>5468</v>
       </c>
       <c r="H235" s="21" t="s">
         <v>5177</v>
@@ -28287,7 +28578,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>5468</v>
+        <v>5464</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>1429</v>
@@ -28302,10 +28593,10 @@
         <v>16</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>5473</v>
+        <v>5469</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>5474</v>
+        <v>5470</v>
       </c>
       <c r="H236" s="21" t="s">
         <v>5177</v>
@@ -28380,7 +28671,7 @@
         <v>16</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>5424</v>
+        <v>5420</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>1464</v>
@@ -28406,7 +28697,7 @@
         <v>16</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>5425</v>
+        <v>5421</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>1473</v>
@@ -29137,7 +29428,7 @@
         <v>1733</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>5479</v>
+        <v>5475</v>
       </c>
       <c r="H268" s="21" t="s">
         <v>5177</v>
@@ -29368,10 +29659,10 @@
         <v>16</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>5481</v>
+        <v>5477</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>5480</v>
+        <v>5476</v>
       </c>
       <c r="H277" s="21" t="s">
         <v>5177</v>
@@ -29379,7 +29670,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>5600</v>
+        <v>5596</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>1820</v>
@@ -29394,10 +29685,10 @@
         <v>16</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>5601</v>
+        <v>5597</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>5602</v>
+        <v>5598</v>
       </c>
       <c r="H278" s="21" t="s">
         <v>5177</v>
@@ -29706,10 +29997,10 @@
         <v>16</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>5484</v>
+        <v>5480</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>5485</v>
+        <v>5481</v>
       </c>
       <c r="H290" s="21" t="s">
         <v>5177</v>
@@ -29717,7 +30008,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>5482</v>
+        <v>5478</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>1935</v>
@@ -29732,10 +30023,10 @@
         <v>16</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>5486</v>
+        <v>5482</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>5487</v>
+        <v>5483</v>
       </c>
       <c r="H291" s="21" t="s">
         <v>5177</v>
@@ -29743,7 +30034,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>5483</v>
+        <v>5479</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>1935</v>
@@ -29758,10 +30049,10 @@
         <v>16</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>5488</v>
+        <v>5484</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>5489</v>
+        <v>5485</v>
       </c>
       <c r="H292" s="21" t="s">
         <v>5177</v>
@@ -30044,10 +30335,10 @@
         <v>16</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>5493</v>
+        <v>5489</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>5494</v>
+        <v>5490</v>
       </c>
       <c r="H303" s="21" t="s">
         <v>5177</v>
@@ -30055,7 +30346,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>5490</v>
+        <v>5486</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>2040</v>
@@ -30070,10 +30361,10 @@
         <v>16</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>5495</v>
+        <v>5491</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>5496</v>
+        <v>5492</v>
       </c>
       <c r="H304" s="21" t="s">
         <v>5177</v>
@@ -30081,7 +30372,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>5491</v>
+        <v>5487</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>2040</v>
@@ -30096,10 +30387,10 @@
         <v>16</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>5497</v>
+        <v>5493</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>5498</v>
+        <v>5494</v>
       </c>
       <c r="H305" s="21" t="s">
         <v>5177</v>
@@ -30107,7 +30398,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>5492</v>
+        <v>5488</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>2040</v>
@@ -30122,10 +30413,10 @@
         <v>16</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>5499</v>
+        <v>5495</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>5500</v>
+        <v>5496</v>
       </c>
       <c r="H306" s="21" t="s">
         <v>5177</v>
@@ -30200,10 +30491,10 @@
         <v>16</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>5501</v>
+        <v>5497</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>5502</v>
+        <v>5498</v>
       </c>
       <c r="H309" s="21" t="s">
         <v>5177</v>
@@ -31042,10 +31333,10 @@
         <v>25</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>5519</v>
+        <v>5515</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>5522</v>
+        <v>5518</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>5177</v>
@@ -31053,7 +31344,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>5517</v>
+        <v>5513</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>258</v>
@@ -31068,10 +31359,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>5520</v>
+        <v>5516</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>5523</v>
+        <v>5519</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>5177</v>
@@ -31079,7 +31370,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>5518</v>
+        <v>5514</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>258</v>
@@ -31094,10 +31385,10 @@
         <v>25</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>5521</v>
+        <v>5517</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>5524</v>
+        <v>5520</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>5177</v>
@@ -31250,10 +31541,10 @@
         <v>25</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>5503</v>
+        <v>5499</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>5506</v>
+        <v>5502</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>5177</v>
@@ -31261,10 +31552,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>5511</v>
+        <v>5507</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5509</v>
+        <v>5505</v>
       </c>
       <c r="C38" t="s">
         <v>260</v>
@@ -31276,10 +31567,10 @@
         <v>25</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>5504</v>
+        <v>5500</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>5507</v>
+        <v>5503</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>5177</v>
@@ -31287,10 +31578,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>5512</v>
+        <v>5508</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5510</v>
+        <v>5506</v>
       </c>
       <c r="C39" t="s">
         <v>260</v>
@@ -31302,10 +31593,10 @@
         <v>25</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>5505</v>
+        <v>5501</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>5508</v>
+        <v>5504</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>5177</v>
@@ -31873,7 +32164,7 @@
       <c r="E61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="25" t="s">
         <v>551</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -32683,7 +32974,7 @@
         <v>817</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>5513</v>
+        <v>5509</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>5177</v>
@@ -33641,7 +33932,7 @@
       <c r="E129" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F129" s="26" t="s">
+      <c r="F129" s="25" t="s">
         <v>1062</v>
       </c>
       <c r="G129" s="3" t="s">
@@ -34393,7 +34684,7 @@
         <v>25</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>5515</v>
+        <v>5511</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>1252</v>
@@ -34445,7 +34736,7 @@
         <v>25</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>5516</v>
+        <v>5512</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>1260</v>
@@ -34522,7 +34813,7 @@
       <c r="E163" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="25" t="s">
         <v>1277</v>
       </c>
       <c r="G163" s="3" t="s">
@@ -34834,7 +35125,7 @@
       <c r="E175" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F175" s="26" t="s">
+      <c r="F175" s="25" t="s">
         <v>1372</v>
       </c>
       <c r="G175" s="3" t="s">
@@ -35042,7 +35333,7 @@
       <c r="E183" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F183" s="26" t="s">
+      <c r="F183" s="25" t="s">
         <v>1438</v>
       </c>
       <c r="G183" s="3" t="s">
@@ -35302,7 +35593,7 @@
       <c r="E193" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="26" t="s">
+      <c r="F193" s="25" t="s">
         <v>1535</v>
       </c>
       <c r="G193" s="3" t="s">
@@ -35458,7 +35749,7 @@
       <c r="E199" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F199" s="26" t="s">
+      <c r="F199" s="25" t="s">
         <v>1592</v>
       </c>
       <c r="G199" s="3" t="s">
@@ -35673,7 +35964,7 @@
         <v>1395</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>5514</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -36115,7 +36406,7 @@
         <v>315</v>
       </c>
       <c r="H224" s="21" t="s">
-        <v>5514</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -36141,7 +36432,7 @@
         <v>315</v>
       </c>
       <c r="H225" s="21" t="s">
-        <v>5514</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -37928,7 +38219,7 @@
       <c r="E294" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F294" s="26" t="s">
+      <c r="F294" s="25" t="s">
         <v>2399</v>
       </c>
       <c r="G294" s="3" t="s">
@@ -38241,10 +38532,10 @@
         <v>25</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>5589</v>
+        <v>5585</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>5590</v>
+        <v>5586</v>
       </c>
       <c r="H306" s="21" t="s">
         <v>5177</v>
@@ -38252,7 +38543,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>5591</v>
+        <v>5587</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>2475</v>
@@ -38267,10 +38558,10 @@
         <v>25</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>5592</v>
+        <v>5588</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>5593</v>
+        <v>5589</v>
       </c>
       <c r="H307" s="21" t="s">
         <v>5177</v>
@@ -38304,7 +38595,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>5594</v>
+        <v>5590</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>2481</v>
@@ -38319,10 +38610,10 @@
         <v>25</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>5598</v>
+        <v>5594</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>5599</v>
+        <v>5595</v>
       </c>
       <c r="H309" s="21" t="s">
         <v>5177</v>
@@ -38330,7 +38621,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>5595</v>
+        <v>5591</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>2481</v>
@@ -38345,10 +38636,10 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>5596</v>
+        <v>5592</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>5597</v>
+        <v>5593</v>
       </c>
       <c r="H310" s="21" t="s">
         <v>5177</v>
@@ -39332,7 +39623,7 @@
       <c r="E348" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F348" s="26" t="s">
+      <c r="F348" s="25" t="s">
         <v>2764</v>
       </c>
       <c r="G348" s="3" t="s">
@@ -40748,7 +41039,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>5526</v>
+        <v>5522</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>3300</v>
@@ -41543,7 +41834,7 @@
         <v>25</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>5527</v>
+        <v>5523</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>3606</v>
@@ -43519,10 +43810,10 @@
         <v>25</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>5530</v>
+        <v>5526</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>5531</v>
+        <v>5527</v>
       </c>
       <c r="H509" s="21" t="s">
         <v>5177</v>
@@ -43530,7 +43821,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>5528</v>
+        <v>5524</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>4295</v>
@@ -43545,10 +43836,10 @@
         <v>25</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>5532</v>
+        <v>5528</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>5533</v>
+        <v>5529</v>
       </c>
       <c r="H510" s="21" t="s">
         <v>5177</v>
@@ -43556,7 +43847,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>5529</v>
+        <v>5525</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>4295</v>
@@ -43571,10 +43862,10 @@
         <v>25</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>5534</v>
+        <v>5530</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>5535</v>
+        <v>5531</v>
       </c>
       <c r="H511" s="21" t="s">
         <v>5177</v>
@@ -43623,10 +43914,10 @@
         <v>25</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>5538</v>
+        <v>5534</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>5539</v>
+        <v>5535</v>
       </c>
       <c r="H513" s="21" t="s">
         <v>5177</v>
@@ -43634,7 +43925,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" t="s">
-        <v>5536</v>
+        <v>5532</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>4310</v>
@@ -43649,10 +43940,10 @@
         <v>25</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>5540</v>
+        <v>5536</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>5541</v>
+        <v>5537</v>
       </c>
       <c r="H514" s="21" t="s">
         <v>5177</v>
@@ -43660,7 +43951,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>5537</v>
+        <v>5533</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>4310</v>
@@ -43675,10 +43966,10 @@
         <v>25</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>5542</v>
+        <v>5538</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>5543</v>
+        <v>5539</v>
       </c>
       <c r="H515" s="21" t="s">
         <v>5177</v>
@@ -43753,10 +44044,10 @@
         <v>25</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>5546</v>
+        <v>5542</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>5547</v>
+        <v>5543</v>
       </c>
       <c r="H518" s="21" t="s">
         <v>5177</v>
@@ -43764,7 +44055,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>5544</v>
+        <v>5540</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>4329</v>
@@ -43779,10 +44070,10 @@
         <v>25</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>5545</v>
+        <v>5541</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>5548</v>
+        <v>5544</v>
       </c>
       <c r="H519" s="21" t="s">
         <v>5177</v>
@@ -44013,10 +44304,10 @@
         <v>25</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>5551</v>
+        <v>5547</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>5552</v>
+        <v>5548</v>
       </c>
       <c r="H528" s="21" t="s">
         <v>5177</v>
@@ -44024,7 +44315,7 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" t="s">
-        <v>5550</v>
+        <v>5546</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>4399</v>
@@ -44039,10 +44330,10 @@
         <v>25</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>5553</v>
+        <v>5549</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>5555</v>
+        <v>5551</v>
       </c>
       <c r="H529" s="21" t="s">
         <v>5177</v>
@@ -44050,7 +44341,7 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>5549</v>
+        <v>5545</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>4399</v>
@@ -44065,10 +44356,10 @@
         <v>25</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>5554</v>
+        <v>5550</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>5556</v>
+        <v>5552</v>
       </c>
       <c r="H530" s="21" t="s">
         <v>5177</v>
@@ -44299,10 +44590,10 @@
         <v>25</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>5559</v>
+        <v>5555</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>5560</v>
+        <v>5556</v>
       </c>
       <c r="H539" s="21" t="s">
         <v>5177</v>
@@ -44310,7 +44601,7 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>5557</v>
+        <v>5553</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>4468</v>
@@ -44325,10 +44616,10 @@
         <v>25</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>5561</v>
+        <v>5557</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>5562</v>
+        <v>5558</v>
       </c>
       <c r="H540" s="21" t="s">
         <v>5177</v>
@@ -44336,7 +44627,7 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>5558</v>
+        <v>5554</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>4468</v>
@@ -44351,10 +44642,10 @@
         <v>25</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>5564</v>
+        <v>5560</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>5563</v>
+        <v>5559</v>
       </c>
       <c r="H541" s="21" t="s">
         <v>5177</v>
@@ -44403,10 +44694,10 @@
         <v>25</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>5567</v>
+        <v>5563</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>5568</v>
+        <v>5564</v>
       </c>
       <c r="H543" s="21" t="s">
         <v>5177</v>
@@ -44414,7 +44705,7 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>5565</v>
+        <v>5561</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>4478</v>
@@ -44429,10 +44720,10 @@
         <v>25</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>5566</v>
+        <v>5562</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>5569</v>
+        <v>5565</v>
       </c>
       <c r="H544" s="21" t="s">
         <v>5177</v>
@@ -44455,10 +44746,10 @@
         <v>25</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>5573</v>
+        <v>5569</v>
       </c>
       <c r="G545" s="3" t="s">
-        <v>5574</v>
+        <v>5570</v>
       </c>
       <c r="H545" s="21" t="s">
         <v>5177</v>
@@ -44466,7 +44757,7 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>5570</v>
+        <v>5566</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>4483</v>
@@ -44481,10 +44772,10 @@
         <v>25</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>5575</v>
+        <v>5571</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>5576</v>
+        <v>5572</v>
       </c>
       <c r="H546" s="21" t="s">
         <v>5177</v>
@@ -44492,7 +44783,7 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>5571</v>
+        <v>5567</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>4483</v>
@@ -44507,10 +44798,10 @@
         <v>25</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>5577</v>
+        <v>5573</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>5580</v>
+        <v>5576</v>
       </c>
       <c r="H547" s="21" t="s">
         <v>5177</v>
@@ -44518,7 +44809,7 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>5572</v>
+        <v>5568</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>4483</v>
@@ -44533,10 +44824,10 @@
         <v>25</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>5578</v>
+        <v>5574</v>
       </c>
       <c r="G548" s="3" t="s">
-        <v>5579</v>
+        <v>5575</v>
       </c>
       <c r="H548" s="21" t="s">
         <v>5177</v>
@@ -44611,10 +44902,10 @@
         <v>25</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>5583</v>
+        <v>5579</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>5584</v>
+        <v>5580</v>
       </c>
       <c r="H551" s="21" t="s">
         <v>5177</v>
@@ -44622,7 +44913,7 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>5581</v>
+        <v>5577</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>4505</v>
@@ -44637,10 +44928,10 @@
         <v>25</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>5582</v>
+        <v>5578</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>5585</v>
+        <v>5581</v>
       </c>
       <c r="H552" s="21" t="s">
         <v>5177</v>
@@ -45007,7 +45298,7 @@
         <v>4596</v>
       </c>
       <c r="H566" s="21" t="s">
-        <v>5514</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -45428,7 +45719,7 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" t="s">
-        <v>5586</v>
+        <v>5582</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>4715</v>
@@ -46200,7 +46491,7 @@
         <v>1292</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>5525</v>
+        <v>5521</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>1422</v>
@@ -46879,7 +47170,7 @@
         <v>1643</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>5587</v>
+        <v>5583</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>5177</v>
@@ -46931,7 +47222,7 @@
         <v>1656</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>5588</v>
+        <v>5584</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>5177</v>
@@ -64166,7 +64457,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -64181,7 +64472,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -64193,10 +64484,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" t="s">
         <v>4694</v>
@@ -64208,10 +64499,10 @@
         <v>4696</v>
       </c>
       <c r="H2" t="s">
-        <v>5613</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5609</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -64223,10 +64514,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" t="s">
         <v>4697</v>
@@ -64238,10 +64529,10 @@
         <v>4699</v>
       </c>
       <c r="H3" t="s">
-        <v>5614</v>
-      </c>
-      <c r="I3" s="27" t="s">
         <v>5610</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -64253,10 +64544,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" t="s">
         <v>4702</v>
@@ -64268,10 +64559,10 @@
         <v>4705</v>
       </c>
       <c r="H4" t="s">
-        <v>5615</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5611</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -64283,10 +64574,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" t="s">
         <v>4697</v>
@@ -64298,10 +64589,10 @@
         <v>4706</v>
       </c>
       <c r="H5" t="s">
-        <v>5616</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+        <v>5612</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -64313,10 +64604,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E6" t="s">
         <v>4702</v>
@@ -64328,10 +64619,10 @@
         <v>4709</v>
       </c>
       <c r="H6" t="s">
-        <v>5617</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5613</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -64343,10 +64634,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" t="s">
         <v>4694</v>
@@ -64358,10 +64649,10 @@
         <v>4713</v>
       </c>
       <c r="H7" t="s">
-        <v>5618</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5614</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -64373,10 +64664,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" t="s">
         <v>4694</v>
@@ -64388,10 +64679,10 @@
         <v>4718</v>
       </c>
       <c r="H8" t="s">
-        <v>5619</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>5610</v>
+        <v>5615</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -64403,10 +64694,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4694</v>
@@ -64414,8 +64705,8 @@
       <c r="F9" s="10" t="s">
         <v>4762</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>5611</v>
+      <c r="I9" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -64427,10 +64718,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" t="s">
         <v>4694</v>
@@ -64442,10 +64733,10 @@
         <v>4768</v>
       </c>
       <c r="H10" t="s">
-        <v>5620</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5616</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -64457,10 +64748,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" t="s">
         <v>4694</v>
@@ -64472,10 +64763,10 @@
         <v>4772</v>
       </c>
       <c r="H11" t="s">
-        <v>5621</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5617</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -64487,10 +64778,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E12" t="s">
         <v>4694</v>
@@ -64502,10 +64793,10 @@
         <v>4779</v>
       </c>
       <c r="H12" t="s">
-        <v>5622</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5618</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -64517,10 +64808,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E13" t="s">
         <v>4694</v>
@@ -64534,8 +64825,8 @@
       <c r="H13" t="s">
         <v>315</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>5610</v>
+      <c r="I13" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -64547,10 +64838,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E14" t="s">
         <v>4694</v>
@@ -64562,10 +64853,10 @@
         <v>4784</v>
       </c>
       <c r="H14" t="s">
-        <v>5623</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>5610</v>
+        <v>5619</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -64577,10 +64868,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E15" t="s">
         <v>4694</v>
@@ -64592,10 +64883,10 @@
         <v>4788</v>
       </c>
       <c r="H15" t="s">
-        <v>5624</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>5610</v>
+        <v>5620</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -64607,10 +64898,10 @@
         <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E16" t="s">
         <v>4694</v>
@@ -64622,10 +64913,10 @@
         <v>4794</v>
       </c>
       <c r="H16" t="s">
-        <v>5625</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>5610</v>
+        <v>5621</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -64637,10 +64928,10 @@
         <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E17" t="s">
         <v>4694</v>
@@ -64652,10 +64943,10 @@
         <v>4808</v>
       </c>
       <c r="H17" t="s">
-        <v>5626</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>5610</v>
+        <v>5622</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -64667,10 +64958,10 @@
         <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E18" t="s">
         <v>4694</v>
@@ -64682,10 +64973,10 @@
         <v>4811</v>
       </c>
       <c r="H18" t="s">
-        <v>5627</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>5610</v>
+        <v>5623</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -64697,10 +64988,10 @@
         <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E19" t="s">
         <v>4694</v>
@@ -64712,10 +65003,10 @@
         <v>4815</v>
       </c>
       <c r="H19" t="s">
-        <v>5628</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>5610</v>
+        <v>5624</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -64727,10 +65018,10 @@
         <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E20" t="s">
         <v>4694</v>
@@ -64742,10 +65033,10 @@
         <v>4828</v>
       </c>
       <c r="H20" t="s">
-        <v>5629</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>5610</v>
+        <v>5625</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -64757,10 +65048,10 @@
         <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>4829</v>
@@ -64769,13 +65060,13 @@
         <v>4797</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>5631</v>
+        <v>5627</v>
       </c>
       <c r="H21" t="s">
-        <v>5630</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>5610</v>
+        <v>5626</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -64787,10 +65078,10 @@
         <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E22" t="s">
         <v>4694</v>
@@ -64802,10 +65093,10 @@
         <v>4834</v>
       </c>
       <c r="H22" t="s">
-        <v>5632</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>5610</v>
+        <v>5628</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -64817,10 +65108,10 @@
         <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E23" t="s">
         <v>4694</v>
@@ -64832,10 +65123,10 @@
         <v>4838</v>
       </c>
       <c r="H23" t="s">
-        <v>5633</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>5610</v>
+        <v>5629</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -64847,10 +65138,10 @@
         <v>223</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E24" t="s">
         <v>4702</v>
@@ -64862,10 +65153,10 @@
         <v>4841</v>
       </c>
       <c r="H24" t="s">
-        <v>5634</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>5610</v>
+        <v>5630</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -64877,10 +65168,10 @@
         <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E25" t="s">
         <v>4697</v>
@@ -64892,10 +65183,10 @@
         <v>4845</v>
       </c>
       <c r="H25" t="s">
-        <v>5635</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>5610</v>
+        <v>5631</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -64907,10 +65198,10 @@
         <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E26" t="s">
         <v>4702</v>
@@ -64922,10 +65213,10 @@
         <v>4846</v>
       </c>
       <c r="H26" t="s">
-        <v>5636</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>5610</v>
+        <v>5632</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -64937,10 +65228,10 @@
         <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E27" t="s">
         <v>4694</v>
@@ -64952,10 +65243,10 @@
         <v>4850</v>
       </c>
       <c r="H27" t="s">
-        <v>5637</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>5610</v>
+        <v>5633</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -64967,10 +65258,10 @@
         <v>250</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E28" t="s">
         <v>4694</v>
@@ -64982,10 +65273,10 @@
         <v>4851</v>
       </c>
       <c r="H28" t="s">
-        <v>5638</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>5610</v>
+        <v>5634</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -64997,10 +65288,10 @@
         <v>258</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E29" t="s">
         <v>4694</v>
@@ -65012,10 +65303,10 @@
         <v>4855</v>
       </c>
       <c r="H29" t="s">
-        <v>5639</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>5610</v>
+        <v>5635</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -65027,10 +65318,10 @@
         <v>269</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E30" t="s">
         <v>4694</v>
@@ -65042,10 +65333,10 @@
         <v>4857</v>
       </c>
       <c r="H30" t="s">
-        <v>5640</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>5610</v>
+        <v>5636</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -65057,10 +65348,10 @@
         <v>280</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E31" t="s">
         <v>4694</v>
@@ -65072,10 +65363,10 @@
         <v>4858</v>
       </c>
       <c r="H31" t="s">
-        <v>5641</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>5610</v>
+        <v>5637</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -65087,10 +65378,10 @@
         <v>290</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E32" t="s">
         <v>4694</v>
@@ -65102,10 +65393,10 @@
         <v>4861</v>
       </c>
       <c r="H32" t="s">
-        <v>5642</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>5611</v>
+        <v>5638</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -65117,10 +65408,10 @@
         <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E33" t="s">
         <v>4694</v>
@@ -65132,10 +65423,10 @@
         <v>4864</v>
       </c>
       <c r="H33" t="s">
-        <v>5643</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>5611</v>
+        <v>5639</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -65147,10 +65438,10 @@
         <v>314</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E34" t="s">
         <v>4694</v>
@@ -65162,10 +65453,10 @@
         <v>4865</v>
       </c>
       <c r="H34" t="s">
-        <v>5644</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>5611</v>
+        <v>5640</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -65177,10 +65468,10 @@
         <v>326</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E35" t="s">
         <v>4694</v>
@@ -65192,10 +65483,10 @@
         <v>4869</v>
       </c>
       <c r="H35" t="s">
-        <v>5645</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>5611</v>
+        <v>5641</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -65207,10 +65498,10 @@
         <v>333</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E36" t="s">
         <v>4870</v>
@@ -65222,10 +65513,10 @@
         <v>4871</v>
       </c>
       <c r="H36" t="s">
-        <v>5646</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>5611</v>
+        <v>5642</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -65237,10 +65528,10 @@
         <v>339</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E37" t="s">
         <v>4870</v>
@@ -65252,10 +65543,10 @@
         <v>4873</v>
       </c>
       <c r="H37" t="s">
-        <v>5651</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>5611</v>
+        <v>5647</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -65267,10 +65558,10 @@
         <v>345</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E38" t="s">
         <v>4870</v>
@@ -65282,10 +65573,10 @@
         <v>783</v>
       </c>
       <c r="H38" t="s">
-        <v>5652</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>5611</v>
+        <v>5648</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -65297,10 +65588,10 @@
         <v>352</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E39" t="s">
         <v>4870</v>
@@ -65312,10 +65603,10 @@
         <v>4876</v>
       </c>
       <c r="H39" t="s">
-        <v>5653</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>5611</v>
+        <v>5649</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -65327,10 +65618,10 @@
         <v>360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E40" t="s">
         <v>4870</v>
@@ -65342,10 +65633,10 @@
         <v>4879</v>
       </c>
       <c r="H40" t="s">
-        <v>5647</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>5611</v>
+        <v>5643</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -65357,10 +65648,10 @@
         <v>370</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E41" t="s">
         <v>4870</v>
@@ -65372,10 +65663,10 @@
         <v>4881</v>
       </c>
       <c r="H41" t="s">
-        <v>5648</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>5611</v>
+        <v>5644</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -65387,10 +65678,10 @@
         <v>376</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E42" t="s">
         <v>4870</v>
@@ -65402,10 +65693,10 @@
         <v>4883</v>
       </c>
       <c r="H42" t="s">
-        <v>5649</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>5611</v>
+        <v>5645</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -65417,10 +65708,10 @@
         <v>385</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E43" t="s">
         <v>4870</v>
@@ -65432,10 +65723,10 @@
         <v>4886</v>
       </c>
       <c r="H43" t="s">
-        <v>5650</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>5611</v>
+        <v>5646</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -65447,10 +65738,10 @@
         <v>395</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E44" t="s">
         <v>4694</v>
@@ -65462,10 +65753,10 @@
         <v>4887</v>
       </c>
       <c r="H44" t="s">
-        <v>5654</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>5611</v>
+        <v>5650</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>5607</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -65477,10 +65768,10 @@
         <v>404</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>4829</v>
@@ -65492,10 +65783,10 @@
         <v>4890</v>
       </c>
       <c r="H45" t="s">
-        <v>5655</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>5610</v>
+        <v>5651</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -65507,10 +65798,10 @@
         <v>418</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5603</v>
+        <v>5599</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>4694</v>
@@ -65522,10 +65813,10 @@
         <v>4893</v>
       </c>
       <c r="H46" t="s">
-        <v>5656</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>5610</v>
+        <v>5652</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>
@@ -65569,7 +65860,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
         <v>4689</v>
@@ -65584,7 +65875,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -65596,10 +65887,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" t="s">
         <v>4711</v>
@@ -65611,10 +65902,10 @@
         <v>5041</v>
       </c>
       <c r="H2" t="s">
-        <v>5657</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5653</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -65626,10 +65917,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" t="s">
         <v>5044</v>
@@ -65641,10 +65932,10 @@
         <v>5046</v>
       </c>
       <c r="H3" t="s">
-        <v>5658</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>5610</v>
+        <v>5654</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -65656,10 +65947,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" t="s">
         <v>5048</v>
@@ -65671,10 +65962,10 @@
         <v>5051</v>
       </c>
       <c r="H4" t="s">
-        <v>5659</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5655</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -65686,10 +65977,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" t="s">
         <v>5053</v>
@@ -65701,10 +65992,10 @@
         <v>5054</v>
       </c>
       <c r="H5" t="s">
-        <v>5660</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+        <v>5656</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -65716,10 +66007,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E6" t="s">
         <v>5056</v>
@@ -65731,10 +66022,10 @@
         <v>5057</v>
       </c>
       <c r="H6" t="s">
-        <v>5661</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5657</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -65746,10 +66037,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" t="s">
         <v>5059</v>
@@ -65761,10 +66052,10 @@
         <v>5061</v>
       </c>
       <c r="H7" t="s">
-        <v>5662</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5658</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -65776,10 +66067,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" t="s">
         <v>5063</v>
@@ -65791,10 +66082,10 @@
         <v>5066</v>
       </c>
       <c r="H8" t="s">
-        <v>5663</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>5610</v>
+        <v>5659</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -65806,10 +66097,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" t="s">
         <v>5067</v>
@@ -65821,10 +66112,10 @@
         <v>5069</v>
       </c>
       <c r="H9" t="s">
-        <v>5664</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>5610</v>
+        <v>5660</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -65836,10 +66127,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>5072</v>
@@ -65851,10 +66142,10 @@
         <v>5074</v>
       </c>
       <c r="H10" t="s">
-        <v>5665</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5661</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -65866,10 +66157,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" t="s">
         <v>5076</v>
@@ -65881,10 +66172,10 @@
         <v>5079</v>
       </c>
       <c r="H11" t="s">
-        <v>5666</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5662</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -65896,10 +66187,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5606</v>
+        <v>5602</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>5081</v>
@@ -65911,10 +66202,10 @@
         <v>5084</v>
       </c>
       <c r="H12" t="s">
-        <v>5667</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5663</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>
@@ -65956,7 +66247,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
         <v>4689</v>
@@ -65971,7 +66262,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -65983,10 +66274,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" t="s">
         <v>5037</v>
@@ -65998,10 +66289,10 @@
         <v>5039</v>
       </c>
       <c r="H2" t="s">
-        <v>5668</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5664</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -66013,10 +66304,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" t="s">
         <v>5042</v>
@@ -66028,10 +66319,10 @@
         <v>5045</v>
       </c>
       <c r="H3" t="s">
-        <v>5669</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>5610</v>
+        <v>5665</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -66043,10 +66334,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" t="s">
         <v>5042</v>
@@ -66058,10 +66349,10 @@
         <v>5052</v>
       </c>
       <c r="H4" t="s">
-        <v>5670</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5666</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -66073,10 +66364,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" t="s">
         <v>5042</v>
@@ -66090,8 +66381,8 @@
       <c r="H5" t="s">
         <v>315</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -66103,10 +66394,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E6" t="s">
         <v>5042</v>
@@ -66118,10 +66409,10 @@
         <v>5055</v>
       </c>
       <c r="H6" t="s">
-        <v>5671</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5667</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -66133,10 +66424,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" t="s">
         <v>5042</v>
@@ -66148,10 +66439,10 @@
         <v>5060</v>
       </c>
       <c r="H7" t="s">
-        <v>5672</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5668</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -66163,10 +66454,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" t="s">
         <v>5042</v>
@@ -66178,10 +66469,10 @@
         <v>5064</v>
       </c>
       <c r="H8" t="s">
-        <v>5673</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>5610</v>
+        <v>5669</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -66193,10 +66484,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" t="s">
         <v>5042</v>
@@ -66208,10 +66499,10 @@
         <v>5071</v>
       </c>
       <c r="H9" t="s">
-        <v>5675</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>5610</v>
+        <v>5671</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -66223,10 +66514,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" t="s">
         <v>5042</v>
@@ -66238,10 +66529,10 @@
         <v>5075</v>
       </c>
       <c r="H10" t="s">
-        <v>5674</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5670</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -66253,10 +66544,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" t="s">
         <v>5042</v>
@@ -66268,10 +66559,10 @@
         <v>5078</v>
       </c>
       <c r="H11" t="s">
-        <v>5676</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5672</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -66283,10 +66574,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E12" t="s">
         <v>5042</v>
@@ -66298,10 +66589,10 @@
         <v>5083</v>
       </c>
       <c r="H12" t="s">
-        <v>5677</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5673</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -66313,10 +66604,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E13" t="s">
         <v>5042</v>
@@ -66328,10 +66619,10 @@
         <v>5085</v>
       </c>
       <c r="H13" t="s">
-        <v>5678</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>5610</v>
+        <v>5674</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -66343,10 +66634,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E14" t="s">
         <v>5042</v>
@@ -66358,10 +66649,10 @@
         <v>5088</v>
       </c>
       <c r="H14" t="s">
-        <v>5679</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>5610</v>
+        <v>5675</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -66373,10 +66664,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>5042</v>
@@ -66388,10 +66679,10 @@
         <v>5089</v>
       </c>
       <c r="H15" t="s">
-        <v>5680</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>5610</v>
+        <v>5676</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -66403,10 +66694,10 @@
         <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>5042</v>
@@ -66418,10 +66709,10 @@
         <v>5090</v>
       </c>
       <c r="H16" t="s">
-        <v>5681</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>5610</v>
+        <v>5677</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -66433,10 +66724,10 @@
         <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E17" t="s">
         <v>4711</v>
@@ -66448,10 +66739,10 @@
         <v>5091</v>
       </c>
       <c r="H17" t="s">
-        <v>5682</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>5610</v>
+        <v>5678</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -66463,10 +66754,10 @@
         <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E18" t="s">
         <v>5092</v>
@@ -66478,10 +66769,10 @@
         <v>5093</v>
       </c>
       <c r="H18" t="s">
-        <v>5683</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>5610</v>
+        <v>5679</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -66493,10 +66784,10 @@
         <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E19" t="s">
         <v>5092</v>
@@ -66508,10 +66799,10 @@
         <v>5095</v>
       </c>
       <c r="H19" t="s">
-        <v>5684</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>5610</v>
+        <v>5680</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -66523,10 +66814,10 @@
         <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E20" t="s">
         <v>5092</v>
@@ -66538,10 +66829,10 @@
         <v>5096</v>
       </c>
       <c r="H20" t="s">
-        <v>5685</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>5610</v>
+        <v>5681</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -66553,10 +66844,10 @@
         <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E21" t="s">
         <v>5092</v>
@@ -66568,10 +66859,10 @@
         <v>5097</v>
       </c>
       <c r="H21" t="s">
-        <v>5686</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>5610</v>
+        <v>5682</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -66583,10 +66874,10 @@
         <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E22" t="s">
         <v>5092</v>
@@ -66595,13 +66886,13 @@
         <v>4702</v>
       </c>
       <c r="G22" t="s">
-        <v>5612</v>
+        <v>5608</v>
       </c>
       <c r="H22" t="s">
-        <v>5687</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>5610</v>
+        <v>5683</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -66613,10 +66904,10 @@
         <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E23" t="s">
         <v>5092</v>
@@ -66628,10 +66919,10 @@
         <v>5098</v>
       </c>
       <c r="H23" t="s">
-        <v>5688</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>5610</v>
+        <v>5684</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -66643,10 +66934,10 @@
         <v>223</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E24" t="s">
         <v>5092</v>
@@ -66658,10 +66949,10 @@
         <v>5099</v>
       </c>
       <c r="H24" t="s">
-        <v>5689</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>5610</v>
+        <v>5685</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -66673,10 +66964,10 @@
         <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5607</v>
+        <v>5603</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E25" t="s">
         <v>5092</v>
@@ -66690,8 +66981,8 @@
       <c r="H25" t="s">
         <v>315</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>5610</v>
+      <c r="I25" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>
@@ -66734,7 +67025,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
         <v>4689</v>
@@ -66749,7 +67040,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>5609</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -66761,10 +67052,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -66776,10 +67067,10 @@
         <v>5100</v>
       </c>
       <c r="H2" t="s">
-        <v>5690</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>5610</v>
+        <v>5686</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -66791,10 +67082,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -66806,10 +67097,10 @@
         <v>5102</v>
       </c>
       <c r="H3" t="s">
-        <v>5691</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>5610</v>
+        <v>5687</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -66821,10 +67112,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -66836,10 +67127,10 @@
         <v>5103</v>
       </c>
       <c r="H4" t="s">
-        <v>5692</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>5610</v>
+        <v>5688</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -66851,10 +67142,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -66866,10 +67157,10 @@
         <v>5104</v>
       </c>
       <c r="H5" t="s">
-        <v>5693</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>5610</v>
+        <v>5689</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -66881,10 +67172,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -66896,10 +67187,10 @@
         <v>5105</v>
       </c>
       <c r="H6" t="s">
-        <v>5694</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>5610</v>
+        <v>5690</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -66911,10 +67202,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -66926,10 +67217,10 @@
         <v>5106</v>
       </c>
       <c r="H7" t="s">
-        <v>5695</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>5610</v>
+        <v>5691</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -66941,10 +67232,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E8" t="s">
         <v>5107</v>
@@ -66953,13 +67244,13 @@
         <v>4694</v>
       </c>
       <c r="G8" t="s">
-        <v>5697</v>
+        <v>5693</v>
       </c>
       <c r="H8" t="s">
-        <v>5696</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>5749</v>
+        <v>5692</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>5745</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -66971,10 +67262,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E9" t="s">
         <v>5108</v>
@@ -66986,10 +67277,10 @@
         <v>5109</v>
       </c>
       <c r="H9" t="s">
-        <v>5698</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>5610</v>
+        <v>5694</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -67001,10 +67292,10 @@
         <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E10" t="s">
         <v>5110</v>
@@ -67016,10 +67307,10 @@
         <v>5111</v>
       </c>
       <c r="H10" t="s">
-        <v>5699</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>5610</v>
+        <v>5695</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -67031,10 +67322,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E11" t="s">
         <v>5112</v>
@@ -67046,10 +67337,10 @@
         <v>5113</v>
       </c>
       <c r="H11" t="s">
-        <v>5700</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>5610</v>
+        <v>5696</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -67061,10 +67352,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E12" t="s">
         <v>5114</v>
@@ -67076,10 +67367,10 @@
         <v>5115</v>
       </c>
       <c r="H12" t="s">
-        <v>5701</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>5610</v>
+        <v>5697</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -67091,10 +67382,10 @@
         <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E13" t="s">
         <v>5116</v>
@@ -67106,10 +67397,10 @@
         <v>5117</v>
       </c>
       <c r="H13" t="s">
-        <v>5702</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>5610</v>
+        <v>5698</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -67121,10 +67412,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E14" t="s">
         <v>5118</v>
@@ -67136,10 +67427,10 @@
         <v>5119</v>
       </c>
       <c r="H14" t="s">
-        <v>5703</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>5610</v>
+        <v>5699</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -67151,10 +67442,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E15" t="s">
         <v>5120</v>
@@ -67166,10 +67457,10 @@
         <v>5121</v>
       </c>
       <c r="H15" t="s">
-        <v>5704</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>5610</v>
+        <v>5700</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -67181,10 +67472,10 @@
         <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E16" t="s">
         <v>5122</v>
@@ -67196,10 +67487,10 @@
         <v>5123</v>
       </c>
       <c r="H16" t="s">
-        <v>5705</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>5610</v>
+        <v>5701</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -67211,10 +67502,10 @@
         <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E17" t="s">
         <v>5124</v>
@@ -67226,10 +67517,10 @@
         <v>5125</v>
       </c>
       <c r="H17" t="s">
-        <v>5706</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>5610</v>
+        <v>5702</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -67241,10 +67532,10 @@
         <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E18" t="s">
         <v>5126</v>
@@ -67256,10 +67547,10 @@
         <v>5127</v>
       </c>
       <c r="H18" t="s">
-        <v>5707</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>5610</v>
+        <v>5703</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -67271,10 +67562,10 @@
         <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E19" t="s">
         <v>5128</v>
@@ -67286,10 +67577,10 @@
         <v>5129</v>
       </c>
       <c r="H19" t="s">
-        <v>5708</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>5610</v>
+        <v>5704</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -67301,10 +67592,10 @@
         <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E20" t="s">
         <v>5130</v>
@@ -67316,10 +67607,10 @@
         <v>5131</v>
       </c>
       <c r="H20" t="s">
-        <v>5709</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>5610</v>
+        <v>5705</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -67331,10 +67622,10 @@
         <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E21" t="s">
         <v>5132</v>
@@ -67346,10 +67637,10 @@
         <v>5133</v>
       </c>
       <c r="H21" t="s">
-        <v>5710</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>5610</v>
+        <v>5706</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -67361,10 +67652,10 @@
         <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E22" t="s">
         <v>5134</v>
@@ -67376,10 +67667,10 @@
         <v>5135</v>
       </c>
       <c r="H22" t="s">
-        <v>5711</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>5610</v>
+        <v>5707</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -67391,10 +67682,10 @@
         <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E23" t="s">
         <v>5136</v>
@@ -67406,10 +67697,10 @@
         <v>5137</v>
       </c>
       <c r="H23" t="s">
-        <v>5712</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>5610</v>
+        <v>5708</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -67421,10 +67712,10 @@
         <v>223</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E24" t="s">
         <v>5138</v>
@@ -67436,10 +67727,10 @@
         <v>5139</v>
       </c>
       <c r="H24" t="s">
-        <v>5713</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>5610</v>
+        <v>5709</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -67451,13 +67742,13 @@
         <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E25" t="s">
-        <v>5748</v>
+        <v>5744</v>
       </c>
       <c r="F25" t="s">
         <v>4694</v>
@@ -67466,10 +67757,10 @@
         <v>5140</v>
       </c>
       <c r="H25" t="s">
-        <v>5714</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>5610</v>
+        <v>5710</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -67481,10 +67772,10 @@
         <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E26" t="s">
         <v>5142</v>
@@ -67496,10 +67787,10 @@
         <v>5141</v>
       </c>
       <c r="H26" t="s">
-        <v>5715</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>5610</v>
+        <v>5711</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -67511,10 +67802,10 @@
         <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E27" t="s">
         <v>5142</v>
@@ -67526,10 +67817,10 @@
         <v>5143</v>
       </c>
       <c r="H27" t="s">
-        <v>5716</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>5610</v>
+        <v>5712</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -67541,10 +67832,10 @@
         <v>250</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E28" t="s">
         <v>5142</v>
@@ -67556,10 +67847,10 @@
         <v>5144</v>
       </c>
       <c r="H28" t="s">
-        <v>5717</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>5610</v>
+        <v>5713</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -67571,10 +67862,10 @@
         <v>258</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E29" t="s">
         <v>5142</v>
@@ -67588,8 +67879,8 @@
       <c r="H29" t="s">
         <v>591</v>
       </c>
-      <c r="I29" s="27" t="s">
-        <v>5610</v>
+      <c r="I29" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -67601,10 +67892,10 @@
         <v>269</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E30" t="s">
         <v>5142</v>
@@ -67616,10 +67907,10 @@
         <v>5146</v>
       </c>
       <c r="H30" t="s">
-        <v>5718</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>5610</v>
+        <v>5714</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -67631,10 +67922,10 @@
         <v>280</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E31" t="s">
         <v>5142</v>
@@ -67646,10 +67937,10 @@
         <v>5147</v>
       </c>
       <c r="H31" t="s">
-        <v>5719</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>5610</v>
+        <v>5715</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -67661,10 +67952,10 @@
         <v>290</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>5142</v>
@@ -67676,10 +67967,10 @@
         <v>5148</v>
       </c>
       <c r="H32" t="s">
-        <v>5720</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>5610</v>
+        <v>5716</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -67691,10 +67982,10 @@
         <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E33" t="s">
         <v>5149</v>
@@ -67706,10 +67997,10 @@
         <v>5150</v>
       </c>
       <c r="H33" t="s">
-        <v>5721</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>5610</v>
+        <v>5717</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -67721,10 +68012,10 @@
         <v>314</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E34" t="s">
         <v>5149</v>
@@ -67736,10 +68027,10 @@
         <v>5151</v>
       </c>
       <c r="H34" t="s">
-        <v>5722</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>5610</v>
+        <v>5718</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -67751,10 +68042,10 @@
         <v>326</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E35" t="s">
         <v>5149</v>
@@ -67766,10 +68057,10 @@
         <v>5152</v>
       </c>
       <c r="H35" t="s">
-        <v>5723</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>5610</v>
+        <v>5719</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -67781,10 +68072,10 @@
         <v>333</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E36" t="s">
         <v>5149</v>
@@ -67796,10 +68087,10 @@
         <v>5153</v>
       </c>
       <c r="H36" t="s">
-        <v>5724</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>5610</v>
+        <v>5720</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -67811,10 +68102,10 @@
         <v>339</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E37" t="s">
         <v>5149</v>
@@ -67826,10 +68117,10 @@
         <v>5154</v>
       </c>
       <c r="H37" t="s">
-        <v>5725</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>5610</v>
+        <v>5721</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -67841,10 +68132,10 @@
         <v>345</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E38" t="s">
         <v>5149</v>
@@ -67856,10 +68147,10 @@
         <v>5155</v>
       </c>
       <c r="H38" t="s">
-        <v>5726</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>5610</v>
+        <v>5722</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -67871,10 +68162,10 @@
         <v>352</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E39" t="s">
         <v>5149</v>
@@ -67886,10 +68177,10 @@
         <v>5156</v>
       </c>
       <c r="H39" t="s">
-        <v>5727</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>5610</v>
+        <v>5723</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -67901,10 +68192,10 @@
         <v>360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E40" t="s">
         <v>5149</v>
@@ -67916,10 +68207,10 @@
         <v>5157</v>
       </c>
       <c r="H40" t="s">
-        <v>5728</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>5610</v>
+        <v>5724</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -67931,10 +68222,10 @@
         <v>370</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E41" t="s">
         <v>5149</v>
@@ -67946,10 +68237,10 @@
         <v>5158</v>
       </c>
       <c r="H41" t="s">
-        <v>5729</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>5610</v>
+        <v>5725</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -67961,10 +68252,10 @@
         <v>376</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E42" t="s">
         <v>5149</v>
@@ -67976,10 +68267,10 @@
         <v>5159</v>
       </c>
       <c r="H42" t="s">
-        <v>5730</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>5610</v>
+        <v>5726</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -67991,10 +68282,10 @@
         <v>385</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E43" t="s">
         <v>5149</v>
@@ -68006,10 +68297,10 @@
         <v>5160</v>
       </c>
       <c r="H43" t="s">
-        <v>5731</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>5610</v>
+        <v>5727</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -68021,10 +68312,10 @@
         <v>395</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5608</v>
+        <v>5604</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>5605</v>
+        <v>5601</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>5149</v>
@@ -68036,10 +68327,10 @@
         <v>5161</v>
       </c>
       <c r="H44" t="s">
-        <v>5732</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>5610</v>
+        <v>5728</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>5606</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
+++ b/Assets/StreamingAssets/TABLE_REFERENCE_LOCALISATION2.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15255" uniqueCount="5924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15255" uniqueCount="5926">
   <si>
     <t xml:space="preserve">LINE</t>
   </si>
@@ -17707,10 +17707,16 @@
     <t xml:space="preserve">Une maquette du manoir faite par Abigail… Wow, elle est précise et appliquée. On voit vraiment chaque détail, il y a même un nid d’oiseau à la fenêtre…</t>
   </si>
   <si>
-    <t xml:space="preserve">A mock-up of the manor made by Abigail… It’s so detailed and clean! I can really see every single detail. There’s even a bird nest on one of the windows.</t>
+    <t xml:space="preserve">A mock-up of the manor made by Abigail… It’s so detailed and clean! There’s even a bird nest on one of the windows.</t>
   </si>
   <si>
     <t xml:space="preserve">Manor_inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une maquette du manoir faite par Abigail. Elle est précise et appliquée. On voit vraiment chaque détail, il y a même un nid d’oiseau à la fenêtre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mock-up of the manor made by Abigail. It’s very detailed. There’s even a bird nest on one of the windows.</t>
   </si>
   <si>
     <t xml:space="preserve">Fishingrods</t>
@@ -17829,7 +17835,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -17904,12 +17910,7 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -17984,7 +17985,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18030,10 +18031,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18145,7 +18142,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18235,7 +18232,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.29"/>
@@ -18416,7 +18413,7 @@
       <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -18425,7 +18422,7 @@
       <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -19953,10 +19950,10 @@
       <c r="E66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="13" t="s">
         <v>267</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -19979,10 +19976,10 @@
       <c r="E67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="13" t="s">
         <v>271</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -20363,16 +20360,16 @@
       <c r="C82" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="14" t="s">
         <v>323</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -20389,16 +20386,16 @@
       <c r="C83" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="14" t="s">
         <v>329</v>
       </c>
       <c r="H83" s="6" t="s">
@@ -20415,16 +20412,16 @@
       <c r="C84" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="14" t="s">
         <v>334</v>
       </c>
       <c r="H84" s="6" t="s">
@@ -20441,16 +20438,16 @@
       <c r="C85" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="14" t="s">
         <v>339</v>
       </c>
       <c r="H85" s="6" t="s">
@@ -20467,16 +20464,16 @@
       <c r="C86" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="14" t="s">
         <v>343</v>
       </c>
       <c r="H86" s="6" t="s">
@@ -20493,16 +20490,16 @@
       <c r="C87" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G87" s="14" t="s">
         <v>347</v>
       </c>
       <c r="H87" s="6" t="s">
@@ -20519,16 +20516,16 @@
       <c r="C88" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="14" t="s">
         <v>351</v>
       </c>
       <c r="H88" s="6" t="s">
@@ -20545,16 +20542,16 @@
       <c r="C89" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="14" t="s">
         <v>355</v>
       </c>
       <c r="H89" s="6" t="s">
@@ -20571,16 +20568,16 @@
       <c r="C90" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="14" t="s">
         <v>359</v>
       </c>
       <c r="H90" s="6" t="s">
@@ -20597,16 +20594,16 @@
       <c r="C91" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="14" t="s">
         <v>363</v>
       </c>
       <c r="H91" s="6" t="s">
@@ -20623,16 +20620,16 @@
       <c r="C92" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="16" t="s">
         <v>327</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="14" t="s">
         <v>366</v>
       </c>
       <c r="H92" s="6" t="s">
@@ -20825,9 +20822,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="10" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="14.43"/>
   </cols>
@@ -20887,7 +20884,7 @@
       <c r="H2" s="2" t="s">
         <v>5746</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -20896,7 +20893,7 @@
         <f aca="false">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
         <v>A01_Abi_NAR_Lam_00020</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -20917,7 +20914,7 @@
       <c r="H3" s="2" t="s">
         <v>5749</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -20947,7 +20944,7 @@
       <c r="H4" s="2" t="s">
         <v>5752</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -20956,7 +20953,7 @@
         <f aca="false">CONCATENATE(D5,"_",MID(C5,1,3),"_",MID(F5,1,3),"_",MID(E5,1,3),"_",B5)</f>
         <v>A01_Abi_NAR_Boo_00040</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -20977,7 +20974,7 @@
       <c r="H5" s="2" t="s">
         <v>5755</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21007,7 +21004,7 @@
       <c r="H6" s="2" t="s">
         <v>5758</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21016,7 +21013,7 @@
         <f aca="false">CONCATENATE(D7,"_",MID(C7,1,3),"_",MID(F7,1,3),"_",MID(E7,1,3),"_",B7)</f>
         <v>A01_Abi_NAR_Rab_00060</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -21037,7 +21034,7 @@
       <c r="H7" s="2" t="s">
         <v>5761</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21067,7 +21064,7 @@
       <c r="H8" s="2" t="s">
         <v>5746</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21076,7 +21073,7 @@
         <f aca="false">CONCATENATE(D9,"_",MID(C9,1,3),"_",MID(F9,1,3),"_",MID(E9,1,3),"_",B9)</f>
         <v>A01_Abi_NAR_Pla_00080</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -21097,7 +21094,7 @@
       <c r="H9" s="2" t="s">
         <v>5765</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21127,7 +21124,7 @@
       <c r="H10" s="2" t="s">
         <v>5768</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21136,7 +21133,7 @@
         <f aca="false">CONCATENATE(D11,"_",MID(C11,1,3),"_",MID(F11,1,3),"_",MID(E11,1,3),"_",B11)</f>
         <v>A01_Abi_NAR_Win_00100</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -21157,7 +21154,7 @@
       <c r="H11" s="2" t="s">
         <v>5771</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21187,7 +21184,7 @@
       <c r="H12" s="2" t="s">
         <v>5774</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21196,7 +21193,7 @@
         <f aca="false">CONCATENATE(D13,"_",MID(C13,1,3),"_",MID(F13,1,3),"_",MID(E13,1,3),"_",B13)</f>
         <v>A01_Abi_NAR_Pic_00120</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -21205,19 +21202,19 @@
       <c r="D13" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>5775</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>5776</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5777</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21247,7 +21244,7 @@
       <c r="H14" s="2" t="s">
         <v>5780</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21256,7 +21253,7 @@
         <f aca="false">CONCATENATE(D15,"_",MID(C15,1,3),"_",MID(F15,1,3),"_",MID(E15,1,3),"_",B15)</f>
         <v>A01_Abi_NAR_Des_00140</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -21277,7 +21274,7 @@
       <c r="H15" s="2" t="s">
         <v>5783</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21307,7 +21304,7 @@
       <c r="H16" s="2" t="s">
         <v>5786</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21316,7 +21313,7 @@
         <f aca="false">CONCATENATE(D17,"_",MID(C17,1,3),"_",MID(F17,1,3),"_",MID(E17,1,3),"_",B17)</f>
         <v>A01_Abi_NAR_Pap_00160</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -21337,7 +21334,7 @@
       <c r="H17" s="2" t="s">
         <v>5789</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21355,7 +21352,7 @@
       <c r="D18" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>5790</v>
       </c>
       <c r="F18" s="0" t="s">
@@ -21367,7 +21364,7 @@
       <c r="H18" s="2" t="s">
         <v>5792</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21395,7 +21392,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
@@ -21463,7 +21460,7 @@
       <c r="H2" s="2" t="s">
         <v>5795</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21472,7 +21469,7 @@
         <f aca="false">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
         <v>A01_CHA_NAR_COM_00020</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -21493,7 +21490,7 @@
       <c r="H3" s="2" t="s">
         <v>5798</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21523,7 +21520,7 @@
       <c r="H4" s="2" t="s">
         <v>5801</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21532,7 +21529,7 @@
         <f aca="false">CONCATENATE(D5,"_",MID(C5,1,3),"_",MID(F5,1,3),"_",MID(E5,1,3),"_",B5)</f>
         <v>A01_CHA_NAR_CHA_00040</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -21553,7 +21550,7 @@
       <c r="H5" s="2" t="s">
         <v>5804</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21583,7 +21580,7 @@
       <c r="H6" s="2" t="s">
         <v>5807</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21592,7 +21589,7 @@
         <f aca="false">CONCATENATE(D7,"_",MID(C7,1,3),"_",MID(F7,1,3),"_",MID(E7,1,3),"_",B7)</f>
         <v>A01_CHA_NAR_BOO_00060</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -21613,7 +21610,7 @@
       <c r="H7" s="2" t="s">
         <v>5809</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21643,7 +21640,7 @@
       <c r="H8" s="2" t="s">
         <v>5812</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21652,7 +21649,7 @@
         <f aca="false">CONCATENATE(D9,"_",MID(C9,1,3),"_",MID(F9,1,3),"_",MID(E9,1,3),"_",B9)</f>
         <v>A01_CHA_NAR_BED_00080</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -21673,7 +21670,7 @@
       <c r="H9" s="2" t="s">
         <v>5815</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21703,7 +21700,7 @@
       <c r="H10" s="2" t="s">
         <v>5818</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21712,7 +21709,7 @@
         <f aca="false">CONCATENATE(D11,"_",MID(C11,1,3),"_",MID(F11,1,3),"_",MID(E11,1,3),"_",B11)</f>
         <v>A01_CHA_NAR_SHI_00100</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -21733,7 +21730,7 @@
       <c r="H11" s="2" t="s">
         <v>5821</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21751,7 +21748,7 @@
       <c r="D12" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>5822</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -21763,7 +21760,7 @@
       <c r="H12" s="2" t="s">
         <v>5824</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21772,7 +21769,7 @@
         <f aca="false">CONCATENATE(D13,"_",MID(C13,1,3),"_",MID(F13,1,3),"_",MID(E13,1,3),"_",B13)</f>
         <v>A01_CHA_NAR_HID_00120</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -21781,7 +21778,7 @@
       <c r="D13" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>5822</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -21793,7 +21790,7 @@
       <c r="H13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21802,7 +21799,7 @@
         <f aca="false">CONCATENATE(D14,"_",MID(C14,1,3),"_",MID(F14,1,3),"_",MID(E14,1,3),"_",B14)</f>
         <v>A01_CHA_NAR_HID_00131</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>5825</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -21811,7 +21808,7 @@
       <c r="D14" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>5822</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -21823,7 +21820,7 @@
       <c r="H14" s="2" t="s">
         <v>5827</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21841,7 +21838,7 @@
       <c r="D15" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>5822</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -21853,7 +21850,7 @@
       <c r="H15" s="2" t="s">
         <v>5829</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21862,7 +21859,7 @@
         <f aca="false">CONCATENATE(D16,"_",MID(C16,1,3),"_",MID(F16,1,3),"_",MID(E16,1,3),"_",B16)</f>
         <v>A01_CHA_NAR_CDS_00140</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -21883,7 +21880,7 @@
       <c r="H16" s="2" t="s">
         <v>5832</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21913,7 +21910,7 @@
       <c r="H17" s="2" t="s">
         <v>5835</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21922,7 +21919,7 @@
         <f aca="false">CONCATENATE(D18,"_",MID(C18,1,3),"_",MID(F18,1,3),"_",MID(E18,1,3),"_",B18)</f>
         <v>A01_CHA_NAR_LAM_00160</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -21943,7 +21940,7 @@
       <c r="H18" s="2" t="s">
         <v>5837</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21973,7 +21970,7 @@
       <c r="H19" s="2" t="s">
         <v>5840</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -21982,7 +21979,7 @@
         <f aca="false">CONCATENATE(D20,"_",MID(C20,1,3),"_",MID(F20,1,3),"_",MID(E20,1,3),"_",B20)</f>
         <v>A01_CHA_NAR_PAP_00180</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -22003,7 +22000,7 @@
       <c r="H20" s="2" t="s">
         <v>5843</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -22033,7 +22030,7 @@
       <c r="H21" s="2" t="s">
         <v>5846</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -22042,7 +22039,7 @@
         <f aca="false">CONCATENATE(D22,"_",MID(C22,1,3),"_",MID(F22,1,3),"_",MID(E22,1,3),"_",B22)</f>
         <v>A01_CHA_NAR_BED_00200</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -22063,7 +22060,7 @@
       <c r="H22" s="2" t="s">
         <v>5849</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -22093,7 +22090,7 @@
       <c r="H23" s="2" t="s">
         <v>5852</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -22102,7 +22099,7 @@
         <f aca="false">CONCATENATE(D24,"_",MID(C24,1,3),"_",MID(F24,1,3),"_",MID(E24,1,3),"_",B24)</f>
         <v>A01_CHA_NAR_BOX_00220</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -22123,7 +22120,7 @@
       <c r="H24" s="2" t="s">
         <v>5854</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -22146,16 +22143,16 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.15"/>
@@ -22212,7 +22209,7 @@
       <c r="F2" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>5856</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -22227,7 +22224,7 @@
         <f aca="false">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
         <v>A01_GAR_NAR_Flo_00020</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -22242,7 +22239,7 @@
       <c r="F3" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>5859</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -22272,7 +22269,7 @@
       <c r="F4" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>5862</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -22287,7 +22284,7 @@
         <f aca="false">CONCATENATE(D5,"_",MID(C5,1,3),"_",MID(F5,1,3),"_",MID(E5,1,3),"_",B5)</f>
         <v>A01_GAR_NAR_Wat_00040</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -22302,7 +22299,7 @@
       <c r="F5" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>5865</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -22326,13 +22323,13 @@
       <c r="D6" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>5864</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>5867</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -22347,7 +22344,7 @@
         <f aca="false">CONCATENATE(D7,"_",MID(C7,1,3),"_",MID(F7,1,3),"_",MID(E7,1,3),"_",B7)</f>
         <v>A01_GAR_NAR_Swi_00060</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -22362,7 +22359,7 @@
       <c r="F7" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>5870</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -22377,7 +22374,7 @@
         <f aca="false">CONCATENATE(D8,"_",MID(C8,1,3),"_",MID(F8,1,3),"_",MID(E8,1,3),"_",B8)</f>
         <v>A02_GAR_NAR_Swi_00070</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -22392,7 +22389,7 @@
       <c r="F8" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>156</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -22407,7 +22404,7 @@
         <f aca="false">CONCATENATE(D9,"_",MID(C9,1,3),"_",MID(F9,1,3),"_",MID(E9,1,3),"_",B9)</f>
         <v>A03_GAR_NAR_Swi_00080</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -22422,7 +22419,7 @@
       <c r="F9" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>5874</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -22433,31 +22430,31 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22568,7 +22565,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22632,14 +22629,14 @@
       <c r="F2" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>5877</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>5878</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>2971</v>
+      <c r="I2" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22647,7 +22644,7 @@
         <f aca="false">CONCATENATE(D3,"_",MID(C3,1,3),"_",MID(F3,1,3),"_",MID(E3,1,3),"_",B3)</f>
         <v>A01_ATT_NAR_Clo_00020</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -22662,14 +22659,14 @@
       <c r="F3" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>5880</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>5881</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>2971</v>
+      <c r="I3" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22692,14 +22689,14 @@
       <c r="F4" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>5883</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>5884</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>2971</v>
+      <c r="I4" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22707,7 +22704,7 @@
         <f aca="false">CONCATENATE(D5,"_",MID(C5,1,3),"_",MID(F5,1,3),"_",MID(E5,1,3),"_",B5)</f>
         <v>A01_ATT_NAR_Man_00040</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -22722,14 +22719,14 @@
       <c r="F5" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="35" t="s">
         <v>5885</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>5886</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>2971</v>
+      <c r="I5" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22746,20 +22743,20 @@
       <c r="D6" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>5887</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>5885</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>5886</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>2971</v>
+      <c r="G6" s="35" t="s">
+        <v>5888</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>5889</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22767,7 +22764,7 @@
         <f aca="false">CONCATENATE(D7,"_",MID(C7,1,3),"_",MID(F7,1,3),"_",MID(E7,1,3),"_",B7)</f>
         <v>A01_ATT_NAR_Fis_00060</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -22777,19 +22774,19 @@
         <v>5444</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>5889</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>5890</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>2971</v>
+      <c r="G7" s="35" t="s">
+        <v>5891</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>5892</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22797,7 +22794,7 @@
         <f aca="false">CONCATENATE(D8,"_",MID(C8,1,3),"_",MID(F8,1,3),"_",MID(E8,1,3),"_",B8)</f>
         <v>A01_ATT_NAR_Boo_00070</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -22807,19 +22804,19 @@
         <v>5444</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>5892</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>5893</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>2971</v>
+      <c r="G8" s="35" t="s">
+        <v>5894</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>5895</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22827,7 +22824,7 @@
         <f aca="false">CONCATENATE(D9,"_",MID(C9,1,3),"_",MID(F9,1,3),"_",MID(E9,1,3),"_",B9)</f>
         <v>A01_ATT_NAR_Boo_00080</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -22837,19 +22834,19 @@
         <v>5444</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5894</v>
+        <v>5896</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>5895</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>5896</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>2971</v>
+      <c r="G9" s="36" t="s">
+        <v>5897</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>5898</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22857,7 +22854,7 @@
         <f aca="false">CONCATENATE(D10,"_",MID(C10,1,3),"_",MID(F10,1,3),"_",MID(E10,1,3),"_",B10)</f>
         <v>A01_ATT_NAR_Man_00090</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -22867,19 +22864,19 @@
         <v>5444</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>5898</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>5899</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>2971</v>
+      <c r="G10" s="37" t="s">
+        <v>5900</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>5901</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22887,7 +22884,7 @@
         <f aca="false">CONCATENATE(D11,"_",MID(C11,1,3),"_",MID(F11,1,3),"_",MID(E11,1,3),"_",B11)</f>
         <v>A01_ATT_NAR_Cou_00100</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -22897,19 +22894,19 @@
         <v>5444</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>5901</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>5902</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>2971</v>
+      <c r="G11" s="37" t="s">
+        <v>5903</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>5904</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22917,7 +22914,7 @@
         <f aca="false">CONCATENATE(D12,"_",MID(C12,1,3),"_",MID(F12,1,3),"_",MID(E12,1,3),"_",B12)</f>
         <v>A01_ATT_NAR_Con_00110</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -22927,19 +22924,19 @@
         <v>5444</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>5904</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>5905</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>2971</v>
+      <c r="G12" s="37" t="s">
+        <v>5906</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>5907</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22947,7 +22944,7 @@
         <f aca="false">CONCATENATE(D13,"_",MID(C13,1,3),"_",MID(F13,1,3),"_",MID(E13,1,3),"_",B13)</f>
         <v>A01_ATT_NAR_Bro_00120</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -22957,19 +22954,19 @@
         <v>5444</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5906</v>
+        <v>5908</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>5907</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>5908</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>2971</v>
+      <c r="G13" s="37" t="s">
+        <v>5909</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>5910</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22977,7 +22974,7 @@
         <f aca="false">CONCATENATE(D14,"_",MID(C14,1,3),"_",MID(F14,1,3),"_",MID(E14,1,3),"_",B14)</f>
         <v>A01_ATT_NAR_Cag_00130</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -22987,19 +22984,19 @@
         <v>5444</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5909</v>
+        <v>5911</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>5910</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>5911</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>2971</v>
+      <c r="G14" s="37" t="s">
+        <v>5912</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>5913</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23007,7 +23004,7 @@
         <f aca="false">CONCATENATE(D15,"_",MID(C15,1,3),"_",MID(F15,1,3),"_",MID(E15,1,3),"_",B15)</f>
         <v>A01_ATT_NAR_Arm_00140</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -23016,20 +23013,20 @@
       <c r="D15" s="2" t="s">
         <v>5444</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>5912</v>
+      <c r="E15" s="38" t="s">
+        <v>5914</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>5913</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>5914</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>2971</v>
+      <c r="G15" s="37" t="s">
+        <v>5915</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>5916</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23037,7 +23034,7 @@
         <f aca="false">CONCATENATE(D16,"_",MID(C16,1,3),"_",MID(F16,1,3),"_",MID(E16,1,3),"_",B16)</f>
         <v>A01_ATT_NAR_Arm_00150</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -23046,20 +23043,20 @@
       <c r="D16" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>5912</v>
+      <c r="E16" s="38" t="s">
+        <v>5914</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>5915</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>5916</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>2971</v>
+      <c r="G16" s="37" t="s">
+        <v>5917</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>5918</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23067,7 +23064,7 @@
         <f aca="false">CONCATENATE(D17,"_",MID(C17,1,3),"_",MID(F17,1,3),"_",MID(E17,1,3),"_",B17)</f>
         <v>A01_ATT_NAR_Arm_00160</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -23076,20 +23073,20 @@
       <c r="D17" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>5912</v>
+      <c r="E17" s="38" t="s">
+        <v>5914</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>5917</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>5918</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>2971</v>
+      <c r="G17" s="37" t="s">
+        <v>5919</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>5920</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23097,7 +23094,7 @@
         <f aca="false">CONCATENATE(D18,"_",MID(C18,1,3),"_",MID(F18,1,3),"_",MID(E18,1,3),"_",B18)</f>
         <v>A01_ATT_CEL_Arm_00170</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -23106,20 +23103,20 @@
       <c r="D18" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>5912</v>
+      <c r="E18" s="38" t="s">
+        <v>5914</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>5919</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>5920</v>
-      </c>
-      <c r="H18" s="38" t="s">
         <v>5921</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>2971</v>
+      <c r="G18" s="37" t="s">
+        <v>5922</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>5923</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23127,7 +23124,7 @@
         <f aca="false">CONCATENATE(D19,"_",MID(C19,1,3),"_",MID(F19,1,3),"_",MID(E19,1,3),"_",B19)</f>
         <v>A01_ATT_NAR_Arm_00180</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -23136,20 +23133,20 @@
       <c r="D19" s="0" t="s">
         <v>5444</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>5912</v>
+      <c r="E19" s="38" t="s">
+        <v>5914</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>5922</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>5923</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>2971</v>
+      <c r="G19" s="37" t="s">
+        <v>5924</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>5925</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>5449</v>
       </c>
     </row>
   </sheetData>
@@ -23206,7 +23203,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.71"/>
@@ -23816,7 +23813,7 @@
       <c r="A24" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -24446,7 +24443,7 @@
       <c r="C48" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>531</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -24458,7 +24455,7 @@
       <c r="G48" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>534</v>
       </c>
     </row>
@@ -24472,7 +24469,7 @@
       <c r="C49" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>531</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -24484,7 +24481,7 @@
       <c r="G49" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="18" t="s">
         <v>534</v>
       </c>
     </row>
@@ -24498,7 +24495,7 @@
       <c r="C50" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>531</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -24510,7 +24507,7 @@
       <c r="G50" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="18" t="s">
         <v>534</v>
       </c>
     </row>
@@ -24524,7 +24521,7 @@
       <c r="C51" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>531</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -24536,7 +24533,7 @@
       <c r="G51" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="18" t="s">
         <v>534</v>
       </c>
     </row>
@@ -30510,7 +30507,7 @@
       <c r="E281" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F281" s="14" t="s">
+      <c r="F281" s="13" t="s">
         <v>1360</v>
       </c>
       <c r="G281" s="9" t="s">
@@ -30692,7 +30689,7 @@
       <c r="E288" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F288" s="14" t="s">
+      <c r="F288" s="13" t="s">
         <v>1389</v>
       </c>
       <c r="G288" s="9" t="s">
@@ -31186,7 +31183,7 @@
       <c r="E307" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F307" s="14" t="s">
+      <c r="F307" s="13" t="s">
         <v>1460</v>
       </c>
       <c r="G307" s="9" t="s">
@@ -31330,14 +31327,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
   </cols>
@@ -32918,7 +32915,7 @@
       <c r="E61" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>1656</v>
       </c>
       <c r="G61" s="9" t="s">
@@ -34686,7 +34683,7 @@
       <c r="E129" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F129" s="20" t="s">
+      <c r="F129" s="19" t="s">
         <v>1860</v>
       </c>
       <c r="G129" s="9" t="s">
@@ -35567,7 +35564,7 @@
       <c r="E163" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F163" s="20" t="s">
+      <c r="F163" s="19" t="s">
         <v>1953</v>
       </c>
       <c r="G163" s="9" t="s">
@@ -35879,7 +35876,7 @@
       <c r="E175" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F175" s="20" t="s">
+      <c r="F175" s="19" t="s">
         <v>1989</v>
       </c>
       <c r="G175" s="9" t="s">
@@ -36087,7 +36084,7 @@
       <c r="E183" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F183" s="20" t="s">
+      <c r="F183" s="19" t="s">
         <v>2013</v>
       </c>
       <c r="G183" s="9" t="s">
@@ -36347,7 +36344,7 @@
       <c r="E193" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="19" t="s">
         <v>2043</v>
       </c>
       <c r="G193" s="9" t="s">
@@ -36503,7 +36500,7 @@
       <c r="E199" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F199" s="20" t="s">
+      <c r="F199" s="19" t="s">
         <v>2057</v>
       </c>
       <c r="G199" s="9" t="s">
@@ -38973,7 +38970,7 @@
       <c r="E294" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F294" s="20" t="s">
+      <c r="F294" s="19" t="s">
         <v>2373</v>
       </c>
       <c r="G294" s="9" t="s">
@@ -40377,7 +40374,7 @@
       <c r="E348" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="F348" s="20" t="s">
+      <c r="F348" s="19" t="s">
         <v>2586</v>
       </c>
       <c r="G348" s="9" t="s">
@@ -43061,7 +43058,7 @@
       <c r="G451" s="9" t="s">
         <v>2970</v>
       </c>
-      <c r="H451" s="19" t="s">
+      <c r="H451" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43087,7 +43084,7 @@
       <c r="G452" s="9" t="s">
         <v>2975</v>
       </c>
-      <c r="H452" s="19" t="s">
+      <c r="H452" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43113,7 +43110,7 @@
       <c r="G453" s="9" t="s">
         <v>2979</v>
       </c>
-      <c r="H453" s="19" t="s">
+      <c r="H453" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43139,7 +43136,7 @@
       <c r="G454" s="9" t="s">
         <v>2983</v>
       </c>
-      <c r="H454" s="19" t="s">
+      <c r="H454" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43165,7 +43162,7 @@
       <c r="G455" s="9" t="s">
         <v>2987</v>
       </c>
-      <c r="H455" s="19" t="s">
+      <c r="H455" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43191,7 +43188,7 @@
       <c r="G456" s="9" t="s">
         <v>2991</v>
       </c>
-      <c r="H456" s="19" t="s">
+      <c r="H456" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43217,7 +43214,7 @@
       <c r="G457" s="9" t="s">
         <v>2995</v>
       </c>
-      <c r="H457" s="19" t="s">
+      <c r="H457" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43243,7 +43240,7 @@
       <c r="G458" s="9" t="s">
         <v>2999</v>
       </c>
-      <c r="H458" s="19" t="s">
+      <c r="H458" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43269,7 +43266,7 @@
       <c r="G459" s="9" t="s">
         <v>3003</v>
       </c>
-      <c r="H459" s="19" t="s">
+      <c r="H459" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43295,7 +43292,7 @@
       <c r="G460" s="9" t="s">
         <v>3007</v>
       </c>
-      <c r="H460" s="19" t="s">
+      <c r="H460" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43321,7 +43318,7 @@
       <c r="G461" s="9" t="s">
         <v>3011</v>
       </c>
-      <c r="H461" s="19" t="s">
+      <c r="H461" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43347,7 +43344,7 @@
       <c r="G462" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H462" s="19" t="s">
+      <c r="H462" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43373,7 +43370,7 @@
       <c r="G463" s="9" t="s">
         <v>3017</v>
       </c>
-      <c r="H463" s="19" t="s">
+      <c r="H463" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43399,7 +43396,7 @@
       <c r="G464" s="9" t="s">
         <v>3021</v>
       </c>
-      <c r="H464" s="19" t="s">
+      <c r="H464" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43425,7 +43422,7 @@
       <c r="G465" s="9" t="s">
         <v>3025</v>
       </c>
-      <c r="H465" s="19" t="s">
+      <c r="H465" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43451,7 +43448,7 @@
       <c r="G466" s="9" t="s">
         <v>3029</v>
       </c>
-      <c r="H466" s="19" t="s">
+      <c r="H466" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43477,7 +43474,7 @@
       <c r="G467" s="9" t="s">
         <v>3033</v>
       </c>
-      <c r="H467" s="19" t="s">
+      <c r="H467" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43503,7 +43500,7 @@
       <c r="G468" s="9" t="s">
         <v>3037</v>
       </c>
-      <c r="H468" s="19" t="s">
+      <c r="H468" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43529,7 +43526,7 @@
       <c r="G469" s="9" t="s">
         <v>3041</v>
       </c>
-      <c r="H469" s="19" t="s">
+      <c r="H469" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43581,7 +43578,7 @@
       <c r="G471" s="9" t="s">
         <v>3049</v>
       </c>
-      <c r="H471" s="19" t="s">
+      <c r="H471" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43607,7 +43604,7 @@
       <c r="G472" s="9" t="s">
         <v>3053</v>
       </c>
-      <c r="H472" s="19" t="s">
+      <c r="H472" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43633,7 +43630,7 @@
       <c r="G473" s="9" t="s">
         <v>3057</v>
       </c>
-      <c r="H473" s="19" t="s">
+      <c r="H473" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43659,7 +43656,7 @@
       <c r="G474" s="9" t="s">
         <v>3061</v>
       </c>
-      <c r="H474" s="19" t="s">
+      <c r="H474" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43685,7 +43682,7 @@
       <c r="G475" s="9" t="s">
         <v>3065</v>
       </c>
-      <c r="H475" s="19" t="s">
+      <c r="H475" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43711,7 +43708,7 @@
       <c r="G476" s="9" t="s">
         <v>3069</v>
       </c>
-      <c r="H476" s="19" t="s">
+      <c r="H476" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43737,7 +43734,7 @@
       <c r="G477" s="9" t="s">
         <v>3073</v>
       </c>
-      <c r="H477" s="19" t="s">
+      <c r="H477" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43763,7 +43760,7 @@
       <c r="G478" s="9" t="s">
         <v>3077</v>
       </c>
-      <c r="H478" s="19" t="s">
+      <c r="H478" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43789,7 +43786,7 @@
       <c r="G479" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H479" s="19" t="s">
+      <c r="H479" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43815,7 +43812,7 @@
       <c r="G480" s="9" t="s">
         <v>3083</v>
       </c>
-      <c r="H480" s="19" t="s">
+      <c r="H480" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43841,7 +43838,7 @@
       <c r="G481" s="9" t="s">
         <v>3087</v>
       </c>
-      <c r="H481" s="19" t="s">
+      <c r="H481" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -43867,7 +43864,7 @@
       <c r="G482" s="9" t="s">
         <v>3091</v>
       </c>
-      <c r="H482" s="19" t="s">
+      <c r="H482" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -45765,7 +45762,7 @@
       <c r="G555" s="9" t="s">
         <v>3363</v>
       </c>
-      <c r="H555" s="19" t="s">
+      <c r="H555" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -45791,7 +45788,7 @@
       <c r="G556" s="9" t="s">
         <v>3367</v>
       </c>
-      <c r="H556" s="19" t="s">
+      <c r="H556" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -45817,7 +45814,7 @@
       <c r="G557" s="9" t="s">
         <v>3371</v>
       </c>
-      <c r="H557" s="19" t="s">
+      <c r="H557" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -46838,8 +46835,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
   </cols>
@@ -48426,7 +48423,7 @@
       <c r="G61" s="9" t="s">
         <v>3684</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48452,7 +48449,7 @@
       <c r="G62" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48478,7 +48475,7 @@
       <c r="G63" s="9" t="s">
         <v>3688</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48504,7 +48501,7 @@
       <c r="G64" s="9" t="s">
         <v>3691</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48530,7 +48527,7 @@
       <c r="G65" s="9" t="s">
         <v>3694</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48556,7 +48553,7 @@
       <c r="G66" s="9" t="s">
         <v>3697</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48582,7 +48579,7 @@
       <c r="G67" s="9" t="s">
         <v>3700</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48608,7 +48605,7 @@
       <c r="G68" s="9" t="s">
         <v>3703</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48634,7 +48631,7 @@
       <c r="G69" s="9" t="s">
         <v>3705</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48660,7 +48657,7 @@
       <c r="G70" s="9" t="s">
         <v>3708</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48686,7 +48683,7 @@
       <c r="G71" s="9" t="s">
         <v>3711</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48712,7 +48709,7 @@
       <c r="G72" s="9" t="s">
         <v>3714</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48738,7 +48735,7 @@
       <c r="G73" s="9" t="s">
         <v>3717</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48764,7 +48761,7 @@
       <c r="G74" s="9" t="s">
         <v>3720</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48790,7 +48787,7 @@
       <c r="G75" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48816,7 +48813,7 @@
       <c r="G76" s="9" t="s">
         <v>3725</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48842,7 +48839,7 @@
       <c r="G77" s="9" t="s">
         <v>3728</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48868,7 +48865,7 @@
       <c r="G78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H78" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48894,7 +48891,7 @@
       <c r="G79" s="9" t="s">
         <v>3732</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48920,7 +48917,7 @@
       <c r="G80" s="9" t="s">
         <v>3735</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48946,7 +48943,7 @@
       <c r="G81" s="9" t="s">
         <v>3738</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48972,7 +48969,7 @@
       <c r="G82" s="9" t="s">
         <v>3741</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="H82" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -48998,7 +48995,7 @@
       <c r="G83" s="9" t="s">
         <v>3744</v>
       </c>
-      <c r="H83" s="19" t="s">
+      <c r="H83" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49024,7 +49021,7 @@
       <c r="G84" s="9" t="s">
         <v>3747</v>
       </c>
-      <c r="H84" s="19" t="s">
+      <c r="H84" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49050,7 +49047,7 @@
       <c r="G85" s="9" t="s">
         <v>3750</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="H85" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49076,7 +49073,7 @@
       <c r="G86" s="9" t="s">
         <v>3753</v>
       </c>
-      <c r="H86" s="19" t="s">
+      <c r="H86" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49102,7 +49099,7 @@
       <c r="G87" s="9" t="s">
         <v>3756</v>
       </c>
-      <c r="H87" s="19" t="s">
+      <c r="H87" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49128,7 +49125,7 @@
       <c r="G88" s="9" t="s">
         <v>3759</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="H88" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49154,7 +49151,7 @@
       <c r="G89" s="9" t="s">
         <v>3762</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49180,7 +49177,7 @@
       <c r="G90" s="9" t="s">
         <v>3765</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="H90" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49206,7 +49203,7 @@
       <c r="G91" s="9" t="s">
         <v>3768</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49232,7 +49229,7 @@
       <c r="G92" s="9" t="s">
         <v>3771</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49258,7 +49255,7 @@
       <c r="G93" s="9" t="s">
         <v>3774</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49284,7 +49281,7 @@
       <c r="G94" s="9" t="s">
         <v>3777</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49310,7 +49307,7 @@
       <c r="G95" s="9" t="s">
         <v>3780</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="H95" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49336,7 +49333,7 @@
       <c r="G96" s="9" t="s">
         <v>3783</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49362,7 +49359,7 @@
       <c r="G97" s="9" t="s">
         <v>3786</v>
       </c>
-      <c r="H97" s="19" t="s">
+      <c r="H97" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49388,7 +49385,7 @@
       <c r="G98" s="9" t="s">
         <v>3789</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49414,7 +49411,7 @@
       <c r="G99" s="9" t="s">
         <v>3792</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49440,7 +49437,7 @@
       <c r="G100" s="9" t="s">
         <v>3795</v>
       </c>
-      <c r="H100" s="19" t="s">
+      <c r="H100" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49466,7 +49463,7 @@
       <c r="G101" s="9" t="s">
         <v>3798</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49492,7 +49489,7 @@
       <c r="G102" s="9" t="s">
         <v>3801</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49518,7 +49515,7 @@
       <c r="G103" s="9" t="s">
         <v>3804</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49544,7 +49541,7 @@
       <c r="G104" s="9" t="s">
         <v>3807</v>
       </c>
-      <c r="H104" s="19" t="s">
+      <c r="H104" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49570,7 +49567,7 @@
       <c r="G105" s="9" t="s">
         <v>3810</v>
       </c>
-      <c r="H105" s="19" t="s">
+      <c r="H105" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49596,7 +49593,7 @@
       <c r="G106" s="9" t="s">
         <v>3812</v>
       </c>
-      <c r="H106" s="19" t="s">
+      <c r="H106" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49622,7 +49619,7 @@
       <c r="G107" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49648,7 +49645,7 @@
       <c r="G108" s="9" t="s">
         <v>3816</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="H108" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49674,7 +49671,7 @@
       <c r="G109" s="9" t="s">
         <v>3819</v>
       </c>
-      <c r="H109" s="19" t="s">
+      <c r="H109" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49700,7 +49697,7 @@
       <c r="G110" s="9" t="s">
         <v>3822</v>
       </c>
-      <c r="H110" s="19" t="s">
+      <c r="H110" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49726,7 +49723,7 @@
       <c r="G111" s="9" t="s">
         <v>3825</v>
       </c>
-      <c r="H111" s="19" t="s">
+      <c r="H111" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49752,7 +49749,7 @@
       <c r="G112" s="9" t="s">
         <v>3828</v>
       </c>
-      <c r="H112" s="19" t="s">
+      <c r="H112" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49778,7 +49775,7 @@
       <c r="G113" s="9" t="s">
         <v>3831</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49804,7 +49801,7 @@
       <c r="G114" s="9" t="s">
         <v>3834</v>
       </c>
-      <c r="H114" s="19" t="s">
+      <c r="H114" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49830,7 +49827,7 @@
       <c r="G115" s="9" t="s">
         <v>3837</v>
       </c>
-      <c r="H115" s="19" t="s">
+      <c r="H115" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49856,7 +49853,7 @@
       <c r="G116" s="9" t="s">
         <v>3840</v>
       </c>
-      <c r="H116" s="19" t="s">
+      <c r="H116" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49882,7 +49879,7 @@
       <c r="G117" s="9" t="s">
         <v>3843</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="H117" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49908,7 +49905,7 @@
       <c r="G118" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49934,7 +49931,7 @@
       <c r="G119" s="9" t="s">
         <v>3847</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49960,7 +49957,7 @@
       <c r="G120" s="9" t="s">
         <v>3850</v>
       </c>
-      <c r="H120" s="19" t="s">
+      <c r="H120" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -49986,7 +49983,7 @@
       <c r="G121" s="9" t="s">
         <v>3853</v>
       </c>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50012,7 +50009,7 @@
       <c r="G122" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H122" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50038,7 +50035,7 @@
       <c r="G123" s="9" t="s">
         <v>3857</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50064,7 +50061,7 @@
       <c r="G124" s="9" t="s">
         <v>3860</v>
       </c>
-      <c r="H124" s="19" t="s">
+      <c r="H124" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50090,7 +50087,7 @@
       <c r="G125" s="9" t="s">
         <v>3863</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50116,7 +50113,7 @@
       <c r="G126" s="9" t="s">
         <v>3866</v>
       </c>
-      <c r="H126" s="19" t="s">
+      <c r="H126" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50142,7 +50139,7 @@
       <c r="G127" s="9" t="s">
         <v>3869</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="H127" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50168,7 +50165,7 @@
       <c r="G128" s="9" t="s">
         <v>3872</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="H128" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50194,7 +50191,7 @@
       <c r="G129" s="9" t="s">
         <v>3875</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="H129" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50220,7 +50217,7 @@
       <c r="G130" s="9" t="s">
         <v>3878</v>
       </c>
-      <c r="H130" s="19" t="s">
+      <c r="H130" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50246,7 +50243,7 @@
       <c r="G131" s="9" t="s">
         <v>3159</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50272,7 +50269,7 @@
       <c r="G132" s="9" t="s">
         <v>3882</v>
       </c>
-      <c r="H132" s="19" t="s">
+      <c r="H132" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50298,7 +50295,7 @@
       <c r="G133" s="9" t="s">
         <v>3885</v>
       </c>
-      <c r="H133" s="19" t="s">
+      <c r="H133" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50324,7 +50321,7 @@
       <c r="G134" s="9" t="s">
         <v>3888</v>
       </c>
-      <c r="H134" s="19" t="s">
+      <c r="H134" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50350,7 +50347,7 @@
       <c r="G135" s="9" t="s">
         <v>3891</v>
       </c>
-      <c r="H135" s="19" t="s">
+      <c r="H135" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50376,7 +50373,7 @@
       <c r="G136" s="9" t="s">
         <v>3894</v>
       </c>
-      <c r="H136" s="19" t="s">
+      <c r="H136" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50402,7 +50399,7 @@
       <c r="G137" s="9" t="s">
         <v>3897</v>
       </c>
-      <c r="H137" s="19" t="s">
+      <c r="H137" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50428,7 +50425,7 @@
       <c r="G138" s="9" t="s">
         <v>3900</v>
       </c>
-      <c r="H138" s="19" t="s">
+      <c r="H138" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50454,7 +50451,7 @@
       <c r="G139" s="9" t="s">
         <v>3903</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="H139" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50480,7 +50477,7 @@
       <c r="G140" s="9" t="s">
         <v>3906</v>
       </c>
-      <c r="H140" s="19" t="s">
+      <c r="H140" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50506,7 +50503,7 @@
       <c r="G141" s="9" t="s">
         <v>3909</v>
       </c>
-      <c r="H141" s="19" t="s">
+      <c r="H141" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50532,7 +50529,7 @@
       <c r="G142" s="9" t="s">
         <v>3912</v>
       </c>
-      <c r="H142" s="19" t="s">
+      <c r="H142" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50558,7 +50555,7 @@
       <c r="G143" s="9" t="s">
         <v>3915</v>
       </c>
-      <c r="H143" s="19" t="s">
+      <c r="H143" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50584,7 +50581,7 @@
       <c r="G144" s="9" t="s">
         <v>3918</v>
       </c>
-      <c r="H144" s="19" t="s">
+      <c r="H144" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50610,7 +50607,7 @@
       <c r="G145" s="9" t="s">
         <v>3822</v>
       </c>
-      <c r="H145" s="19" t="s">
+      <c r="H145" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50636,7 +50633,7 @@
       <c r="G146" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H146" s="19" t="s">
+      <c r="H146" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50662,7 +50659,7 @@
       <c r="G147" s="9" t="s">
         <v>3923</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50688,7 +50685,7 @@
       <c r="G148" s="9" t="s">
         <v>3926</v>
       </c>
-      <c r="H148" s="19" t="s">
+      <c r="H148" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50714,7 +50711,7 @@
       <c r="G149" s="9" t="s">
         <v>3929</v>
       </c>
-      <c r="H149" s="19" t="s">
+      <c r="H149" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50740,7 +50737,7 @@
       <c r="G150" s="9" t="s">
         <v>3932</v>
       </c>
-      <c r="H150" s="19" t="s">
+      <c r="H150" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50766,7 +50763,7 @@
       <c r="G151" s="9" t="s">
         <v>3935</v>
       </c>
-      <c r="H151" s="19" t="s">
+      <c r="H151" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50792,7 +50789,7 @@
       <c r="G152" s="9" t="s">
         <v>3938</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H152" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50818,7 +50815,7 @@
       <c r="G153" s="9" t="s">
         <v>3941</v>
       </c>
-      <c r="H153" s="19" t="s">
+      <c r="H153" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50844,7 +50841,7 @@
       <c r="G154" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H154" s="19" t="s">
+      <c r="H154" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50870,7 +50867,7 @@
       <c r="G155" s="9" t="s">
         <v>3945</v>
       </c>
-      <c r="H155" s="19" t="s">
+      <c r="H155" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50896,7 +50893,7 @@
       <c r="G156" s="9" t="s">
         <v>3948</v>
       </c>
-      <c r="H156" s="19" t="s">
+      <c r="H156" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50922,7 +50919,7 @@
       <c r="G157" s="9" t="s">
         <v>3951</v>
       </c>
-      <c r="H157" s="19" t="s">
+      <c r="H157" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50948,7 +50945,7 @@
       <c r="G158" s="9" t="s">
         <v>3954</v>
       </c>
-      <c r="H158" s="19" t="s">
+      <c r="H158" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -50974,7 +50971,7 @@
       <c r="G159" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H159" s="19" t="s">
+      <c r="H159" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51000,7 +50997,7 @@
       <c r="G160" s="9" t="s">
         <v>3958</v>
       </c>
-      <c r="H160" s="19" t="s">
+      <c r="H160" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51026,7 +51023,7 @@
       <c r="G161" s="9" t="s">
         <v>3961</v>
       </c>
-      <c r="H161" s="19" t="s">
+      <c r="H161" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51052,7 +51049,7 @@
       <c r="G162" s="9" t="s">
         <v>3964</v>
       </c>
-      <c r="H162" s="19" t="s">
+      <c r="H162" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51078,7 +51075,7 @@
       <c r="G163" s="9" t="s">
         <v>3967</v>
       </c>
-      <c r="H163" s="19" t="s">
+      <c r="H163" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51104,7 +51101,7 @@
       <c r="G164" s="9" t="s">
         <v>3970</v>
       </c>
-      <c r="H164" s="19" t="s">
+      <c r="H164" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51130,7 +51127,7 @@
       <c r="G165" s="9" t="s">
         <v>3973</v>
       </c>
-      <c r="H165" s="19" t="s">
+      <c r="H165" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51156,7 +51153,7 @@
       <c r="G166" s="9" t="s">
         <v>3976</v>
       </c>
-      <c r="H166" s="19" t="s">
+      <c r="H166" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51182,7 +51179,7 @@
       <c r="G167" s="9" t="s">
         <v>3979</v>
       </c>
-      <c r="H167" s="19" t="s">
+      <c r="H167" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51208,7 +51205,7 @@
       <c r="G168" s="9" t="s">
         <v>3982</v>
       </c>
-      <c r="H168" s="19" t="s">
+      <c r="H168" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51234,7 +51231,7 @@
       <c r="G169" s="9" t="s">
         <v>3985</v>
       </c>
-      <c r="H169" s="19" t="s">
+      <c r="H169" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51260,7 +51257,7 @@
       <c r="G170" s="9" t="s">
         <v>3988</v>
       </c>
-      <c r="H170" s="19" t="s">
+      <c r="H170" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51286,7 +51283,7 @@
       <c r="G171" s="9" t="s">
         <v>3991</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="H171" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51312,7 +51309,7 @@
       <c r="G172" s="9" t="s">
         <v>3994</v>
       </c>
-      <c r="H172" s="19" t="s">
+      <c r="H172" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51338,7 +51335,7 @@
       <c r="G173" s="9" t="s">
         <v>3997</v>
       </c>
-      <c r="H173" s="19" t="s">
+      <c r="H173" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51364,7 +51361,7 @@
       <c r="G174" s="9" t="s">
         <v>4000</v>
       </c>
-      <c r="H174" s="19" t="s">
+      <c r="H174" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51390,7 +51387,7 @@
       <c r="G175" s="9" t="s">
         <v>4003</v>
       </c>
-      <c r="H175" s="19" t="s">
+      <c r="H175" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51416,7 +51413,7 @@
       <c r="G176" s="9" t="s">
         <v>4006</v>
       </c>
-      <c r="H176" s="19" t="s">
+      <c r="H176" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51442,7 +51439,7 @@
       <c r="G177" s="9" t="s">
         <v>4009</v>
       </c>
-      <c r="H177" s="19" t="s">
+      <c r="H177" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51468,7 +51465,7 @@
       <c r="G178" s="9" t="s">
         <v>4012</v>
       </c>
-      <c r="H178" s="19" t="s">
+      <c r="H178" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51494,7 +51491,7 @@
       <c r="G179" s="9" t="s">
         <v>4015</v>
       </c>
-      <c r="H179" s="19" t="s">
+      <c r="H179" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51520,7 +51517,7 @@
       <c r="G180" s="9" t="s">
         <v>4018</v>
       </c>
-      <c r="H180" s="19" t="s">
+      <c r="H180" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51546,7 +51543,7 @@
       <c r="G181" s="9" t="s">
         <v>4021</v>
       </c>
-      <c r="H181" s="19" t="s">
+      <c r="H181" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51572,7 +51569,7 @@
       <c r="G182" s="9" t="s">
         <v>4024</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="H182" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51598,7 +51595,7 @@
       <c r="G183" s="9" t="s">
         <v>4027</v>
       </c>
-      <c r="H183" s="19" t="s">
+      <c r="H183" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51624,7 +51621,7 @@
       <c r="G184" s="9" t="s">
         <v>4030</v>
       </c>
-      <c r="H184" s="19" t="s">
+      <c r="H184" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51650,7 +51647,7 @@
       <c r="G185" s="9" t="s">
         <v>4033</v>
       </c>
-      <c r="H185" s="19" t="s">
+      <c r="H185" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51676,7 +51673,7 @@
       <c r="G186" s="9" t="s">
         <v>4036</v>
       </c>
-      <c r="H186" s="19" t="s">
+      <c r="H186" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51702,7 +51699,7 @@
       <c r="G187" s="9" t="s">
         <v>4039</v>
       </c>
-      <c r="H187" s="19" t="s">
+      <c r="H187" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51728,7 +51725,7 @@
       <c r="G188" s="9" t="s">
         <v>4042</v>
       </c>
-      <c r="H188" s="19" t="s">
+      <c r="H188" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51754,7 +51751,7 @@
       <c r="G189" s="9" t="s">
         <v>4045</v>
       </c>
-      <c r="H189" s="19" t="s">
+      <c r="H189" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51780,7 +51777,7 @@
       <c r="G190" s="9" t="s">
         <v>4048</v>
       </c>
-      <c r="H190" s="19" t="s">
+      <c r="H190" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51806,7 +51803,7 @@
       <c r="G191" s="9" t="s">
         <v>4051</v>
       </c>
-      <c r="H191" s="19" t="s">
+      <c r="H191" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51832,7 +51829,7 @@
       <c r="G192" s="9" t="s">
         <v>4054</v>
       </c>
-      <c r="H192" s="19" t="s">
+      <c r="H192" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51858,7 +51855,7 @@
       <c r="G193" s="9" t="s">
         <v>4057</v>
       </c>
-      <c r="H193" s="19" t="s">
+      <c r="H193" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51884,7 +51881,7 @@
       <c r="G194" s="9" t="s">
         <v>4060</v>
       </c>
-      <c r="H194" s="19" t="s">
+      <c r="H194" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51910,7 +51907,7 @@
       <c r="G195" s="9" t="s">
         <v>4063</v>
       </c>
-      <c r="H195" s="19" t="s">
+      <c r="H195" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51936,7 +51933,7 @@
       <c r="G196" s="9" t="s">
         <v>4066</v>
       </c>
-      <c r="H196" s="19" t="s">
+      <c r="H196" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51962,7 +51959,7 @@
       <c r="G197" s="9" t="s">
         <v>4069</v>
       </c>
-      <c r="H197" s="19" t="s">
+      <c r="H197" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -51988,7 +51985,7 @@
       <c r="G198" s="9" t="s">
         <v>4072</v>
       </c>
-      <c r="H198" s="19" t="s">
+      <c r="H198" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52014,7 +52011,7 @@
       <c r="G199" s="9" t="s">
         <v>4075</v>
       </c>
-      <c r="H199" s="19" t="s">
+      <c r="H199" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52040,7 +52037,7 @@
       <c r="G200" s="9" t="s">
         <v>4078</v>
       </c>
-      <c r="H200" s="19" t="s">
+      <c r="H200" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52066,7 +52063,7 @@
       <c r="G201" s="9" t="s">
         <v>4080</v>
       </c>
-      <c r="H201" s="19" t="s">
+      <c r="H201" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52092,7 +52089,7 @@
       <c r="G202" s="9" t="s">
         <v>4083</v>
       </c>
-      <c r="H202" s="19" t="s">
+      <c r="H202" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52118,7 +52115,7 @@
       <c r="G203" s="9" t="s">
         <v>4086</v>
       </c>
-      <c r="H203" s="19" t="s">
+      <c r="H203" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52144,7 +52141,7 @@
       <c r="G204" s="9" t="s">
         <v>4080</v>
       </c>
-      <c r="H204" s="19" t="s">
+      <c r="H204" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52170,7 +52167,7 @@
       <c r="G205" s="9" t="s">
         <v>4090</v>
       </c>
-      <c r="H205" s="19" t="s">
+      <c r="H205" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52196,7 +52193,7 @@
       <c r="G206" s="9" t="s">
         <v>4093</v>
       </c>
-      <c r="H206" s="19" t="s">
+      <c r="H206" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52222,7 +52219,7 @@
       <c r="G207" s="9" t="s">
         <v>4009</v>
       </c>
-      <c r="H207" s="19" t="s">
+      <c r="H207" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52248,7 +52245,7 @@
       <c r="G208" s="9" t="s">
         <v>4097</v>
       </c>
-      <c r="H208" s="19" t="s">
+      <c r="H208" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52274,7 +52271,7 @@
       <c r="G209" s="9" t="s">
         <v>4100</v>
       </c>
-      <c r="H209" s="19" t="s">
+      <c r="H209" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52300,7 +52297,7 @@
       <c r="G210" s="9" t="s">
         <v>4103</v>
       </c>
-      <c r="H210" s="19" t="s">
+      <c r="H210" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52326,7 +52323,7 @@
       <c r="G211" s="9" t="s">
         <v>4106</v>
       </c>
-      <c r="H211" s="19" t="s">
+      <c r="H211" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52352,7 +52349,7 @@
       <c r="G212" s="9" t="s">
         <v>4108</v>
       </c>
-      <c r="H212" s="19" t="s">
+      <c r="H212" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52378,7 +52375,7 @@
       <c r="G213" s="9" t="s">
         <v>4111</v>
       </c>
-      <c r="H213" s="19" t="s">
+      <c r="H213" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52404,7 +52401,7 @@
       <c r="G214" s="9" t="s">
         <v>4114</v>
       </c>
-      <c r="H214" s="19" t="s">
+      <c r="H214" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52430,7 +52427,7 @@
       <c r="G215" s="9" t="s">
         <v>4117</v>
       </c>
-      <c r="H215" s="19" t="s">
+      <c r="H215" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52456,7 +52453,7 @@
       <c r="G216" s="9" t="s">
         <v>4120</v>
       </c>
-      <c r="H216" s="19" t="s">
+      <c r="H216" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52482,7 +52479,7 @@
       <c r="G217" s="9" t="s">
         <v>4123</v>
       </c>
-      <c r="H217" s="19" t="s">
+      <c r="H217" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52508,7 +52505,7 @@
       <c r="G218" s="9" t="s">
         <v>4126</v>
       </c>
-      <c r="H218" s="19" t="s">
+      <c r="H218" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52534,7 +52531,7 @@
       <c r="G219" s="9" t="s">
         <v>4129</v>
       </c>
-      <c r="H219" s="19" t="s">
+      <c r="H219" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52560,7 +52557,7 @@
       <c r="G220" s="9" t="s">
         <v>4132</v>
       </c>
-      <c r="H220" s="19" t="s">
+      <c r="H220" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52586,7 +52583,7 @@
       <c r="G221" s="9" t="s">
         <v>4135</v>
       </c>
-      <c r="H221" s="19" t="s">
+      <c r="H221" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52612,7 +52609,7 @@
       <c r="G222" s="9" t="s">
         <v>4138</v>
       </c>
-      <c r="H222" s="19" t="s">
+      <c r="H222" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52638,7 +52635,7 @@
       <c r="G223" s="9" t="s">
         <v>4141</v>
       </c>
-      <c r="H223" s="19" t="s">
+      <c r="H223" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52664,7 +52661,7 @@
       <c r="G224" s="9" t="s">
         <v>4144</v>
       </c>
-      <c r="H224" s="19" t="s">
+      <c r="H224" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52690,7 +52687,7 @@
       <c r="G225" s="9" t="s">
         <v>4147</v>
       </c>
-      <c r="H225" s="19" t="s">
+      <c r="H225" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52716,7 +52713,7 @@
       <c r="G226" s="9" t="s">
         <v>4150</v>
       </c>
-      <c r="H226" s="19" t="s">
+      <c r="H226" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52742,7 +52739,7 @@
       <c r="G227" s="9" t="s">
         <v>4153</v>
       </c>
-      <c r="H227" s="19" t="s">
+      <c r="H227" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52768,7 +52765,7 @@
       <c r="G228" s="9" t="s">
         <v>4156</v>
       </c>
-      <c r="H228" s="19" t="s">
+      <c r="H228" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52794,7 +52791,7 @@
       <c r="G229" s="9" t="s">
         <v>2599</v>
       </c>
-      <c r="H229" s="19" t="s">
+      <c r="H229" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52820,7 +52817,7 @@
       <c r="G230" s="9" t="s">
         <v>4160</v>
       </c>
-      <c r="H230" s="19" t="s">
+      <c r="H230" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52846,7 +52843,7 @@
       <c r="G231" s="9" t="s">
         <v>4163</v>
       </c>
-      <c r="H231" s="19" t="s">
+      <c r="H231" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52872,7 +52869,7 @@
       <c r="G232" s="9" t="s">
         <v>4166</v>
       </c>
-      <c r="H232" s="19" t="s">
+      <c r="H232" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52898,7 +52895,7 @@
       <c r="G233" s="9" t="s">
         <v>4169</v>
       </c>
-      <c r="H233" s="19" t="s">
+      <c r="H233" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52924,7 +52921,7 @@
       <c r="G234" s="9" t="s">
         <v>4172</v>
       </c>
-      <c r="H234" s="19" t="s">
+      <c r="H234" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52950,7 +52947,7 @@
       <c r="G235" s="9" t="s">
         <v>4175</v>
       </c>
-      <c r="H235" s="19" t="s">
+      <c r="H235" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -52976,7 +52973,7 @@
       <c r="G236" s="9" t="s">
         <v>4178</v>
       </c>
-      <c r="H236" s="19" t="s">
+      <c r="H236" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53002,7 +52999,7 @@
       <c r="G237" s="9" t="s">
         <v>4181</v>
       </c>
-      <c r="H237" s="19" t="s">
+      <c r="H237" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53028,7 +53025,7 @@
       <c r="G238" s="9" t="s">
         <v>4184</v>
       </c>
-      <c r="H238" s="19" t="s">
+      <c r="H238" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53054,7 +53051,7 @@
       <c r="G239" s="9" t="s">
         <v>4187</v>
       </c>
-      <c r="H239" s="19" t="s">
+      <c r="H239" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53080,7 +53077,7 @@
       <c r="G240" s="9" t="s">
         <v>4190</v>
       </c>
-      <c r="H240" s="19" t="s">
+      <c r="H240" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53106,7 +53103,7 @@
       <c r="G241" s="9" t="s">
         <v>4193</v>
       </c>
-      <c r="H241" s="19" t="s">
+      <c r="H241" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53132,7 +53129,7 @@
       <c r="G242" s="9" t="s">
         <v>4196</v>
       </c>
-      <c r="H242" s="19" t="s">
+      <c r="H242" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53158,7 +53155,7 @@
       <c r="G243" s="9" t="s">
         <v>4199</v>
       </c>
-      <c r="H243" s="19" t="s">
+      <c r="H243" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53184,7 +53181,7 @@
       <c r="G244" s="9" t="s">
         <v>4202</v>
       </c>
-      <c r="H244" s="19" t="s">
+      <c r="H244" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53210,7 +53207,7 @@
       <c r="G245" s="9" t="s">
         <v>4205</v>
       </c>
-      <c r="H245" s="19" t="s">
+      <c r="H245" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53236,7 +53233,7 @@
       <c r="G246" s="9" t="s">
         <v>4208</v>
       </c>
-      <c r="H246" s="19" t="s">
+      <c r="H246" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53262,7 +53259,7 @@
       <c r="G247" s="9" t="s">
         <v>4211</v>
       </c>
-      <c r="H247" s="19" t="s">
+      <c r="H247" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53288,7 +53285,7 @@
       <c r="G248" s="9" t="s">
         <v>4214</v>
       </c>
-      <c r="H248" s="19" t="s">
+      <c r="H248" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53314,7 +53311,7 @@
       <c r="G249" s="9" t="s">
         <v>4217</v>
       </c>
-      <c r="H249" s="19" t="s">
+      <c r="H249" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53340,7 +53337,7 @@
       <c r="G250" s="9" t="s">
         <v>4220</v>
       </c>
-      <c r="H250" s="19" t="s">
+      <c r="H250" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53366,7 +53363,7 @@
       <c r="G251" s="9" t="s">
         <v>4223</v>
       </c>
-      <c r="H251" s="19" t="s">
+      <c r="H251" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53392,7 +53389,7 @@
       <c r="G252" s="9" t="s">
         <v>4225</v>
       </c>
-      <c r="H252" s="19" t="s">
+      <c r="H252" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53418,7 +53415,7 @@
       <c r="G253" s="9" t="s">
         <v>4228</v>
       </c>
-      <c r="H253" s="19" t="s">
+      <c r="H253" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53444,7 +53441,7 @@
       <c r="G254" s="9" t="s">
         <v>4231</v>
       </c>
-      <c r="H254" s="19" t="s">
+      <c r="H254" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53470,7 +53467,7 @@
       <c r="G255" s="9" t="s">
         <v>4233</v>
       </c>
-      <c r="H255" s="19" t="s">
+      <c r="H255" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53496,7 +53493,7 @@
       <c r="G256" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H256" s="19" t="s">
+      <c r="H256" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53522,7 +53519,7 @@
       <c r="G257" s="9" t="s">
         <v>4237</v>
       </c>
-      <c r="H257" s="19" t="s">
+      <c r="H257" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53548,7 +53545,7 @@
       <c r="G258" s="9" t="s">
         <v>4239</v>
       </c>
-      <c r="H258" s="19" t="s">
+      <c r="H258" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53574,7 +53571,7 @@
       <c r="G259" s="9" t="s">
         <v>4242</v>
       </c>
-      <c r="H259" s="19" t="s">
+      <c r="H259" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53600,7 +53597,7 @@
       <c r="G260" s="9" t="s">
         <v>4245</v>
       </c>
-      <c r="H260" s="19" t="s">
+      <c r="H260" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53626,7 +53623,7 @@
       <c r="G261" s="9" t="s">
         <v>4248</v>
       </c>
-      <c r="H261" s="19" t="s">
+      <c r="H261" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53652,7 +53649,7 @@
       <c r="G262" s="9" t="s">
         <v>4251</v>
       </c>
-      <c r="H262" s="19" t="s">
+      <c r="H262" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53678,7 +53675,7 @@
       <c r="G263" s="9" t="s">
         <v>4254</v>
       </c>
-      <c r="H263" s="19" t="s">
+      <c r="H263" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53704,7 +53701,7 @@
       <c r="G264" s="9" t="s">
         <v>4257</v>
       </c>
-      <c r="H264" s="19" t="s">
+      <c r="H264" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53730,7 +53727,7 @@
       <c r="G265" s="9" t="s">
         <v>4260</v>
       </c>
-      <c r="H265" s="19" t="s">
+      <c r="H265" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53756,7 +53753,7 @@
       <c r="G266" s="9" t="s">
         <v>4263</v>
       </c>
-      <c r="H266" s="19" t="s">
+      <c r="H266" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53782,7 +53779,7 @@
       <c r="G267" s="9" t="s">
         <v>4266</v>
       </c>
-      <c r="H267" s="19" t="s">
+      <c r="H267" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53808,7 +53805,7 @@
       <c r="G268" s="9" t="s">
         <v>4268</v>
       </c>
-      <c r="H268" s="19" t="s">
+      <c r="H268" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53834,7 +53831,7 @@
       <c r="G269" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H269" s="19" t="s">
+      <c r="H269" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53860,7 +53857,7 @@
       <c r="G270" s="9" t="s">
         <v>4272</v>
       </c>
-      <c r="H270" s="19" t="s">
+      <c r="H270" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53886,7 +53883,7 @@
       <c r="G271" s="9" t="s">
         <v>4275</v>
       </c>
-      <c r="H271" s="19" t="s">
+      <c r="H271" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53912,7 +53909,7 @@
       <c r="G272" s="9" t="s">
         <v>4278</v>
       </c>
-      <c r="H272" s="19" t="s">
+      <c r="H272" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53938,7 +53935,7 @@
       <c r="G273" s="9" t="s">
         <v>4281</v>
       </c>
-      <c r="H273" s="19" t="s">
+      <c r="H273" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53964,7 +53961,7 @@
       <c r="G274" s="9" t="s">
         <v>4284</v>
       </c>
-      <c r="H274" s="19" t="s">
+      <c r="H274" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -53990,7 +53987,7 @@
       <c r="G275" s="9" t="s">
         <v>4287</v>
       </c>
-      <c r="H275" s="19" t="s">
+      <c r="H275" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54016,7 +54013,7 @@
       <c r="G276" s="9" t="s">
         <v>4290</v>
       </c>
-      <c r="H276" s="19" t="s">
+      <c r="H276" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54042,7 +54039,7 @@
       <c r="G277" s="9" t="s">
         <v>4293</v>
       </c>
-      <c r="H277" s="19" t="s">
+      <c r="H277" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54068,7 +54065,7 @@
       <c r="G278" s="9" t="s">
         <v>4296</v>
       </c>
-      <c r="H278" s="19" t="s">
+      <c r="H278" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54094,7 +54091,7 @@
       <c r="G279" s="9" t="s">
         <v>4299</v>
       </c>
-      <c r="H279" s="19" t="s">
+      <c r="H279" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54120,7 +54117,7 @@
       <c r="G280" s="9" t="s">
         <v>4302</v>
       </c>
-      <c r="H280" s="19" t="s">
+      <c r="H280" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54146,7 +54143,7 @@
       <c r="G281" s="9" t="s">
         <v>4305</v>
       </c>
-      <c r="H281" s="19" t="s">
+      <c r="H281" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54172,7 +54169,7 @@
       <c r="G282" s="9" t="s">
         <v>4308</v>
       </c>
-      <c r="H282" s="19" t="s">
+      <c r="H282" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54198,7 +54195,7 @@
       <c r="G283" s="9" t="s">
         <v>4311</v>
       </c>
-      <c r="H283" s="19" t="s">
+      <c r="H283" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54224,7 +54221,7 @@
       <c r="G284" s="9" t="s">
         <v>4314</v>
       </c>
-      <c r="H284" s="19" t="s">
+      <c r="H284" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54250,7 +54247,7 @@
       <c r="G285" s="9" t="s">
         <v>4317</v>
       </c>
-      <c r="H285" s="19" t="s">
+      <c r="H285" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54276,7 +54273,7 @@
       <c r="G286" s="9" t="s">
         <v>4320</v>
       </c>
-      <c r="H286" s="19" t="s">
+      <c r="H286" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54302,7 +54299,7 @@
       <c r="G287" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H287" s="19" t="s">
+      <c r="H287" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54328,7 +54325,7 @@
       <c r="G288" s="9" t="s">
         <v>4324</v>
       </c>
-      <c r="H288" s="19" t="s">
+      <c r="H288" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54354,7 +54351,7 @@
       <c r="G289" s="9" t="s">
         <v>4327</v>
       </c>
-      <c r="H289" s="19" t="s">
+      <c r="H289" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54380,7 +54377,7 @@
       <c r="G290" s="9" t="s">
         <v>4330</v>
       </c>
-      <c r="H290" s="19" t="s">
+      <c r="H290" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54406,7 +54403,7 @@
       <c r="G291" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H291" s="19" t="s">
+      <c r="H291" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54432,7 +54429,7 @@
       <c r="G292" s="9" t="s">
         <v>4334</v>
       </c>
-      <c r="H292" s="19" t="s">
+      <c r="H292" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54458,7 +54455,7 @@
       <c r="G293" s="9" t="s">
         <v>4337</v>
       </c>
-      <c r="H293" s="19" t="s">
+      <c r="H293" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54484,7 +54481,7 @@
       <c r="G294" s="9" t="s">
         <v>4340</v>
       </c>
-      <c r="H294" s="19" t="s">
+      <c r="H294" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54510,7 +54507,7 @@
       <c r="G295" s="9" t="s">
         <v>4343</v>
       </c>
-      <c r="H295" s="19" t="s">
+      <c r="H295" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54536,7 +54533,7 @@
       <c r="G296" s="9" t="s">
         <v>4346</v>
       </c>
-      <c r="H296" s="19" t="s">
+      <c r="H296" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54562,7 +54559,7 @@
       <c r="G297" s="9" t="s">
         <v>4349</v>
       </c>
-      <c r="H297" s="19" t="s">
+      <c r="H297" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54588,7 +54585,7 @@
       <c r="G298" s="9" t="s">
         <v>4352</v>
       </c>
-      <c r="H298" s="19" t="s">
+      <c r="H298" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54614,7 +54611,7 @@
       <c r="G299" s="9" t="s">
         <v>2953</v>
       </c>
-      <c r="H299" s="19" t="s">
+      <c r="H299" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54640,7 +54637,7 @@
       <c r="G300" s="9" t="s">
         <v>4356</v>
       </c>
-      <c r="H300" s="19" t="s">
+      <c r="H300" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54666,7 +54663,7 @@
       <c r="G301" s="9" t="s">
         <v>4359</v>
       </c>
-      <c r="H301" s="19" t="s">
+      <c r="H301" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54692,7 +54689,7 @@
       <c r="G302" s="9" t="s">
         <v>4362</v>
       </c>
-      <c r="H302" s="19" t="s">
+      <c r="H302" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54718,7 +54715,7 @@
       <c r="G303" s="9" t="s">
         <v>4365</v>
       </c>
-      <c r="H303" s="19" t="s">
+      <c r="H303" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54744,7 +54741,7 @@
       <c r="G304" s="9" t="s">
         <v>4368</v>
       </c>
-      <c r="H304" s="19" t="s">
+      <c r="H304" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54770,7 +54767,7 @@
       <c r="G305" s="9" t="s">
         <v>4371</v>
       </c>
-      <c r="H305" s="19" t="s">
+      <c r="H305" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54796,7 +54793,7 @@
       <c r="G306" s="9" t="s">
         <v>4374</v>
       </c>
-      <c r="H306" s="19" t="s">
+      <c r="H306" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54822,7 +54819,7 @@
       <c r="G307" s="9" t="s">
         <v>4377</v>
       </c>
-      <c r="H307" s="19" t="s">
+      <c r="H307" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54848,7 +54845,7 @@
       <c r="G308" s="9" t="s">
         <v>4380</v>
       </c>
-      <c r="H308" s="19" t="s">
+      <c r="H308" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54874,7 +54871,7 @@
       <c r="G309" s="9" t="s">
         <v>4383</v>
       </c>
-      <c r="H309" s="19" t="s">
+      <c r="H309" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54900,7 +54897,7 @@
       <c r="G310" s="9" t="s">
         <v>4386</v>
       </c>
-      <c r="H310" s="19" t="s">
+      <c r="H310" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54926,7 +54923,7 @@
       <c r="G311" s="9" t="s">
         <v>4389</v>
       </c>
-      <c r="H311" s="19" t="s">
+      <c r="H311" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54952,7 +54949,7 @@
       <c r="G312" s="9" t="s">
         <v>4392</v>
       </c>
-      <c r="H312" s="19" t="s">
+      <c r="H312" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -54978,7 +54975,7 @@
       <c r="G313" s="9" t="s">
         <v>4395</v>
       </c>
-      <c r="H313" s="19" t="s">
+      <c r="H313" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55004,7 +55001,7 @@
       <c r="G314" s="9" t="s">
         <v>4398</v>
       </c>
-      <c r="H314" s="19" t="s">
+      <c r="H314" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55030,7 +55027,7 @@
       <c r="G315" s="9" t="s">
         <v>4401</v>
       </c>
-      <c r="H315" s="19" t="s">
+      <c r="H315" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55056,7 +55053,7 @@
       <c r="G316" s="9" t="s">
         <v>4404</v>
       </c>
-      <c r="H316" s="19" t="s">
+      <c r="H316" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55082,7 +55079,7 @@
       <c r="G317" s="9" t="s">
         <v>4407</v>
       </c>
-      <c r="H317" s="19" t="s">
+      <c r="H317" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55108,7 +55105,7 @@
       <c r="G318" s="9" t="s">
         <v>4410</v>
       </c>
-      <c r="H318" s="19" t="s">
+      <c r="H318" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55134,7 +55131,7 @@
       <c r="G319" s="9" t="s">
         <v>4413</v>
       </c>
-      <c r="H319" s="19" t="s">
+      <c r="H319" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55160,7 +55157,7 @@
       <c r="G320" s="9" t="s">
         <v>4416</v>
       </c>
-      <c r="H320" s="19" t="s">
+      <c r="H320" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55186,7 +55183,7 @@
       <c r="G321" s="9" t="s">
         <v>4419</v>
       </c>
-      <c r="H321" s="19" t="s">
+      <c r="H321" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55212,7 +55209,7 @@
       <c r="G322" s="9" t="s">
         <v>4422</v>
       </c>
-      <c r="H322" s="19" t="s">
+      <c r="H322" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55238,7 +55235,7 @@
       <c r="G323" s="9" t="s">
         <v>4425</v>
       </c>
-      <c r="H323" s="19" t="s">
+      <c r="H323" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55264,7 +55261,7 @@
       <c r="G324" s="9" t="s">
         <v>4428</v>
       </c>
-      <c r="H324" s="19" t="s">
+      <c r="H324" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55290,7 +55287,7 @@
       <c r="G325" s="9" t="s">
         <v>4431</v>
       </c>
-      <c r="H325" s="19" t="s">
+      <c r="H325" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55316,7 +55313,7 @@
       <c r="G326" s="9" t="s">
         <v>4434</v>
       </c>
-      <c r="H326" s="19" t="s">
+      <c r="H326" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55342,7 +55339,7 @@
       <c r="G327" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H327" s="19" t="s">
+      <c r="H327" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55368,7 +55365,7 @@
       <c r="G328" s="9" t="s">
         <v>4438</v>
       </c>
-      <c r="H328" s="19" t="s">
+      <c r="H328" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55394,7 +55391,7 @@
       <c r="G329" s="9" t="s">
         <v>3286</v>
       </c>
-      <c r="H329" s="19" t="s">
+      <c r="H329" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55420,7 +55417,7 @@
       <c r="G330" s="9" t="s">
         <v>4442</v>
       </c>
-      <c r="H330" s="19" t="s">
+      <c r="H330" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55446,7 +55443,7 @@
       <c r="G331" s="9" t="s">
         <v>4445</v>
       </c>
-      <c r="H331" s="19" t="s">
+      <c r="H331" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55472,7 +55469,7 @@
       <c r="G332" s="9" t="s">
         <v>4448</v>
       </c>
-      <c r="H332" s="19" t="s">
+      <c r="H332" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55498,7 +55495,7 @@
       <c r="G333" s="9" t="s">
         <v>4451</v>
       </c>
-      <c r="H333" s="19" t="s">
+      <c r="H333" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55524,7 +55521,7 @@
       <c r="G334" s="9" t="s">
         <v>4454</v>
       </c>
-      <c r="H334" s="19" t="s">
+      <c r="H334" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55550,7 +55547,7 @@
       <c r="G335" s="9" t="s">
         <v>4457</v>
       </c>
-      <c r="H335" s="19" t="s">
+      <c r="H335" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55576,7 +55573,7 @@
       <c r="G336" s="9" t="s">
         <v>4460</v>
       </c>
-      <c r="H336" s="19" t="s">
+      <c r="H336" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55602,7 +55599,7 @@
       <c r="G337" s="9" t="s">
         <v>4463</v>
       </c>
-      <c r="H337" s="19" t="s">
+      <c r="H337" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55628,7 +55625,7 @@
       <c r="G338" s="9" t="s">
         <v>4465</v>
       </c>
-      <c r="H338" s="19" t="s">
+      <c r="H338" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55654,7 +55651,7 @@
       <c r="G339" s="9" t="s">
         <v>4468</v>
       </c>
-      <c r="H339" s="19" t="s">
+      <c r="H339" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55680,7 +55677,7 @@
       <c r="G340" s="9" t="s">
         <v>4471</v>
       </c>
-      <c r="H340" s="19" t="s">
+      <c r="H340" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55706,7 +55703,7 @@
       <c r="G341" s="9" t="s">
         <v>4474</v>
       </c>
-      <c r="H341" s="19" t="s">
+      <c r="H341" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55732,7 +55729,7 @@
       <c r="G342" s="9" t="s">
         <v>4477</v>
       </c>
-      <c r="H342" s="19" t="s">
+      <c r="H342" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55758,7 +55755,7 @@
       <c r="G343" s="9" t="s">
         <v>4480</v>
       </c>
-      <c r="H343" s="19" t="s">
+      <c r="H343" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55784,7 +55781,7 @@
       <c r="G344" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="H344" s="19" t="s">
+      <c r="H344" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55810,7 +55807,7 @@
       <c r="G345" s="9" t="s">
         <v>4485</v>
       </c>
-      <c r="H345" s="19" t="s">
+      <c r="H345" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55836,7 +55833,7 @@
       <c r="G346" s="9" t="s">
         <v>4488</v>
       </c>
-      <c r="H346" s="19" t="s">
+      <c r="H346" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55862,7 +55859,7 @@
       <c r="G347" s="9" t="s">
         <v>2490</v>
       </c>
-      <c r="H347" s="19" t="s">
+      <c r="H347" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55888,7 +55885,7 @@
       <c r="G348" s="9" t="s">
         <v>2830</v>
       </c>
-      <c r="H348" s="19" t="s">
+      <c r="H348" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55914,7 +55911,7 @@
       <c r="G349" s="9" t="s">
         <v>4493</v>
       </c>
-      <c r="H349" s="19" t="s">
+      <c r="H349" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55940,7 +55937,7 @@
       <c r="G350" s="9" t="s">
         <v>4496</v>
       </c>
-      <c r="H350" s="19" t="s">
+      <c r="H350" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55966,7 +55963,7 @@
       <c r="G351" s="9" t="s">
         <v>4499</v>
       </c>
-      <c r="H351" s="19" t="s">
+      <c r="H351" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -55992,7 +55989,7 @@
       <c r="G352" s="9" t="s">
         <v>4000</v>
       </c>
-      <c r="H352" s="19" t="s">
+      <c r="H352" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56018,7 +56015,7 @@
       <c r="G353" s="9" t="s">
         <v>4503</v>
       </c>
-      <c r="H353" s="19" t="s">
+      <c r="H353" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56044,7 +56041,7 @@
       <c r="G354" s="9" t="s">
         <v>4506</v>
       </c>
-      <c r="H354" s="19" t="s">
+      <c r="H354" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56070,7 +56067,7 @@
       <c r="G355" s="9" t="s">
         <v>4509</v>
       </c>
-      <c r="H355" s="19" t="s">
+      <c r="H355" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56096,7 +56093,7 @@
       <c r="G356" s="9" t="s">
         <v>4512</v>
       </c>
-      <c r="H356" s="19" t="s">
+      <c r="H356" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56122,7 +56119,7 @@
       <c r="G357" s="9" t="s">
         <v>4515</v>
       </c>
-      <c r="H357" s="19" t="s">
+      <c r="H357" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56148,7 +56145,7 @@
       <c r="G358" s="9" t="s">
         <v>4518</v>
       </c>
-      <c r="H358" s="19" t="s">
+      <c r="H358" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56174,7 +56171,7 @@
       <c r="G359" s="9" t="s">
         <v>4521</v>
       </c>
-      <c r="H359" s="19" t="s">
+      <c r="H359" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56200,7 +56197,7 @@
       <c r="G360" s="9" t="s">
         <v>4463</v>
       </c>
-      <c r="H360" s="19" t="s">
+      <c r="H360" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56226,7 +56223,7 @@
       <c r="G361" s="9" t="s">
         <v>4526</v>
       </c>
-      <c r="H361" s="19" t="s">
+      <c r="H361" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56252,7 +56249,7 @@
       <c r="G362" s="9" t="s">
         <v>2571</v>
       </c>
-      <c r="H362" s="19" t="s">
+      <c r="H362" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56278,7 +56275,7 @@
       <c r="G363" s="9" t="s">
         <v>4531</v>
       </c>
-      <c r="H363" s="19" t="s">
+      <c r="H363" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56304,7 +56301,7 @@
       <c r="G364" s="9" t="s">
         <v>4465</v>
       </c>
-      <c r="H364" s="19" t="s">
+      <c r="H364" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56330,7 +56327,7 @@
       <c r="G365" s="9" t="s">
         <v>4535</v>
       </c>
-      <c r="H365" s="19" t="s">
+      <c r="H365" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56356,7 +56353,7 @@
       <c r="G366" s="9" t="s">
         <v>4538</v>
       </c>
-      <c r="H366" s="19" t="s">
+      <c r="H366" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56382,7 +56379,7 @@
       <c r="G367" s="9" t="s">
         <v>4541</v>
       </c>
-      <c r="H367" s="19" t="s">
+      <c r="H367" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56408,7 +56405,7 @@
       <c r="G368" s="9" t="s">
         <v>4544</v>
       </c>
-      <c r="H368" s="19" t="s">
+      <c r="H368" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56434,7 +56431,7 @@
       <c r="G369" s="9" t="s">
         <v>4547</v>
       </c>
-      <c r="H369" s="19" t="s">
+      <c r="H369" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56460,7 +56457,7 @@
       <c r="G370" s="9" t="s">
         <v>4550</v>
       </c>
-      <c r="H370" s="19" t="s">
+      <c r="H370" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56486,7 +56483,7 @@
       <c r="G371" s="9" t="s">
         <v>4553</v>
       </c>
-      <c r="H371" s="19" t="s">
+      <c r="H371" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56512,7 +56509,7 @@
       <c r="G372" s="9" t="s">
         <v>4556</v>
       </c>
-      <c r="H372" s="19" t="s">
+      <c r="H372" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56538,7 +56535,7 @@
       <c r="G373" s="9" t="s">
         <v>4559</v>
       </c>
-      <c r="H373" s="19" t="s">
+      <c r="H373" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56564,7 +56561,7 @@
       <c r="G374" s="9" t="s">
         <v>4562</v>
       </c>
-      <c r="H374" s="19" t="s">
+      <c r="H374" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56590,7 +56587,7 @@
       <c r="G375" s="9" t="s">
         <v>4565</v>
       </c>
-      <c r="H375" s="19" t="s">
+      <c r="H375" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56616,7 +56613,7 @@
       <c r="G376" s="9" t="s">
         <v>4568</v>
       </c>
-      <c r="H376" s="19" t="s">
+      <c r="H376" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56642,7 +56639,7 @@
       <c r="G377" s="9" t="s">
         <v>4571</v>
       </c>
-      <c r="H377" s="19" t="s">
+      <c r="H377" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56668,7 +56665,7 @@
       <c r="G378" s="9" t="s">
         <v>4574</v>
       </c>
-      <c r="H378" s="19" t="s">
+      <c r="H378" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56694,7 +56691,7 @@
       <c r="G379" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H379" s="19" t="s">
+      <c r="H379" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56720,7 +56717,7 @@
       <c r="G380" s="9" t="s">
         <v>4578</v>
       </c>
-      <c r="H380" s="19" t="s">
+      <c r="H380" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56746,7 +56743,7 @@
       <c r="G381" s="9" t="s">
         <v>2599</v>
       </c>
-      <c r="H381" s="19" t="s">
+      <c r="H381" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56772,7 +56769,7 @@
       <c r="G382" s="9" t="s">
         <v>4582</v>
       </c>
-      <c r="H382" s="19" t="s">
+      <c r="H382" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56798,7 +56795,7 @@
       <c r="G383" s="9" t="s">
         <v>4585</v>
       </c>
-      <c r="H383" s="19" t="s">
+      <c r="H383" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56824,7 +56821,7 @@
       <c r="G384" s="9" t="s">
         <v>4588</v>
       </c>
-      <c r="H384" s="19" t="s">
+      <c r="H384" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56850,7 +56847,7 @@
       <c r="G385" s="9" t="s">
         <v>2599</v>
       </c>
-      <c r="H385" s="19" t="s">
+      <c r="H385" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56876,7 +56873,7 @@
       <c r="G386" s="9" t="s">
         <v>4592</v>
       </c>
-      <c r="H386" s="19" t="s">
+      <c r="H386" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56902,7 +56899,7 @@
       <c r="G387" s="9" t="s">
         <v>2910</v>
       </c>
-      <c r="H387" s="19" t="s">
+      <c r="H387" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56928,7 +56925,7 @@
       <c r="G388" s="9" t="s">
         <v>4596</v>
       </c>
-      <c r="H388" s="19" t="s">
+      <c r="H388" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56954,7 +56951,7 @@
       <c r="G389" s="9" t="s">
         <v>4599</v>
       </c>
-      <c r="H389" s="19" t="s">
+      <c r="H389" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -56980,7 +56977,7 @@
       <c r="G390" s="9" t="s">
         <v>2937</v>
       </c>
-      <c r="H390" s="19" t="s">
+      <c r="H390" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57006,7 +57003,7 @@
       <c r="G391" s="9" t="s">
         <v>4603</v>
       </c>
-      <c r="H391" s="19" t="s">
+      <c r="H391" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57032,7 +57029,7 @@
       <c r="G392" s="9" t="s">
         <v>4606</v>
       </c>
-      <c r="H392" s="19" t="s">
+      <c r="H392" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57058,7 +57055,7 @@
       <c r="G393" s="9" t="s">
         <v>4608</v>
       </c>
-      <c r="H393" s="19" t="s">
+      <c r="H393" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57084,7 +57081,7 @@
       <c r="G394" s="9" t="s">
         <v>4611</v>
       </c>
-      <c r="H394" s="19" t="s">
+      <c r="H394" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57110,7 +57107,7 @@
       <c r="G395" s="9" t="s">
         <v>4614</v>
       </c>
-      <c r="H395" s="19" t="s">
+      <c r="H395" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57136,7 +57133,7 @@
       <c r="G396" s="9" t="s">
         <v>4617</v>
       </c>
-      <c r="H396" s="19" t="s">
+      <c r="H396" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57162,7 +57159,7 @@
       <c r="G397" s="9" t="s">
         <v>4620</v>
       </c>
-      <c r="H397" s="19" t="s">
+      <c r="H397" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57188,7 +57185,7 @@
       <c r="G398" s="9" t="s">
         <v>2595</v>
       </c>
-      <c r="H398" s="19" t="s">
+      <c r="H398" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57214,7 +57211,7 @@
       <c r="G399" s="9" t="s">
         <v>4624</v>
       </c>
-      <c r="H399" s="19" t="s">
+      <c r="H399" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57240,7 +57237,7 @@
       <c r="G400" s="9" t="s">
         <v>4627</v>
       </c>
-      <c r="H400" s="19" t="s">
+      <c r="H400" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57266,7 +57263,7 @@
       <c r="G401" s="9" t="s">
         <v>4630</v>
       </c>
-      <c r="H401" s="19" t="s">
+      <c r="H401" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57292,7 +57289,7 @@
       <c r="G402" s="9" t="s">
         <v>4633</v>
       </c>
-      <c r="H402" s="19" t="s">
+      <c r="H402" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57318,7 +57315,7 @@
       <c r="G403" s="9" t="s">
         <v>4636</v>
       </c>
-      <c r="H403" s="19" t="s">
+      <c r="H403" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57344,7 +57341,7 @@
       <c r="G404" s="9" t="s">
         <v>4639</v>
       </c>
-      <c r="H404" s="19" t="s">
+      <c r="H404" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57370,7 +57367,7 @@
       <c r="G405" s="9" t="s">
         <v>4642</v>
       </c>
-      <c r="H405" s="19" t="s">
+      <c r="H405" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57396,7 +57393,7 @@
       <c r="G406" s="9" t="s">
         <v>4645</v>
       </c>
-      <c r="H406" s="19" t="s">
+      <c r="H406" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57422,7 +57419,7 @@
       <c r="G407" s="9" t="s">
         <v>4648</v>
       </c>
-      <c r="H407" s="19" t="s">
+      <c r="H407" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57448,7 +57445,7 @@
       <c r="G408" s="9" t="s">
         <v>4651</v>
       </c>
-      <c r="H408" s="19" t="s">
+      <c r="H408" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57474,7 +57471,7 @@
       <c r="G409" s="9" t="s">
         <v>4654</v>
       </c>
-      <c r="H409" s="19" t="s">
+      <c r="H409" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57500,7 +57497,7 @@
       <c r="G410" s="9" t="s">
         <v>4657</v>
       </c>
-      <c r="H410" s="19" t="s">
+      <c r="H410" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57526,7 +57523,7 @@
       <c r="G411" s="9" t="s">
         <v>4660</v>
       </c>
-      <c r="H411" s="19" t="s">
+      <c r="H411" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57552,7 +57549,7 @@
       <c r="G412" s="9" t="s">
         <v>4663</v>
       </c>
-      <c r="H412" s="19" t="s">
+      <c r="H412" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57578,7 +57575,7 @@
       <c r="G413" s="9" t="s">
         <v>4667</v>
       </c>
-      <c r="H413" s="19" t="s">
+      <c r="H413" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57604,7 +57601,7 @@
       <c r="G414" s="9" t="s">
         <v>4670</v>
       </c>
-      <c r="H414" s="19" t="s">
+      <c r="H414" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57630,7 +57627,7 @@
       <c r="G415" s="9" t="s">
         <v>4673</v>
       </c>
-      <c r="H415" s="19" t="s">
+      <c r="H415" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57656,7 +57653,7 @@
       <c r="G416" s="9" t="s">
         <v>4676</v>
       </c>
-      <c r="H416" s="19" t="s">
+      <c r="H416" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57682,7 +57679,7 @@
       <c r="G417" s="9" t="s">
         <v>4678</v>
       </c>
-      <c r="H417" s="19" t="s">
+      <c r="H417" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57708,7 +57705,7 @@
       <c r="G418" s="9" t="s">
         <v>4681</v>
       </c>
-      <c r="H418" s="19" t="s">
+      <c r="H418" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57734,7 +57731,7 @@
       <c r="G419" s="9" t="s">
         <v>4684</v>
       </c>
-      <c r="H419" s="19" t="s">
+      <c r="H419" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57760,7 +57757,7 @@
       <c r="G420" s="9" t="s">
         <v>2490</v>
       </c>
-      <c r="H420" s="19" t="s">
+      <c r="H420" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57786,7 +57783,7 @@
       <c r="G421" s="9" t="s">
         <v>4688</v>
       </c>
-      <c r="H421" s="19" t="s">
+      <c r="H421" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57812,7 +57809,7 @@
       <c r="G422" s="9" t="s">
         <v>4691</v>
       </c>
-      <c r="H422" s="19" t="s">
+      <c r="H422" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57838,7 +57835,7 @@
       <c r="G423" s="9" t="s">
         <v>4694</v>
       </c>
-      <c r="H423" s="19" t="s">
+      <c r="H423" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57864,7 +57861,7 @@
       <c r="G424" s="9" t="s">
         <v>4697</v>
       </c>
-      <c r="H424" s="19" t="s">
+      <c r="H424" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57890,7 +57887,7 @@
       <c r="G425" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H425" s="19" t="s">
+      <c r="H425" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57916,7 +57913,7 @@
       <c r="G426" s="9" t="s">
         <v>4701</v>
       </c>
-      <c r="H426" s="19" t="s">
+      <c r="H426" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57942,7 +57939,7 @@
       <c r="G427" s="9" t="s">
         <v>4703</v>
       </c>
-      <c r="H427" s="19" t="s">
+      <c r="H427" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57968,7 +57965,7 @@
       <c r="G428" s="9" t="s">
         <v>4706</v>
       </c>
-      <c r="H428" s="19" t="s">
+      <c r="H428" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -57994,7 +57991,7 @@
       <c r="G429" s="9" t="s">
         <v>4709</v>
       </c>
-      <c r="H429" s="19" t="s">
+      <c r="H429" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58020,7 +58017,7 @@
       <c r="G430" s="9" t="s">
         <v>4712</v>
       </c>
-      <c r="H430" s="19" t="s">
+      <c r="H430" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58046,7 +58043,7 @@
       <c r="G431" s="9" t="s">
         <v>4715</v>
       </c>
-      <c r="H431" s="19" t="s">
+      <c r="H431" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58072,7 +58069,7 @@
       <c r="G432" s="9" t="s">
         <v>4718</v>
       </c>
-      <c r="H432" s="19" t="s">
+      <c r="H432" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58098,7 +58095,7 @@
       <c r="G433" s="9" t="s">
         <v>4721</v>
       </c>
-      <c r="H433" s="19" t="s">
+      <c r="H433" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58124,7 +58121,7 @@
       <c r="G434" s="9" t="s">
         <v>4724</v>
       </c>
-      <c r="H434" s="19" t="s">
+      <c r="H434" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58150,7 +58147,7 @@
       <c r="G435" s="9" t="s">
         <v>4727</v>
       </c>
-      <c r="H435" s="19" t="s">
+      <c r="H435" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58176,7 +58173,7 @@
       <c r="G436" s="9" t="s">
         <v>4730</v>
       </c>
-      <c r="H436" s="19" t="s">
+      <c r="H436" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58202,7 +58199,7 @@
       <c r="G437" s="9" t="s">
         <v>4733</v>
       </c>
-      <c r="H437" s="19" t="s">
+      <c r="H437" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58228,7 +58225,7 @@
       <c r="G438" s="9" t="s">
         <v>4736</v>
       </c>
-      <c r="H438" s="19" t="s">
+      <c r="H438" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58254,7 +58251,7 @@
       <c r="G439" s="9" t="s">
         <v>4739</v>
       </c>
-      <c r="H439" s="19" t="s">
+      <c r="H439" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58280,7 +58277,7 @@
       <c r="G440" s="9" t="s">
         <v>4742</v>
       </c>
-      <c r="H440" s="19" t="s">
+      <c r="H440" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58306,7 +58303,7 @@
       <c r="G441" s="9" t="s">
         <v>4745</v>
       </c>
-      <c r="H441" s="19" t="s">
+      <c r="H441" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58332,7 +58329,7 @@
       <c r="G442" s="9" t="s">
         <v>4748</v>
       </c>
-      <c r="H442" s="19" t="s">
+      <c r="H442" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58358,7 +58355,7 @@
       <c r="G443" s="9" t="s">
         <v>4751</v>
       </c>
-      <c r="H443" s="19" t="s">
+      <c r="H443" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58384,7 +58381,7 @@
       <c r="G444" s="9" t="s">
         <v>3822</v>
       </c>
-      <c r="H444" s="19" t="s">
+      <c r="H444" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58410,7 +58407,7 @@
       <c r="G445" s="9" t="s">
         <v>4755</v>
       </c>
-      <c r="H445" s="19" t="s">
+      <c r="H445" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58436,7 +58433,7 @@
       <c r="G446" s="9" t="s">
         <v>4263</v>
       </c>
-      <c r="H446" s="19" t="s">
+      <c r="H446" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58462,7 +58459,7 @@
       <c r="G447" s="9" t="s">
         <v>4760</v>
       </c>
-      <c r="H447" s="19" t="s">
+      <c r="H447" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58488,7 +58485,7 @@
       <c r="G448" s="9" t="s">
         <v>4763</v>
       </c>
-      <c r="H448" s="19" t="s">
+      <c r="H448" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58514,7 +58511,7 @@
       <c r="G449" s="9" t="s">
         <v>4766</v>
       </c>
-      <c r="H449" s="19" t="s">
+      <c r="H449" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58540,7 +58537,7 @@
       <c r="G450" s="9" t="s">
         <v>4769</v>
       </c>
-      <c r="H450" s="19" t="s">
+      <c r="H450" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58566,7 +58563,7 @@
       <c r="G451" s="9" t="s">
         <v>4772</v>
       </c>
-      <c r="H451" s="19" t="s">
+      <c r="H451" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58592,7 +58589,7 @@
       <c r="G452" s="9" t="s">
         <v>4775</v>
       </c>
-      <c r="H452" s="19" t="s">
+      <c r="H452" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58618,7 +58615,7 @@
       <c r="G453" s="9" t="s">
         <v>4778</v>
       </c>
-      <c r="H453" s="19" t="s">
+      <c r="H453" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58644,7 +58641,7 @@
       <c r="G454" s="9" t="s">
         <v>3822</v>
       </c>
-      <c r="H454" s="19" t="s">
+      <c r="H454" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58670,7 +58667,7 @@
       <c r="G455" s="9" t="s">
         <v>4782</v>
       </c>
-      <c r="H455" s="19" t="s">
+      <c r="H455" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58696,7 +58693,7 @@
       <c r="G456" s="9" t="s">
         <v>4766</v>
       </c>
-      <c r="H456" s="19" t="s">
+      <c r="H456" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58722,7 +58719,7 @@
       <c r="G457" s="9" t="s">
         <v>4769</v>
       </c>
-      <c r="H457" s="19" t="s">
+      <c r="H457" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58748,7 +58745,7 @@
       <c r="G458" s="9" t="s">
         <v>4787</v>
       </c>
-      <c r="H458" s="19" t="s">
+      <c r="H458" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58774,7 +58771,7 @@
       <c r="G459" s="9" t="s">
         <v>4775</v>
       </c>
-      <c r="H459" s="19" t="s">
+      <c r="H459" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58800,7 +58797,7 @@
       <c r="G460" s="9" t="s">
         <v>4791</v>
       </c>
-      <c r="H460" s="19" t="s">
+      <c r="H460" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58826,7 +58823,7 @@
       <c r="G461" s="9" t="s">
         <v>4794</v>
       </c>
-      <c r="H461" s="19" t="s">
+      <c r="H461" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58852,7 +58849,7 @@
       <c r="G462" s="9" t="s">
         <v>4769</v>
       </c>
-      <c r="H462" s="19" t="s">
+      <c r="H462" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58878,7 +58875,7 @@
       <c r="G463" s="9" t="s">
         <v>4798</v>
       </c>
-      <c r="H463" s="19" t="s">
+      <c r="H463" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58904,7 +58901,7 @@
       <c r="G464" s="9" t="s">
         <v>4801</v>
       </c>
-      <c r="H464" s="19" t="s">
+      <c r="H464" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58930,7 +58927,7 @@
       <c r="G465" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H465" s="19" t="s">
+      <c r="H465" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58956,7 +58953,7 @@
       <c r="G466" s="9" t="s">
         <v>4805</v>
       </c>
-      <c r="H466" s="19" t="s">
+      <c r="H466" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -58982,7 +58979,7 @@
       <c r="G467" s="9" t="s">
         <v>4808</v>
       </c>
-      <c r="H467" s="19" t="s">
+      <c r="H467" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59008,7 +59005,7 @@
       <c r="G468" s="9" t="s">
         <v>4811</v>
       </c>
-      <c r="H468" s="19" t="s">
+      <c r="H468" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59034,7 +59031,7 @@
       <c r="G469" s="9" t="s">
         <v>4814</v>
       </c>
-      <c r="H469" s="19" t="s">
+      <c r="H469" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59060,7 +59057,7 @@
       <c r="G470" s="9" t="s">
         <v>4817</v>
       </c>
-      <c r="H470" s="19" t="s">
+      <c r="H470" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59086,7 +59083,7 @@
       <c r="G471" s="9" t="s">
         <v>4820</v>
       </c>
-      <c r="H471" s="19" t="s">
+      <c r="H471" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59112,7 +59109,7 @@
       <c r="G472" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H472" s="19" t="s">
+      <c r="H472" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59138,7 +59135,7 @@
       <c r="G473" s="9" t="s">
         <v>4824</v>
       </c>
-      <c r="H473" s="19" t="s">
+      <c r="H473" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59164,7 +59161,7 @@
       <c r="G474" s="9" t="s">
         <v>4827</v>
       </c>
-      <c r="H474" s="19" t="s">
+      <c r="H474" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59190,7 +59187,7 @@
       <c r="G475" s="9" t="s">
         <v>4830</v>
       </c>
-      <c r="H475" s="19" t="s">
+      <c r="H475" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59216,7 +59213,7 @@
       <c r="G476" s="9" t="s">
         <v>4833</v>
       </c>
-      <c r="H476" s="19" t="s">
+      <c r="H476" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59242,7 +59239,7 @@
       <c r="G477" s="9" t="s">
         <v>4836</v>
       </c>
-      <c r="H477" s="19" t="s">
+      <c r="H477" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59268,7 +59265,7 @@
       <c r="G478" s="9" t="s">
         <v>4839</v>
       </c>
-      <c r="H478" s="19" t="s">
+      <c r="H478" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59294,7 +59291,7 @@
       <c r="G479" s="9" t="s">
         <v>4842</v>
       </c>
-      <c r="H479" s="19" t="s">
+      <c r="H479" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59320,7 +59317,7 @@
       <c r="G480" s="9" t="s">
         <v>4845</v>
       </c>
-      <c r="H480" s="19" t="s">
+      <c r="H480" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59346,7 +59343,7 @@
       <c r="G481" s="9" t="s">
         <v>4848</v>
       </c>
-      <c r="H481" s="19" t="s">
+      <c r="H481" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59372,7 +59369,7 @@
       <c r="G482" s="9" t="s">
         <v>4851</v>
       </c>
-      <c r="H482" s="19" t="s">
+      <c r="H482" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59398,7 +59395,7 @@
       <c r="G483" s="9" t="s">
         <v>4854</v>
       </c>
-      <c r="H483" s="19" t="s">
+      <c r="H483" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59424,7 +59421,7 @@
       <c r="G484" s="9" t="s">
         <v>4857</v>
       </c>
-      <c r="H484" s="19" t="s">
+      <c r="H484" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59450,7 +59447,7 @@
       <c r="G485" s="9" t="s">
         <v>4860</v>
       </c>
-      <c r="H485" s="19" t="s">
+      <c r="H485" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59476,7 +59473,7 @@
       <c r="G486" s="9" t="s">
         <v>4863</v>
       </c>
-      <c r="H486" s="19" t="s">
+      <c r="H486" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59502,7 +59499,7 @@
       <c r="G487" s="9" t="s">
         <v>4866</v>
       </c>
-      <c r="H487" s="19" t="s">
+      <c r="H487" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59528,7 +59525,7 @@
       <c r="G488" s="9" t="s">
         <v>4869</v>
       </c>
-      <c r="H488" s="19" t="s">
+      <c r="H488" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59554,7 +59551,7 @@
       <c r="G489" s="9" t="s">
         <v>4872</v>
       </c>
-      <c r="H489" s="19" t="s">
+      <c r="H489" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59580,7 +59577,7 @@
       <c r="G490" s="9" t="s">
         <v>4875</v>
       </c>
-      <c r="H490" s="19" t="s">
+      <c r="H490" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59606,7 +59603,7 @@
       <c r="G491" s="9" t="s">
         <v>4878</v>
       </c>
-      <c r="H491" s="19" t="s">
+      <c r="H491" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59632,7 +59629,7 @@
       <c r="G492" s="9" t="s">
         <v>4881</v>
       </c>
-      <c r="H492" s="19" t="s">
+      <c r="H492" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59658,7 +59655,7 @@
       <c r="G493" s="9" t="s">
         <v>4884</v>
       </c>
-      <c r="H493" s="19" t="s">
+      <c r="H493" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59684,7 +59681,7 @@
       <c r="G494" s="9" t="s">
         <v>4887</v>
       </c>
-      <c r="H494" s="19" t="s">
+      <c r="H494" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59710,7 +59707,7 @@
       <c r="G495" s="9" t="s">
         <v>4890</v>
       </c>
-      <c r="H495" s="19" t="s">
+      <c r="H495" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59736,7 +59733,7 @@
       <c r="G496" s="9" t="s">
         <v>4893</v>
       </c>
-      <c r="H496" s="19" t="s">
+      <c r="H496" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59762,7 +59759,7 @@
       <c r="G497" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H497" s="19" t="s">
+      <c r="H497" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59788,7 +59785,7 @@
       <c r="G498" s="9" t="s">
         <v>4897</v>
       </c>
-      <c r="H498" s="19" t="s">
+      <c r="H498" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59814,7 +59811,7 @@
       <c r="G499" s="9" t="s">
         <v>4900</v>
       </c>
-      <c r="H499" s="19" t="s">
+      <c r="H499" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59840,7 +59837,7 @@
       <c r="G500" s="9" t="s">
         <v>4903</v>
       </c>
-      <c r="H500" s="19" t="s">
+      <c r="H500" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59866,7 +59863,7 @@
       <c r="G501" s="9" t="s">
         <v>4906</v>
       </c>
-      <c r="H501" s="19" t="s">
+      <c r="H501" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59892,7 +59889,7 @@
       <c r="G502" s="9" t="s">
         <v>4909</v>
       </c>
-      <c r="H502" s="19" t="s">
+      <c r="H502" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59918,7 +59915,7 @@
       <c r="G503" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H503" s="19" t="s">
+      <c r="H503" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59944,7 +59941,7 @@
       <c r="G504" s="9" t="s">
         <v>4913</v>
       </c>
-      <c r="H504" s="19" t="s">
+      <c r="H504" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59970,7 +59967,7 @@
       <c r="G505" s="9" t="s">
         <v>4916</v>
       </c>
-      <c r="H505" s="19" t="s">
+      <c r="H505" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -59996,7 +59993,7 @@
       <c r="G506" s="9" t="s">
         <v>4919</v>
       </c>
-      <c r="H506" s="19" t="s">
+      <c r="H506" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60022,7 +60019,7 @@
       <c r="G507" s="9" t="s">
         <v>4922</v>
       </c>
-      <c r="H507" s="19" t="s">
+      <c r="H507" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60048,7 +60045,7 @@
       <c r="G508" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H508" s="19" t="s">
+      <c r="H508" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60074,7 +60071,7 @@
       <c r="G509" s="9" t="s">
         <v>4926</v>
       </c>
-      <c r="H509" s="19" t="s">
+      <c r="H509" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60100,7 +60097,7 @@
       <c r="G510" s="9" t="s">
         <v>4929</v>
       </c>
-      <c r="H510" s="19" t="s">
+      <c r="H510" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60126,7 +60123,7 @@
       <c r="G511" s="9" t="s">
         <v>4932</v>
       </c>
-      <c r="H511" s="19" t="s">
+      <c r="H511" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60152,7 +60149,7 @@
       <c r="G512" s="9" t="s">
         <v>4935</v>
       </c>
-      <c r="H512" s="19" t="s">
+      <c r="H512" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60178,7 +60175,7 @@
       <c r="G513" s="9" t="s">
         <v>4938</v>
       </c>
-      <c r="H513" s="19" t="s">
+      <c r="H513" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60204,7 +60201,7 @@
       <c r="G514" s="9" t="s">
         <v>4941</v>
       </c>
-      <c r="H514" s="19" t="s">
+      <c r="H514" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60230,7 +60227,7 @@
       <c r="G515" s="9" t="s">
         <v>4944</v>
       </c>
-      <c r="H515" s="19" t="s">
+      <c r="H515" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60256,7 +60253,7 @@
       <c r="G516" s="9" t="s">
         <v>4947</v>
       </c>
-      <c r="H516" s="19" t="s">
+      <c r="H516" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60282,7 +60279,7 @@
       <c r="G517" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="H517" s="19" t="s">
+      <c r="H517" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60308,7 +60305,7 @@
       <c r="G518" s="9" t="s">
         <v>4951</v>
       </c>
-      <c r="H518" s="19" t="s">
+      <c r="H518" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60334,7 +60331,7 @@
       <c r="G519" s="9" t="s">
         <v>4954</v>
       </c>
-      <c r="H519" s="19" t="s">
+      <c r="H519" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60360,7 +60357,7 @@
       <c r="G520" s="9" t="s">
         <v>4957</v>
       </c>
-      <c r="H520" s="19" t="s">
+      <c r="H520" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60386,7 +60383,7 @@
       <c r="G521" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H521" s="19" t="s">
+      <c r="H521" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60412,7 +60409,7 @@
       <c r="G522" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="H522" s="19" t="s">
+      <c r="H522" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60438,7 +60435,7 @@
       <c r="G523" s="9" t="s">
         <v>4962</v>
       </c>
-      <c r="H523" s="19" t="s">
+      <c r="H523" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60464,7 +60461,7 @@
       <c r="G524" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H524" s="19" t="s">
+      <c r="H524" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60490,7 +60487,7 @@
       <c r="G525" s="9" t="s">
         <v>4966</v>
       </c>
-      <c r="H525" s="19" t="s">
+      <c r="H525" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60516,7 +60513,7 @@
       <c r="G526" s="9" t="s">
         <v>4969</v>
       </c>
-      <c r="H526" s="19" t="s">
+      <c r="H526" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60542,7 +60539,7 @@
       <c r="G527" s="9" t="s">
         <v>4972</v>
       </c>
-      <c r="H527" s="19" t="s">
+      <c r="H527" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60568,7 +60565,7 @@
       <c r="G528" s="9" t="s">
         <v>4975</v>
       </c>
-      <c r="H528" s="19" t="s">
+      <c r="H528" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60594,7 +60591,7 @@
       <c r="G529" s="9" t="s">
         <v>4979</v>
       </c>
-      <c r="H529" s="19" t="s">
+      <c r="H529" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60620,7 +60617,7 @@
       <c r="G530" s="9" t="s">
         <v>4982</v>
       </c>
-      <c r="H530" s="19" t="s">
+      <c r="H530" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60646,7 +60643,7 @@
       <c r="G531" s="9" t="s">
         <v>4985</v>
       </c>
-      <c r="H531" s="19" t="s">
+      <c r="H531" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60672,7 +60669,7 @@
       <c r="G532" s="9" t="s">
         <v>4988</v>
       </c>
-      <c r="H532" s="19" t="s">
+      <c r="H532" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60698,7 +60695,7 @@
       <c r="G533" s="9" t="s">
         <v>4991</v>
       </c>
-      <c r="H533" s="19" t="s">
+      <c r="H533" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60724,7 +60721,7 @@
       <c r="G534" s="9" t="s">
         <v>4994</v>
       </c>
-      <c r="H534" s="19" t="s">
+      <c r="H534" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60750,7 +60747,7 @@
       <c r="G535" s="9" t="s">
         <v>4998</v>
       </c>
-      <c r="H535" s="19" t="s">
+      <c r="H535" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60776,7 +60773,7 @@
       <c r="G536" s="9" t="s">
         <v>4808</v>
       </c>
-      <c r="H536" s="19" t="s">
+      <c r="H536" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60802,7 +60799,7 @@
       <c r="G537" s="9" t="s">
         <v>4811</v>
       </c>
-      <c r="H537" s="19" t="s">
+      <c r="H537" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60828,7 +60825,7 @@
       <c r="G538" s="9" t="s">
         <v>4814</v>
       </c>
-      <c r="H538" s="19" t="s">
+      <c r="H538" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60854,7 +60851,7 @@
       <c r="G539" s="9" t="s">
         <v>4817</v>
       </c>
-      <c r="H539" s="19" t="s">
+      <c r="H539" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60880,7 +60877,7 @@
       <c r="G540" s="9" t="s">
         <v>4820</v>
       </c>
-      <c r="H540" s="19" t="s">
+      <c r="H540" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60906,7 +60903,7 @@
       <c r="G541" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H541" s="19" t="s">
+      <c r="H541" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60932,7 +60929,7 @@
       <c r="G542" s="9" t="s">
         <v>5007</v>
       </c>
-      <c r="H542" s="19" t="s">
+      <c r="H542" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60958,7 +60955,7 @@
       <c r="G543" s="9" t="s">
         <v>5010</v>
       </c>
-      <c r="H543" s="19" t="s">
+      <c r="H543" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -60984,7 +60981,7 @@
       <c r="G544" s="9" t="s">
         <v>5013</v>
       </c>
-      <c r="H544" s="19" t="s">
+      <c r="H544" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61010,7 +61007,7 @@
       <c r="G545" s="9" t="s">
         <v>5016</v>
       </c>
-      <c r="H545" s="19" t="s">
+      <c r="H545" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61036,7 +61033,7 @@
       <c r="G546" s="9" t="s">
         <v>5019</v>
       </c>
-      <c r="H546" s="19" t="s">
+      <c r="H546" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61062,7 +61059,7 @@
       <c r="G547" s="9" t="s">
         <v>5022</v>
       </c>
-      <c r="H547" s="19" t="s">
+      <c r="H547" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61088,7 +61085,7 @@
       <c r="G548" s="9" t="s">
         <v>5025</v>
       </c>
-      <c r="H548" s="19" t="s">
+      <c r="H548" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61114,7 +61111,7 @@
       <c r="G549" s="9" t="s">
         <v>5028</v>
       </c>
-      <c r="H549" s="19" t="s">
+      <c r="H549" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61140,7 +61137,7 @@
       <c r="G550" s="9" t="s">
         <v>5031</v>
       </c>
-      <c r="H550" s="19" t="s">
+      <c r="H550" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61166,7 +61163,7 @@
       <c r="G551" s="9" t="s">
         <v>5034</v>
       </c>
-      <c r="H551" s="19" t="s">
+      <c r="H551" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61192,7 +61189,7 @@
       <c r="G552" s="9" t="s">
         <v>5037</v>
       </c>
-      <c r="H552" s="19" t="s">
+      <c r="H552" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61218,7 +61215,7 @@
       <c r="G553" s="9" t="s">
         <v>5040</v>
       </c>
-      <c r="H553" s="19" t="s">
+      <c r="H553" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61244,7 +61241,7 @@
       <c r="G554" s="9" t="s">
         <v>5043</v>
       </c>
-      <c r="H554" s="19" t="s">
+      <c r="H554" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61270,7 +61267,7 @@
       <c r="G555" s="9" t="s">
         <v>5046</v>
       </c>
-      <c r="H555" s="19" t="s">
+      <c r="H555" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61304,7 +61301,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
@@ -61343,19 +61340,19 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>5048</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5049</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>5050</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>5051</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -61384,7 +61381,7 @@
       <c r="G3" s="9" t="s">
         <v>5055</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61410,7 +61407,7 @@
       <c r="G4" s="9" t="s">
         <v>5058</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61436,7 +61433,7 @@
       <c r="G5" s="9" t="s">
         <v>5061</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61462,7 +61459,7 @@
       <c r="G6" s="9" t="s">
         <v>4463</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61488,7 +61485,7 @@
       <c r="G7" s="9" t="s">
         <v>4465</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61514,7 +61511,7 @@
       <c r="G8" s="9" t="s">
         <v>5067</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61540,7 +61537,7 @@
       <c r="G9" s="9" t="s">
         <v>5070</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61566,7 +61563,7 @@
       <c r="G10" s="9" t="s">
         <v>5073</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61592,7 +61589,7 @@
       <c r="G11" s="9" t="s">
         <v>5076</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61618,7 +61615,7 @@
       <c r="G12" s="9" t="s">
         <v>5079</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61644,7 +61641,7 @@
       <c r="G13" s="9" t="s">
         <v>5082</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61670,7 +61667,7 @@
       <c r="G14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61696,7 +61693,7 @@
       <c r="G15" s="9" t="s">
         <v>5086</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61722,7 +61719,7 @@
       <c r="G16" s="9" t="s">
         <v>5089</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61748,7 +61745,7 @@
       <c r="G17" s="9" t="s">
         <v>5092</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61774,7 +61771,7 @@
       <c r="G18" s="9" t="s">
         <v>2691</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -61800,7 +61797,7 @@
       <c r="G19" s="9" t="s">
         <v>5096</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -65211,7 +65208,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="9" style="0" width="10.71"/>
@@ -65273,7 +65270,7 @@
       <c r="H2" s="0" t="s">
         <v>5448</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65303,7 +65300,7 @@
       <c r="H3" s="0" t="s">
         <v>5452</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65333,7 +65330,7 @@
       <c r="H4" s="0" t="s">
         <v>5455</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65363,7 +65360,7 @@
       <c r="H5" s="0" t="s">
         <v>5457</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65393,7 +65390,7 @@
       <c r="H6" s="0" t="s">
         <v>5459</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65423,7 +65420,7 @@
       <c r="H7" s="0" t="s">
         <v>5462</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65453,7 +65450,7 @@
       <c r="H8" s="0" t="s">
         <v>5465</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65471,13 +65468,13 @@
       <c r="D9" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>5445</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>5466</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -65507,7 +65504,7 @@
       <c r="H10" s="0" t="s">
         <v>5470</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65537,7 +65534,7 @@
       <c r="H11" s="0" t="s">
         <v>5473</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65567,7 +65564,7 @@
       <c r="H12" s="0" t="s">
         <v>5476</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65597,7 +65594,7 @@
       <c r="H13" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65627,7 +65624,7 @@
       <c r="H14" s="0" t="s">
         <v>5478</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65657,7 +65654,7 @@
       <c r="H15" s="0" t="s">
         <v>5481</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65687,7 +65684,7 @@
       <c r="H16" s="0" t="s">
         <v>5484</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65708,7 +65705,7 @@
       <c r="E17" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>5485</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -65717,7 +65714,7 @@
       <c r="H17" s="0" t="s">
         <v>5487</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65738,7 +65735,7 @@
       <c r="E18" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>5485</v>
       </c>
       <c r="G18" s="0" t="s">
@@ -65747,7 +65744,7 @@
       <c r="H18" s="0" t="s">
         <v>5489</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65768,16 +65765,16 @@
       <c r="E19" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>5485</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>5490</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>5491</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65798,16 +65795,16 @@
       <c r="E20" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>5485</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>5492</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>5493</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65825,19 +65822,19 @@
       <c r="D21" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>5494</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>5485</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>5495</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>5496</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65867,7 +65864,7 @@
       <c r="H22" s="0" t="s">
         <v>5499</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65888,7 +65885,7 @@
       <c r="E23" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>5500</v>
       </c>
       <c r="G23" s="0" t="s">
@@ -65897,7 +65894,7 @@
       <c r="H23" s="0" t="s">
         <v>5502</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65918,7 +65915,7 @@
       <c r="E24" s="0" t="s">
         <v>5453</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>5503</v>
       </c>
       <c r="G24" s="0" t="s">
@@ -65927,7 +65924,7 @@
       <c r="H24" s="0" t="s">
         <v>5505</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65957,7 +65954,7 @@
       <c r="H25" s="0" t="s">
         <v>5507</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -65987,7 +65984,7 @@
       <c r="H26" s="0" t="s">
         <v>5509</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66017,7 +66014,7 @@
       <c r="H27" s="0" t="s">
         <v>5511</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66047,7 +66044,7 @@
       <c r="H28" s="0" t="s">
         <v>5513</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66077,7 +66074,7 @@
       <c r="H29" s="0" t="s">
         <v>5516</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66107,7 +66104,7 @@
       <c r="H30" s="0" t="s">
         <v>5518</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66137,7 +66134,7 @@
       <c r="H31" s="0" t="s">
         <v>5520</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66167,7 +66164,7 @@
       <c r="H32" s="0" t="s">
         <v>5523</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66197,7 +66194,7 @@
       <c r="H33" s="0" t="s">
         <v>5525</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66227,7 +66224,7 @@
       <c r="H34" s="0" t="s">
         <v>5527</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66257,7 +66254,7 @@
       <c r="H35" s="0" t="s">
         <v>5529</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66287,7 +66284,7 @@
       <c r="H36" s="0" t="s">
         <v>5532</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66317,7 +66314,7 @@
       <c r="H37" s="0" t="s">
         <v>5534</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66347,7 +66344,7 @@
       <c r="H38" s="0" t="s">
         <v>5535</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66377,7 +66374,7 @@
       <c r="H39" s="0" t="s">
         <v>5537</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66407,7 +66404,7 @@
       <c r="H40" s="0" t="s">
         <v>5539</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66437,7 +66434,7 @@
       <c r="H41" s="0" t="s">
         <v>5541</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66467,7 +66464,7 @@
       <c r="H42" s="0" t="s">
         <v>5543</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66497,7 +66494,7 @@
       <c r="H43" s="0" t="s">
         <v>5545</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66527,7 +66524,7 @@
       <c r="H44" s="0" t="s">
         <v>5547</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -66545,10 +66542,10 @@
       <c r="D45" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>5494</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>5521</v>
       </c>
       <c r="G45" s="0" t="s">
@@ -66557,7 +66554,7 @@
       <c r="H45" s="0" t="s">
         <v>5549</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66575,10 +66572,10 @@
       <c r="D46" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>5445</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>5550</v>
       </c>
       <c r="G46" s="0" t="s">
@@ -66587,7 +66584,7 @@
       <c r="H46" s="0" t="s">
         <v>5552</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66617,12 +66614,12 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="14.43"/>
   </cols>
@@ -66682,7 +66679,7 @@
       <c r="H2" s="0" t="s">
         <v>5555</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66712,7 +66709,7 @@
       <c r="H3" s="0" t="s">
         <v>5558</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66742,7 +66739,7 @@
       <c r="H4" s="0" t="s">
         <v>5561</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66772,7 +66769,7 @@
       <c r="H5" s="0" t="s">
         <v>5564</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66802,7 +66799,7 @@
       <c r="H6" s="0" t="s">
         <v>5567</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66832,7 +66829,7 @@
       <c r="H7" s="0" t="s">
         <v>5570</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66862,7 +66859,7 @@
       <c r="H8" s="0" t="s">
         <v>5573</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66892,7 +66889,7 @@
       <c r="H9" s="0" t="s">
         <v>5576</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66910,10 +66907,10 @@
       <c r="D10" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>5577</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>5445</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -66922,7 +66919,7 @@
       <c r="H10" s="0" t="s">
         <v>5579</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66952,7 +66949,7 @@
       <c r="H11" s="0" t="s">
         <v>5582</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -66970,10 +66967,10 @@
       <c r="D12" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>5583</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>5445</v>
       </c>
       <c r="G12" s="0" t="s">
@@ -66982,7 +66979,7 @@
       <c r="H12" s="0" t="s">
         <v>5585</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67010,7 +67007,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
@@ -67075,7 +67072,7 @@
       <c r="H2" s="0" t="s">
         <v>5589</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67105,7 +67102,7 @@
       <c r="H3" s="0" t="s">
         <v>5592</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67135,7 +67132,7 @@
       <c r="H4" s="0" t="s">
         <v>5594</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67165,7 +67162,7 @@
       <c r="H5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67195,7 +67192,7 @@
       <c r="H6" s="0" t="s">
         <v>5596</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67225,7 +67222,7 @@
       <c r="H7" s="0" t="s">
         <v>5598</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67255,7 +67252,7 @@
       <c r="H8" s="0" t="s">
         <v>5600</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67285,7 +67282,7 @@
       <c r="H9" s="0" t="s">
         <v>5602</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67315,7 +67312,7 @@
       <c r="H10" s="0" t="s">
         <v>5604</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67345,7 +67342,7 @@
       <c r="H11" s="0" t="s">
         <v>5606</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67375,7 +67372,7 @@
       <c r="H12" s="0" t="s">
         <v>5608</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67405,7 +67402,7 @@
       <c r="H13" s="0" t="s">
         <v>5610</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67435,7 +67432,7 @@
       <c r="H14" s="0" t="s">
         <v>5612</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67453,10 +67450,10 @@
       <c r="D15" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>5590</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>5494</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -67465,7 +67462,7 @@
       <c r="H15" s="0" t="s">
         <v>5614</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67483,10 +67480,10 @@
       <c r="D16" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>5590</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>5494</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -67495,7 +67492,7 @@
       <c r="H16" s="0" t="s">
         <v>5616</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67525,7 +67522,7 @@
       <c r="H17" s="0" t="s">
         <v>5618</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67555,7 +67552,7 @@
       <c r="H18" s="0" t="s">
         <v>5621</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67585,7 +67582,7 @@
       <c r="H19" s="0" t="s">
         <v>5624</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67615,7 +67612,7 @@
       <c r="H20" s="0" t="s">
         <v>5626</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67645,7 +67642,7 @@
       <c r="H21" s="0" t="s">
         <v>5628</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67675,7 +67672,7 @@
       <c r="H22" s="0" t="s">
         <v>5630</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67705,7 +67702,7 @@
       <c r="H23" s="0" t="s">
         <v>5632</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67735,7 +67732,7 @@
       <c r="H24" s="0" t="s">
         <v>5634</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67765,7 +67762,7 @@
       <c r="H25" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67796,8 +67793,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="10" style="0" width="10.71"/>
@@ -67859,7 +67856,7 @@
       <c r="H2" s="0" t="s">
         <v>5637</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67889,7 +67886,7 @@
       <c r="H3" s="0" t="s">
         <v>5640</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67919,7 +67916,7 @@
       <c r="H4" s="0" t="s">
         <v>5642</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67949,7 +67946,7 @@
       <c r="H5" s="0" t="s">
         <v>5644</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -67979,7 +67976,7 @@
       <c r="H6" s="0" t="s">
         <v>5646</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68009,7 +68006,7 @@
       <c r="H7" s="0" t="s">
         <v>5648</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68039,7 +68036,7 @@
       <c r="H8" s="0" t="s">
         <v>5651</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>5652</v>
       </c>
     </row>
@@ -68069,7 +68066,7 @@
       <c r="H9" s="0" t="s">
         <v>5655</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68099,7 +68096,7 @@
       <c r="H10" s="0" t="s">
         <v>5658</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68123,13 +68120,13 @@
       <c r="F11" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>5660</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>5661</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68153,13 +68150,13 @@
       <c r="F12" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>5663</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>5664</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68189,7 +68186,7 @@
       <c r="H13" s="0" t="s">
         <v>5667</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68219,7 +68216,7 @@
       <c r="H14" s="0" t="s">
         <v>5670</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68249,7 +68246,7 @@
       <c r="H15" s="0" t="s">
         <v>5673</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68279,7 +68276,7 @@
       <c r="H16" s="0" t="s">
         <v>5676</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68309,7 +68306,7 @@
       <c r="H17" s="0" t="s">
         <v>5679</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68333,13 +68330,13 @@
       <c r="F18" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>5681</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>5682</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68363,13 +68360,13 @@
       <c r="F19" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>5684</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>5685</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68399,7 +68396,7 @@
       <c r="H20" s="0" t="s">
         <v>5688</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68423,13 +68420,13 @@
       <c r="F21" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>5690</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>5691</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68453,13 +68450,13 @@
       <c r="F22" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>5693</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>5694</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68483,13 +68480,13 @@
       <c r="F23" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>5696</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>5697</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68513,13 +68510,13 @@
       <c r="F24" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>5699</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>5700</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68543,13 +68540,13 @@
       <c r="F25" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>5702</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>5703</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68573,13 +68570,13 @@
       <c r="F26" s="0" t="s">
         <v>5445</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>5705</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>5706</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68603,13 +68600,13 @@
       <c r="F27" s="0" t="s">
         <v>5453</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>5707</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>5708</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68633,13 +68630,13 @@
       <c r="F28" s="0" t="s">
         <v>5638</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>5709</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>5710</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68663,13 +68660,13 @@
       <c r="F29" s="0" t="s">
         <v>5453</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>5711</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68693,13 +68690,13 @@
       <c r="F30" s="0" t="s">
         <v>5638</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>5712</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>5713</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68729,7 +68726,7 @@
       <c r="H31" s="0" t="s">
         <v>5715</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68747,10 +68744,10 @@
       <c r="D32" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>5704</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>5494</v>
       </c>
       <c r="G32" s="0" t="s">
@@ -68759,7 +68756,7 @@
       <c r="H32" s="0" t="s">
         <v>5717</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68789,7 +68786,7 @@
       <c r="H33" s="0" t="s">
         <v>5720</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68819,7 +68816,7 @@
       <c r="H34" s="0" t="s">
         <v>5722</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68849,7 +68846,7 @@
       <c r="H35" s="0" t="s">
         <v>5724</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68879,7 +68876,7 @@
       <c r="H36" s="0" t="s">
         <v>5726</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68909,7 +68906,7 @@
       <c r="H37" s="0" t="s">
         <v>5728</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68939,7 +68936,7 @@
       <c r="H38" s="0" t="s">
         <v>5730</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68963,13 +68960,13 @@
       <c r="F39" s="0" t="s">
         <v>5638</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>5731</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>5732</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -68999,7 +68996,7 @@
       <c r="H40" s="0" t="s">
         <v>5734</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -69029,7 +69026,7 @@
       <c r="H41" s="0" t="s">
         <v>5736</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -69059,7 +69056,7 @@
       <c r="H42" s="0" t="s">
         <v>5738</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -69089,7 +69086,7 @@
       <c r="H43" s="0" t="s">
         <v>5740</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -69107,10 +69104,10 @@
       <c r="D44" s="5" t="s">
         <v>5444</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>5718</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>5445</v>
       </c>
       <c r="G44" s="0" t="s">
@@ -69119,7 +69116,7 @@
       <c r="H44" s="0" t="s">
         <v>5742</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>5449</v>
       </c>
     </row>
